--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="186">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -430,6 +430,12 @@
     <t>['80']</t>
   </si>
   <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['22', '41', '59']</t>
+  </si>
+  <si>
     <t>['7', '90']</t>
   </si>
   <si>
@@ -560,6 +566,12 @@
   </si>
   <si>
     <t>['67']</t>
+  </si>
+  <si>
+    <t>['51', '59', '85']</t>
+  </si>
+  <si>
+    <t>['35']</t>
   </si>
 </sst>
 </file>
@@ -921,7 +933,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP85"/>
+  <dimension ref="A1:BP87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1180,7 +1192,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1386,7 +1398,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1464,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
         <v>0.86</v>
@@ -1798,7 +1810,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -2004,7 +2016,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2082,10 +2094,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ6">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2210,7 +2222,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2291,7 +2303,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ7">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2416,7 +2428,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2622,7 +2634,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2828,7 +2840,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q10">
         <v>5.5</v>
@@ -2906,7 +2918,7 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
         <v>1.57</v>
@@ -3034,7 +3046,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3115,7 +3127,7 @@
         <v>1</v>
       </c>
       <c r="AQ11">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AR11">
         <v>0.7</v>
@@ -3318,7 +3330,7 @@
         <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ12">
         <v>1.14</v>
@@ -3446,7 +3458,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q13">
         <v>4.33</v>
@@ -3527,7 +3539,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR13">
         <v>1.78</v>
@@ -3733,7 +3745,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ14">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>1.54</v>
@@ -4270,7 +4282,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4348,7 +4360,7 @@
         <v>0.5</v>
       </c>
       <c r="AP17">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AQ17">
         <v>1.43</v>
@@ -4476,7 +4488,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q18">
         <v>3.75</v>
@@ -4557,7 +4569,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ18">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR18">
         <v>1.16</v>
@@ -4760,7 +4772,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ19">
         <v>0.86</v>
@@ -5300,7 +5312,7 @@
         <v>84</v>
       </c>
       <c r="P22" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q22">
         <v>4.79</v>
@@ -5378,10 +5390,10 @@
         <v>1.33</v>
       </c>
       <c r="AP22">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR22">
         <v>1.81</v>
@@ -5506,7 +5518,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q23">
         <v>3.74</v>
@@ -5584,10 +5596,10 @@
         <v>2.33</v>
       </c>
       <c r="AP23">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ23">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AR23">
         <v>1.04</v>
@@ -6124,7 +6136,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q26">
         <v>2.6</v>
@@ -6411,7 +6423,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ27">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>1.17</v>
@@ -6536,7 +6548,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q28">
         <v>3.25</v>
@@ -6617,7 +6629,7 @@
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR28">
         <v>1.14</v>
@@ -6742,7 +6754,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q29">
         <v>1.8</v>
@@ -6948,7 +6960,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7026,7 +7038,7 @@
         <v>1.75</v>
       </c>
       <c r="AP30">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ30">
         <v>1.36</v>
@@ -7232,7 +7244,7 @@
         <v>1.25</v>
       </c>
       <c r="AP31">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7360,7 +7372,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q32">
         <v>2.6</v>
@@ -7438,7 +7450,7 @@
         <v>0.8</v>
       </c>
       <c r="AP32">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ32">
         <v>1.43</v>
@@ -7644,7 +7656,7 @@
         <v>1.2</v>
       </c>
       <c r="AP33">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ33">
         <v>0.93</v>
@@ -7772,7 +7784,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q34">
         <v>3.29</v>
@@ -7978,7 +7990,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q35">
         <v>5.47</v>
@@ -8059,7 +8071,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ35">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AR35">
         <v>1.46</v>
@@ -8184,7 +8196,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8262,7 +8274,7 @@
         <v>1.6</v>
       </c>
       <c r="AP36">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ36">
         <v>1.57</v>
@@ -8596,7 +8608,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q38">
         <v>3.75</v>
@@ -8880,10 +8892,10 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AQ39">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR39">
         <v>1.59</v>
@@ -9008,7 +9020,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q40">
         <v>4.4</v>
@@ -9089,7 +9101,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ40">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR40">
         <v>1.37</v>
@@ -9420,7 +9432,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9707,7 +9719,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ43">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR43">
         <v>1.5</v>
@@ -9832,7 +9844,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q44">
         <v>3.5</v>
@@ -10038,7 +10050,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q45">
         <v>4.6</v>
@@ -10119,7 +10131,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ45">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AR45">
         <v>1.43</v>
@@ -10244,7 +10256,7 @@
         <v>84</v>
       </c>
       <c r="P46" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10450,7 +10462,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q47">
         <v>2.06</v>
@@ -10528,7 +10540,7 @@
         <v>1.14</v>
       </c>
       <c r="AP47">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ47">
         <v>0.93</v>
@@ -10656,7 +10668,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -10734,7 +10746,7 @@
         <v>0.57</v>
       </c>
       <c r="AP48">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -10943,7 +10955,7 @@
         <v>1</v>
       </c>
       <c r="AQ49">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR49">
         <v>1.28</v>
@@ -11352,7 +11364,7 @@
         <v>0.75</v>
       </c>
       <c r="AP51">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ51">
         <v>0.86</v>
@@ -11558,10 +11570,10 @@
         <v>2.13</v>
       </c>
       <c r="AP52">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AQ52">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR52">
         <v>1.57</v>
@@ -11892,7 +11904,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11973,7 +11985,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ54">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR54">
         <v>1.4</v>
@@ -12098,7 +12110,7 @@
         <v>102</v>
       </c>
       <c r="P55" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q55">
         <v>2.78</v>
@@ -12304,7 +12316,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q56">
         <v>2.63</v>
@@ -12510,7 +12522,7 @@
         <v>84</v>
       </c>
       <c r="P57" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q57">
         <v>4.75</v>
@@ -12591,7 +12603,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ57">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AR57">
         <v>1.3</v>
@@ -12716,7 +12728,7 @@
         <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q58">
         <v>2.69</v>
@@ -12794,7 +12806,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP58">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -12922,7 +12934,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q59">
         <v>4.96</v>
@@ -13128,7 +13140,7 @@
         <v>84</v>
       </c>
       <c r="P60" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13206,10 +13218,10 @@
         <v>1.78</v>
       </c>
       <c r="AP60">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ60">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR60">
         <v>1.65</v>
@@ -13540,7 +13552,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q62">
         <v>2.8</v>
@@ -13618,7 +13630,7 @@
         <v>1.2</v>
       </c>
       <c r="AP62">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ62">
         <v>1.36</v>
@@ -13824,7 +13836,7 @@
         <v>0.9</v>
       </c>
       <c r="AP63">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AQ63">
         <v>0.93</v>
@@ -14158,7 +14170,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q65">
         <v>2.95</v>
@@ -14239,7 +14251,7 @@
         <v>1</v>
       </c>
       <c r="AQ65">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR65">
         <v>1.17</v>
@@ -14445,7 +14457,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ66">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR66">
         <v>1.47</v>
@@ -14982,7 +14994,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15188,7 +15200,7 @@
         <v>102</v>
       </c>
       <c r="P70" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15269,7 +15281,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ70">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR70">
         <v>1.3</v>
@@ -15472,7 +15484,7 @@
         <v>1.64</v>
       </c>
       <c r="AP71">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AQ71">
         <v>1.57</v>
@@ -15600,7 +15612,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q72">
         <v>3.8</v>
@@ -15678,10 +15690,10 @@
         <v>1.64</v>
       </c>
       <c r="AP72">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ72">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR72">
         <v>1.29</v>
@@ -16012,7 +16024,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q74">
         <v>2.8</v>
@@ -16218,7 +16230,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16502,7 +16514,7 @@
         <v>1.17</v>
       </c>
       <c r="AP76">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AQ76">
         <v>1</v>
@@ -16711,7 +16723,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ77">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR77">
         <v>1.45</v>
@@ -16914,7 +16926,7 @@
         <v>1.08</v>
       </c>
       <c r="AP78">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ78">
         <v>1</v>
@@ -17123,7 +17135,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ79">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR79">
         <v>1.28</v>
@@ -17248,7 +17260,7 @@
         <v>136</v>
       </c>
       <c r="P80" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q80">
         <v>4.8</v>
@@ -17329,7 +17341,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ80">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AR80">
         <v>1.4</v>
@@ -17532,7 +17544,7 @@
         <v>1.46</v>
       </c>
       <c r="AP81">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ81">
         <v>1.36</v>
@@ -17660,7 +17672,7 @@
         <v>122</v>
       </c>
       <c r="P82" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17866,7 +17878,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q83">
         <v>2.75</v>
@@ -18072,7 +18084,7 @@
         <v>84</v>
       </c>
       <c r="P84" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q84">
         <v>2.9</v>
@@ -18150,7 +18162,7 @@
         <v>0.77</v>
       </c>
       <c r="AP84">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ84">
         <v>0.93</v>
@@ -18278,7 +18290,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q85">
         <v>4.41</v>
@@ -18359,7 +18371,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ85">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR85">
         <v>1.32</v>
@@ -18435,6 +18447,418 @@
       </c>
       <c r="BP85">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7793180</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45766.75</v>
+      </c>
+      <c r="F86">
+        <v>15</v>
+      </c>
+      <c r="G86" t="s">
+        <v>81</v>
+      </c>
+      <c r="H86" t="s">
+        <v>79</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>3</v>
+      </c>
+      <c r="N86">
+        <v>4</v>
+      </c>
+      <c r="O86" t="s">
+        <v>138</v>
+      </c>
+      <c r="P86" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q86">
+        <v>2.2</v>
+      </c>
+      <c r="R86">
+        <v>2.05</v>
+      </c>
+      <c r="S86">
+        <v>5.4</v>
+      </c>
+      <c r="T86">
+        <v>1.46</v>
+      </c>
+      <c r="U86">
+        <v>2.69</v>
+      </c>
+      <c r="V86">
+        <v>3.33</v>
+      </c>
+      <c r="W86">
+        <v>1.33</v>
+      </c>
+      <c r="X86">
+        <v>8</v>
+      </c>
+      <c r="Y86">
+        <v>1.05</v>
+      </c>
+      <c r="Z86">
+        <v>1.68</v>
+      </c>
+      <c r="AA86">
+        <v>3.4</v>
+      </c>
+      <c r="AB86">
+        <v>4.55</v>
+      </c>
+      <c r="AC86">
+        <v>1.08</v>
+      </c>
+      <c r="AD86">
+        <v>7.8</v>
+      </c>
+      <c r="AE86">
+        <v>1.42</v>
+      </c>
+      <c r="AF86">
+        <v>2.8</v>
+      </c>
+      <c r="AG86">
+        <v>2.2</v>
+      </c>
+      <c r="AH86">
+        <v>1.62</v>
+      </c>
+      <c r="AI86">
+        <v>2.15</v>
+      </c>
+      <c r="AJ86">
+        <v>1.62</v>
+      </c>
+      <c r="AK86">
+        <v>1.25</v>
+      </c>
+      <c r="AL86">
+        <v>1.25</v>
+      </c>
+      <c r="AM86">
+        <v>2.15</v>
+      </c>
+      <c r="AN86">
+        <v>2.43</v>
+      </c>
+      <c r="AO86">
+        <v>1.64</v>
+      </c>
+      <c r="AP86">
+        <v>2.27</v>
+      </c>
+      <c r="AQ86">
+        <v>1.73</v>
+      </c>
+      <c r="AR86">
+        <v>1.64</v>
+      </c>
+      <c r="AS86">
+        <v>1.28</v>
+      </c>
+      <c r="AT86">
+        <v>2.92</v>
+      </c>
+      <c r="AU86">
+        <v>5</v>
+      </c>
+      <c r="AV86">
+        <v>7</v>
+      </c>
+      <c r="AW86">
+        <v>6</v>
+      </c>
+      <c r="AX86">
+        <v>4</v>
+      </c>
+      <c r="AY86">
+        <v>11</v>
+      </c>
+      <c r="AZ86">
+        <v>11</v>
+      </c>
+      <c r="BA86">
+        <v>5</v>
+      </c>
+      <c r="BB86">
+        <v>1</v>
+      </c>
+      <c r="BC86">
+        <v>6</v>
+      </c>
+      <c r="BD86">
+        <v>1.39</v>
+      </c>
+      <c r="BE86">
+        <v>6.4</v>
+      </c>
+      <c r="BF86">
+        <v>3.58</v>
+      </c>
+      <c r="BG86">
+        <v>1.5</v>
+      </c>
+      <c r="BH86">
+        <v>2.4</v>
+      </c>
+      <c r="BI86">
+        <v>1.85</v>
+      </c>
+      <c r="BJ86">
+        <v>1.92</v>
+      </c>
+      <c r="BK86">
+        <v>2.35</v>
+      </c>
+      <c r="BL86">
+        <v>1.55</v>
+      </c>
+      <c r="BM86">
+        <v>3.15</v>
+      </c>
+      <c r="BN86">
+        <v>1.3</v>
+      </c>
+      <c r="BO86">
+        <v>4.1</v>
+      </c>
+      <c r="BP86">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7793177</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45766.84375</v>
+      </c>
+      <c r="F87">
+        <v>15</v>
+      </c>
+      <c r="G87" t="s">
+        <v>74</v>
+      </c>
+      <c r="H87" t="s">
+        <v>71</v>
+      </c>
+      <c r="I87">
+        <v>2</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>3</v>
+      </c>
+      <c r="L87">
+        <v>3</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>4</v>
+      </c>
+      <c r="O87" t="s">
+        <v>139</v>
+      </c>
+      <c r="P87" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q87">
+        <v>2.2</v>
+      </c>
+      <c r="R87">
+        <v>2.05</v>
+      </c>
+      <c r="S87">
+        <v>5</v>
+      </c>
+      <c r="T87">
+        <v>1.4</v>
+      </c>
+      <c r="U87">
+        <v>2.6</v>
+      </c>
+      <c r="V87">
+        <v>2.85</v>
+      </c>
+      <c r="W87">
+        <v>1.35</v>
+      </c>
+      <c r="X87">
+        <v>7.5</v>
+      </c>
+      <c r="Y87">
+        <v>1.06</v>
+      </c>
+      <c r="Z87">
+        <v>1.68</v>
+      </c>
+      <c r="AA87">
+        <v>3.59</v>
+      </c>
+      <c r="AB87">
+        <v>5.1</v>
+      </c>
+      <c r="AC87">
+        <v>1.02</v>
+      </c>
+      <c r="AD87">
+        <v>8.1</v>
+      </c>
+      <c r="AE87">
+        <v>1.36</v>
+      </c>
+      <c r="AF87">
+        <v>2.98</v>
+      </c>
+      <c r="AG87">
+        <v>2</v>
+      </c>
+      <c r="AH87">
+        <v>1.67</v>
+      </c>
+      <c r="AI87">
+        <v>2.04</v>
+      </c>
+      <c r="AJ87">
+        <v>1.67</v>
+      </c>
+      <c r="AK87">
+        <v>1.17</v>
+      </c>
+      <c r="AL87">
+        <v>1.22</v>
+      </c>
+      <c r="AM87">
+        <v>2.1</v>
+      </c>
+      <c r="AN87">
+        <v>1.57</v>
+      </c>
+      <c r="AO87">
+        <v>1.07</v>
+      </c>
+      <c r="AP87">
+        <v>1.67</v>
+      </c>
+      <c r="AQ87">
+        <v>1</v>
+      </c>
+      <c r="AR87">
+        <v>1.67</v>
+      </c>
+      <c r="AS87">
+        <v>1.49</v>
+      </c>
+      <c r="AT87">
+        <v>3.16</v>
+      </c>
+      <c r="AU87">
+        <v>9</v>
+      </c>
+      <c r="AV87">
+        <v>5</v>
+      </c>
+      <c r="AW87">
+        <v>11</v>
+      </c>
+      <c r="AX87">
+        <v>5</v>
+      </c>
+      <c r="AY87">
+        <v>20</v>
+      </c>
+      <c r="AZ87">
+        <v>10</v>
+      </c>
+      <c r="BA87">
+        <v>6</v>
+      </c>
+      <c r="BB87">
+        <v>2</v>
+      </c>
+      <c r="BC87">
+        <v>8</v>
+      </c>
+      <c r="BD87">
+        <v>1.47</v>
+      </c>
+      <c r="BE87">
+        <v>6.5</v>
+      </c>
+      <c r="BF87">
+        <v>3.4</v>
+      </c>
+      <c r="BG87">
+        <v>1.32</v>
+      </c>
+      <c r="BH87">
+        <v>3.07</v>
+      </c>
+      <c r="BI87">
+        <v>1.53</v>
+      </c>
+      <c r="BJ87">
+        <v>2.21</v>
+      </c>
+      <c r="BK87">
+        <v>2.24</v>
+      </c>
+      <c r="BL87">
+        <v>1.58</v>
+      </c>
+      <c r="BM87">
+        <v>2.8</v>
+      </c>
+      <c r="BN87">
+        <v>1.42</v>
+      </c>
+      <c r="BO87">
+        <v>3.6</v>
+      </c>
+      <c r="BP87">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="187">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -434,6 +434,9 @@
   </si>
   <si>
     <t>['22', '41', '59']</t>
+  </si>
+  <si>
+    <t>['13']</t>
   </si>
   <si>
     <t>['7', '90']</t>
@@ -933,7 +936,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP87"/>
+  <dimension ref="A1:BP89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1192,7 +1195,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1270,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1398,7 +1401,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1479,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1810,7 +1813,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -1888,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ5">
         <v>1.43</v>
@@ -2016,7 +2019,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2222,7 +2225,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2300,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ7">
         <v>2.27</v>
@@ -2428,7 +2431,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2506,10 +2509,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR8">
         <v>1.35</v>
@@ -2634,7 +2637,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2840,7 +2843,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q10">
         <v>5.5</v>
@@ -2921,7 +2924,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR10">
         <v>2.15</v>
@@ -3046,7 +3049,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3333,7 +3336,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ12">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR12">
         <v>1.05</v>
@@ -3458,7 +3461,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q13">
         <v>4.33</v>
@@ -3742,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -3948,7 +3951,7 @@
         <v>0.5</v>
       </c>
       <c r="AP15">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4154,7 +4157,7 @@
         <v>2</v>
       </c>
       <c r="AP16">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4282,7 +4285,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4488,7 +4491,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q18">
         <v>3.75</v>
@@ -4775,7 +4778,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ19">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR19">
         <v>1.79</v>
@@ -5184,10 +5187,10 @@
         <v>1.67</v>
       </c>
       <c r="AP21">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ21">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR21">
         <v>1.66</v>
@@ -5312,7 +5315,7 @@
         <v>84</v>
       </c>
       <c r="P22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q22">
         <v>4.79</v>
@@ -5518,7 +5521,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q23">
         <v>3.74</v>
@@ -5802,10 +5805,10 @@
         <v>1.33</v>
       </c>
       <c r="AP24">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR24">
         <v>1.38</v>
@@ -6136,7 +6139,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q26">
         <v>2.6</v>
@@ -6217,7 +6220,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ26">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>1.14</v>
@@ -6420,7 +6423,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -6548,7 +6551,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q28">
         <v>3.25</v>
@@ -6754,7 +6757,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q29">
         <v>1.8</v>
@@ -6832,7 +6835,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ29">
         <v>1.43</v>
@@ -6960,7 +6963,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7041,7 +7044,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ30">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR30">
         <v>1.83</v>
@@ -7372,7 +7375,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q32">
         <v>2.6</v>
@@ -7784,7 +7787,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q34">
         <v>3.29</v>
@@ -7990,7 +7993,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q35">
         <v>5.47</v>
@@ -8068,7 +8071,7 @@
         <v>2.6</v>
       </c>
       <c r="AP35">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
         <v>2.27</v>
@@ -8196,7 +8199,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8277,7 +8280,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ36">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR36">
         <v>1.8</v>
@@ -8480,10 +8483,10 @@
         <v>1.4</v>
       </c>
       <c r="AP37">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ37">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR37">
         <v>1.52</v>
@@ -8608,7 +8611,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q38">
         <v>3.75</v>
@@ -9020,7 +9023,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q40">
         <v>4.4</v>
@@ -9098,7 +9101,7 @@
         <v>2.17</v>
       </c>
       <c r="AP40">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ40">
         <v>1.67</v>
@@ -9307,7 +9310,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>1.17</v>
@@ -9432,7 +9435,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9513,7 +9516,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ42">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR42">
         <v>1.17</v>
@@ -9716,7 +9719,7 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ43">
         <v>1.73</v>
@@ -9844,7 +9847,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q44">
         <v>3.5</v>
@@ -9922,7 +9925,7 @@
         <v>1.14</v>
       </c>
       <c r="AP44">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
         <v>1.43</v>
@@ -10050,7 +10053,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q45">
         <v>4.6</v>
@@ -10128,7 +10131,7 @@
         <v>2.71</v>
       </c>
       <c r="AP45">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ45">
         <v>2.27</v>
@@ -10256,7 +10259,7 @@
         <v>84</v>
       </c>
       <c r="P46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10334,10 +10337,10 @@
         <v>1.14</v>
       </c>
       <c r="AP46">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ46">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR46">
         <v>1.32</v>
@@ -10462,7 +10465,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q47">
         <v>2.06</v>
@@ -10668,7 +10671,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11161,7 +11164,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ50">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR50">
         <v>1.1</v>
@@ -11367,7 +11370,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ51">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR51">
         <v>1.14</v>
@@ -11776,7 +11779,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -11904,7 +11907,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12110,7 +12113,7 @@
         <v>102</v>
       </c>
       <c r="P55" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q55">
         <v>2.78</v>
@@ -12191,7 +12194,7 @@
         <v>1</v>
       </c>
       <c r="AQ55">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR55">
         <v>1.34</v>
@@ -12316,7 +12319,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q56">
         <v>2.63</v>
@@ -12394,7 +12397,7 @@
         <v>1.22</v>
       </c>
       <c r="AP56">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ56">
         <v>1.43</v>
@@ -12522,7 +12525,7 @@
         <v>84</v>
       </c>
       <c r="P57" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q57">
         <v>4.75</v>
@@ -12600,7 +12603,7 @@
         <v>2.56</v>
       </c>
       <c r="AP57">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ57">
         <v>2.27</v>
@@ -12728,7 +12731,7 @@
         <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q58">
         <v>2.69</v>
@@ -12934,7 +12937,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q59">
         <v>4.96</v>
@@ -13015,7 +13018,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ59">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR59">
         <v>1.21</v>
@@ -13140,7 +13143,7 @@
         <v>84</v>
       </c>
       <c r="P60" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13424,7 +13427,7 @@
         <v>1.33</v>
       </c>
       <c r="AP61">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ61">
         <v>1</v>
@@ -13552,7 +13555,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q62">
         <v>2.8</v>
@@ -13633,7 +13636,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ62">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR62">
         <v>1.2</v>
@@ -14042,10 +14045,10 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ64">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR64">
         <v>1.44</v>
@@ -14170,7 +14173,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q65">
         <v>2.95</v>
@@ -14663,7 +14666,7 @@
         <v>1</v>
       </c>
       <c r="AQ67">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR67">
         <v>1.43</v>
@@ -14869,7 +14872,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ68">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR68">
         <v>1.43</v>
@@ -14994,7 +14997,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15075,7 +15078,7 @@
         <v>1</v>
       </c>
       <c r="AQ69">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR69">
         <v>1.22</v>
@@ -15200,7 +15203,7 @@
         <v>102</v>
       </c>
       <c r="P70" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15278,7 +15281,7 @@
         <v>0.91</v>
       </c>
       <c r="AP70">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ70">
         <v>1</v>
@@ -15487,7 +15490,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ71">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR71">
         <v>1.62</v>
@@ -15612,7 +15615,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q72">
         <v>3.8</v>
@@ -16024,7 +16027,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q74">
         <v>2.8</v>
@@ -16230,7 +16233,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16308,10 +16311,10 @@
         <v>0.92</v>
       </c>
       <c r="AP75">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ75">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR75">
         <v>1.43</v>
@@ -16720,7 +16723,7 @@
         <v>0.92</v>
       </c>
       <c r="AP77">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -17132,7 +17135,7 @@
         <v>1.83</v>
       </c>
       <c r="AP79">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ79">
         <v>1.73</v>
@@ -17260,7 +17263,7 @@
         <v>136</v>
       </c>
       <c r="P80" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q80">
         <v>4.8</v>
@@ -17547,7 +17550,7 @@
         <v>1</v>
       </c>
       <c r="AQ81">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR81">
         <v>1.44</v>
@@ -17672,7 +17675,7 @@
         <v>122</v>
       </c>
       <c r="P82" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17753,7 +17756,7 @@
         <v>1</v>
       </c>
       <c r="AQ82">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR82">
         <v>1.47</v>
@@ -17878,7 +17881,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q83">
         <v>2.75</v>
@@ -17959,7 +17962,7 @@
         <v>1</v>
       </c>
       <c r="AQ83">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR83">
         <v>1.28</v>
@@ -18084,7 +18087,7 @@
         <v>84</v>
       </c>
       <c r="P84" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q84">
         <v>2.9</v>
@@ -18290,7 +18293,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q85">
         <v>4.41</v>
@@ -18368,7 +18371,7 @@
         <v>1.46</v>
       </c>
       <c r="AP85">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ85">
         <v>1.67</v>
@@ -18496,7 +18499,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q86">
         <v>2.2</v>
@@ -18702,7 +18705,7 @@
         <v>139</v>
       </c>
       <c r="P87" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q87">
         <v>2.2</v>
@@ -18859,6 +18862,418 @@
       </c>
       <c r="BP87">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7793178</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45767.75</v>
+      </c>
+      <c r="F88">
+        <v>15</v>
+      </c>
+      <c r="G88" t="s">
+        <v>73</v>
+      </c>
+      <c r="H88" t="s">
+        <v>76</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88" t="s">
+        <v>84</v>
+      </c>
+      <c r="P88" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q88">
+        <v>3.55</v>
+      </c>
+      <c r="R88">
+        <v>1.95</v>
+      </c>
+      <c r="S88">
+        <v>3.4</v>
+      </c>
+      <c r="T88">
+        <v>1.47</v>
+      </c>
+      <c r="U88">
+        <v>2.45</v>
+      </c>
+      <c r="V88">
+        <v>3.37</v>
+      </c>
+      <c r="W88">
+        <v>1.31</v>
+      </c>
+      <c r="X88">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y88">
+        <v>1</v>
+      </c>
+      <c r="Z88">
+        <v>2.87</v>
+      </c>
+      <c r="AA88">
+        <v>2.79</v>
+      </c>
+      <c r="AB88">
+        <v>2.6</v>
+      </c>
+      <c r="AC88">
+        <v>1.11</v>
+      </c>
+      <c r="AD88">
+        <v>7</v>
+      </c>
+      <c r="AE88">
+        <v>1.53</v>
+      </c>
+      <c r="AF88">
+        <v>2.55</v>
+      </c>
+      <c r="AG88">
+        <v>2.63</v>
+      </c>
+      <c r="AH88">
+        <v>1.43</v>
+      </c>
+      <c r="AI88">
+        <v>2.05</v>
+      </c>
+      <c r="AJ88">
+        <v>1.65</v>
+      </c>
+      <c r="AK88">
+        <v>1.36</v>
+      </c>
+      <c r="AL88">
+        <v>1.3</v>
+      </c>
+      <c r="AM88">
+        <v>1.48</v>
+      </c>
+      <c r="AN88">
+        <v>1.14</v>
+      </c>
+      <c r="AO88">
+        <v>0.86</v>
+      </c>
+      <c r="AP88">
+        <v>1.07</v>
+      </c>
+      <c r="AQ88">
+        <v>1</v>
+      </c>
+      <c r="AR88">
+        <v>1.25</v>
+      </c>
+      <c r="AS88">
+        <v>1.34</v>
+      </c>
+      <c r="AT88">
+        <v>2.59</v>
+      </c>
+      <c r="AU88">
+        <v>0</v>
+      </c>
+      <c r="AV88">
+        <v>3</v>
+      </c>
+      <c r="AW88">
+        <v>3</v>
+      </c>
+      <c r="AX88">
+        <v>8</v>
+      </c>
+      <c r="AY88">
+        <v>3</v>
+      </c>
+      <c r="AZ88">
+        <v>11</v>
+      </c>
+      <c r="BA88">
+        <v>1</v>
+      </c>
+      <c r="BB88">
+        <v>3</v>
+      </c>
+      <c r="BC88">
+        <v>4</v>
+      </c>
+      <c r="BD88">
+        <v>2.08</v>
+      </c>
+      <c r="BE88">
+        <v>6.1</v>
+      </c>
+      <c r="BF88">
+        <v>2.05</v>
+      </c>
+      <c r="BG88">
+        <v>1.56</v>
+      </c>
+      <c r="BH88">
+        <v>2.4</v>
+      </c>
+      <c r="BI88">
+        <v>1.89</v>
+      </c>
+      <c r="BJ88">
+        <v>1.74</v>
+      </c>
+      <c r="BK88">
+        <v>2.25</v>
+      </c>
+      <c r="BL88">
+        <v>1.57</v>
+      </c>
+      <c r="BM88">
+        <v>3</v>
+      </c>
+      <c r="BN88">
+        <v>1.33</v>
+      </c>
+      <c r="BO88">
+        <v>4</v>
+      </c>
+      <c r="BP88">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7793176</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45767.84375</v>
+      </c>
+      <c r="F89">
+        <v>15</v>
+      </c>
+      <c r="G89" t="s">
+        <v>75</v>
+      </c>
+      <c r="H89" t="s">
+        <v>70</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89" t="s">
+        <v>140</v>
+      </c>
+      <c r="P89" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q89">
+        <v>2.26</v>
+      </c>
+      <c r="R89">
+        <v>2.08</v>
+      </c>
+      <c r="S89">
+        <v>5</v>
+      </c>
+      <c r="T89">
+        <v>1.38</v>
+      </c>
+      <c r="U89">
+        <v>2.95</v>
+      </c>
+      <c r="V89">
+        <v>2.89</v>
+      </c>
+      <c r="W89">
+        <v>1.36</v>
+      </c>
+      <c r="X89">
+        <v>7.8</v>
+      </c>
+      <c r="Y89">
+        <v>1.07</v>
+      </c>
+      <c r="Z89">
+        <v>1.6</v>
+      </c>
+      <c r="AA89">
+        <v>3.5</v>
+      </c>
+      <c r="AB89">
+        <v>4.55</v>
+      </c>
+      <c r="AC89">
+        <v>1.06</v>
+      </c>
+      <c r="AD89">
+        <v>10</v>
+      </c>
+      <c r="AE89">
+        <v>1.25</v>
+      </c>
+      <c r="AF89">
+        <v>3.28</v>
+      </c>
+      <c r="AG89">
+        <v>1.95</v>
+      </c>
+      <c r="AH89">
+        <v>1.83</v>
+      </c>
+      <c r="AI89">
+        <v>1.8</v>
+      </c>
+      <c r="AJ89">
+        <v>1.86</v>
+      </c>
+      <c r="AK89">
+        <v>1.27</v>
+      </c>
+      <c r="AL89">
+        <v>1.22</v>
+      </c>
+      <c r="AM89">
+        <v>2.1</v>
+      </c>
+      <c r="AN89">
+        <v>1.57</v>
+      </c>
+      <c r="AO89">
+        <v>1.36</v>
+      </c>
+      <c r="AP89">
+        <v>1.67</v>
+      </c>
+      <c r="AQ89">
+        <v>1.27</v>
+      </c>
+      <c r="AR89">
+        <v>1.53</v>
+      </c>
+      <c r="AS89">
+        <v>1.44</v>
+      </c>
+      <c r="AT89">
+        <v>2.97</v>
+      </c>
+      <c r="AU89">
+        <v>14</v>
+      </c>
+      <c r="AV89">
+        <v>5</v>
+      </c>
+      <c r="AW89">
+        <v>7</v>
+      </c>
+      <c r="AX89">
+        <v>8</v>
+      </c>
+      <c r="AY89">
+        <v>21</v>
+      </c>
+      <c r="AZ89">
+        <v>13</v>
+      </c>
+      <c r="BA89">
+        <v>7</v>
+      </c>
+      <c r="BB89">
+        <v>6</v>
+      </c>
+      <c r="BC89">
+        <v>13</v>
+      </c>
+      <c r="BD89">
+        <v>1.44</v>
+      </c>
+      <c r="BE89">
+        <v>7.5</v>
+      </c>
+      <c r="BF89">
+        <v>2.9</v>
+      </c>
+      <c r="BG89">
+        <v>1.35</v>
+      </c>
+      <c r="BH89">
+        <v>3.08</v>
+      </c>
+      <c r="BI89">
+        <v>1.6</v>
+      </c>
+      <c r="BJ89">
+        <v>2.25</v>
+      </c>
+      <c r="BK89">
+        <v>1.91</v>
+      </c>
+      <c r="BL89">
+        <v>1.8</v>
+      </c>
+      <c r="BM89">
+        <v>2.49</v>
+      </c>
+      <c r="BN89">
+        <v>1.5</v>
+      </c>
+      <c r="BO89">
+        <v>3.4</v>
+      </c>
+      <c r="BP89">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="188">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -439,6 +439,12 @@
     <t>['13']</t>
   </si>
   <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
     <t>['7', '90']</t>
   </si>
   <si>
@@ -458,9 +464,6 @@
   </si>
   <si>
     <t>['74', '80']</t>
-  </si>
-  <si>
-    <t>['60']</t>
   </si>
   <si>
     <t>['21', '27', '39']</t>
@@ -532,9 +535,6 @@
     <t>['88']</t>
   </si>
   <si>
-    <t>['22']</t>
-  </si>
-  <si>
     <t>['2', '28', '43', '54', '63']</t>
   </si>
   <si>
@@ -575,6 +575,9 @@
   </si>
   <si>
     <t>['35']</t>
+  </si>
+  <si>
+    <t>['35', '54', '77', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -936,7 +939,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP89"/>
+  <dimension ref="A1:BP91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1195,7 +1198,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1276,7 +1279,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1401,7 +1404,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1685,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -1813,7 +1816,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -1894,7 +1897,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ5">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2019,7 +2022,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2225,7 +2228,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2431,7 +2434,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2637,7 +2640,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2715,10 +2718,10 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ9">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR9">
         <v>1.34</v>
@@ -2843,7 +2846,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="Q10">
         <v>5.5</v>
@@ -3049,7 +3052,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3461,7 +3464,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q13">
         <v>4.33</v>
@@ -3539,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ13">
         <v>1.67</v>
@@ -4160,7 +4163,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR16">
         <v>1.31</v>
@@ -4285,7 +4288,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4366,7 +4369,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ17">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR17">
         <v>1.68</v>
@@ -4491,7 +4494,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q18">
         <v>3.75</v>
@@ -4569,7 +4572,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ18">
         <v>1.73</v>
@@ -4981,7 +4984,7 @@
         <v>0.33</v>
       </c>
       <c r="AP20">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5315,7 +5318,7 @@
         <v>84</v>
       </c>
       <c r="P22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q22">
         <v>4.79</v>
@@ -5521,7 +5524,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q23">
         <v>3.74</v>
@@ -6011,10 +6014,10 @@
         <v>1.33</v>
       </c>
       <c r="AP25">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ25">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR25">
         <v>1.38</v>
@@ -6139,7 +6142,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q26">
         <v>2.6</v>
@@ -6217,7 +6220,7 @@
         <v>1.25</v>
       </c>
       <c r="AP26">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6551,7 +6554,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q28">
         <v>3.25</v>
@@ -6757,7 +6760,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q29">
         <v>1.8</v>
@@ -6838,7 +6841,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ29">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR29">
         <v>1.56</v>
@@ -6963,7 +6966,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7250,7 +7253,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR31">
         <v>1.72</v>
@@ -7375,7 +7378,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q32">
         <v>2.6</v>
@@ -7456,7 +7459,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ32">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR32">
         <v>1.08</v>
@@ -7662,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR33">
         <v>1.83</v>
@@ -7787,7 +7790,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q34">
         <v>3.29</v>
@@ -7865,7 +7868,7 @@
         <v>0.2</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -7993,7 +7996,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q35">
         <v>5.47</v>
@@ -8199,7 +8202,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8611,7 +8614,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q38">
         <v>3.75</v>
@@ -8689,10 +8692,10 @@
         <v>1.33</v>
       </c>
       <c r="AP38">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR38">
         <v>1.26</v>
@@ -9023,7 +9026,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q40">
         <v>4.4</v>
@@ -9435,7 +9438,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9513,7 +9516,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ42">
         <v>1.27</v>
@@ -9847,7 +9850,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q44">
         <v>3.5</v>
@@ -9928,7 +9931,7 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR44">
         <v>1.37</v>
@@ -10053,7 +10056,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q45">
         <v>4.6</v>
@@ -10259,7 +10262,7 @@
         <v>84</v>
       </c>
       <c r="P46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10465,7 +10468,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q47">
         <v>2.06</v>
@@ -10546,7 +10549,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ47">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR47">
         <v>1.75</v>
@@ -10671,7 +10674,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -10955,7 +10958,7 @@
         <v>2.14</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ49">
         <v>1.73</v>
@@ -11161,7 +11164,7 @@
         <v>1.13</v>
       </c>
       <c r="AP50">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ50">
         <v>1.07</v>
@@ -11782,7 +11785,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR53">
         <v>1.53</v>
@@ -11907,7 +11910,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11985,7 +11988,7 @@
         <v>0.75</v>
       </c>
       <c r="AP54">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -12113,7 +12116,7 @@
         <v>102</v>
       </c>
       <c r="P55" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q55">
         <v>2.78</v>
@@ -12319,7 +12322,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="Q56">
         <v>2.63</v>
@@ -12400,7 +12403,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ56">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR56">
         <v>1.42</v>
@@ -13015,7 +13018,7 @@
         <v>1.56</v>
       </c>
       <c r="AP59">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ59">
         <v>1.67</v>
@@ -13143,7 +13146,7 @@
         <v>84</v>
       </c>
       <c r="P60" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13430,7 +13433,7 @@
         <v>1</v>
       </c>
       <c r="AQ61">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR61">
         <v>1.44</v>
@@ -13842,7 +13845,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ63">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR63">
         <v>1.64</v>
@@ -14251,7 +14254,7 @@
         <v>0.9</v>
       </c>
       <c r="AP65">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -14457,7 +14460,7 @@
         <v>1.7</v>
       </c>
       <c r="AP66">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ66">
         <v>1.67</v>
@@ -14869,7 +14872,7 @@
         <v>1.09</v>
       </c>
       <c r="AP68">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ68">
         <v>1.07</v>
@@ -15075,7 +15078,7 @@
         <v>1.36</v>
       </c>
       <c r="AP69">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ69">
         <v>1.27</v>
@@ -15203,7 +15206,7 @@
         <v>102</v>
       </c>
       <c r="P70" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15902,7 +15905,7 @@
         <v>1</v>
       </c>
       <c r="AQ73">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR73">
         <v>1.45</v>
@@ -16105,10 +16108,10 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ74">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR74">
         <v>1.18</v>
@@ -16932,7 +16935,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ78">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR78">
         <v>1.69</v>
@@ -17263,7 +17266,7 @@
         <v>136</v>
       </c>
       <c r="P80" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q80">
         <v>4.8</v>
@@ -17341,7 +17344,7 @@
         <v>2.54</v>
       </c>
       <c r="AP80">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AQ80">
         <v>2.27</v>
@@ -17881,7 +17884,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q83">
         <v>2.75</v>
@@ -17959,7 +17962,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ83">
         <v>1.07</v>
@@ -18168,7 +18171,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ84">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR84">
         <v>1.28</v>
@@ -18911,7 +18914,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q88">
         <v>3.55</v>
@@ -19274,6 +19277,418 @@
       </c>
       <c r="BP89">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7793179</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45768.75</v>
+      </c>
+      <c r="F90">
+        <v>15</v>
+      </c>
+      <c r="G90" t="s">
+        <v>72</v>
+      </c>
+      <c r="H90" t="s">
+        <v>80</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>4</v>
+      </c>
+      <c r="N90">
+        <v>5</v>
+      </c>
+      <c r="O90" t="s">
+        <v>141</v>
+      </c>
+      <c r="P90" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q90">
+        <v>3</v>
+      </c>
+      <c r="R90">
+        <v>1.97</v>
+      </c>
+      <c r="S90">
+        <v>4.35</v>
+      </c>
+      <c r="T90">
+        <v>1.57</v>
+      </c>
+      <c r="U90">
+        <v>2.31</v>
+      </c>
+      <c r="V90">
+        <v>3.3</v>
+      </c>
+      <c r="W90">
+        <v>1.29</v>
+      </c>
+      <c r="X90">
+        <v>9.4</v>
+      </c>
+      <c r="Y90">
+        <v>1.01</v>
+      </c>
+      <c r="Z90">
+        <v>2.25</v>
+      </c>
+      <c r="AA90">
+        <v>2.95</v>
+      </c>
+      <c r="AB90">
+        <v>3.2</v>
+      </c>
+      <c r="AC90">
+        <v>1.09</v>
+      </c>
+      <c r="AD90">
+        <v>6.5</v>
+      </c>
+      <c r="AE90">
+        <v>1.51</v>
+      </c>
+      <c r="AF90">
+        <v>2.5</v>
+      </c>
+      <c r="AG90">
+        <v>2.5</v>
+      </c>
+      <c r="AH90">
+        <v>1.5</v>
+      </c>
+      <c r="AI90">
+        <v>2.12</v>
+      </c>
+      <c r="AJ90">
+        <v>1.64</v>
+      </c>
+      <c r="AK90">
+        <v>1.28</v>
+      </c>
+      <c r="AL90">
+        <v>1.33</v>
+      </c>
+      <c r="AM90">
+        <v>1.51</v>
+      </c>
+      <c r="AN90">
+        <v>0.93</v>
+      </c>
+      <c r="AO90">
+        <v>1</v>
+      </c>
+      <c r="AP90">
+        <v>0.87</v>
+      </c>
+      <c r="AQ90">
+        <v>1.13</v>
+      </c>
+      <c r="AR90">
+        <v>1.27</v>
+      </c>
+      <c r="AS90">
+        <v>1.29</v>
+      </c>
+      <c r="AT90">
+        <v>2.56</v>
+      </c>
+      <c r="AU90">
+        <v>5</v>
+      </c>
+      <c r="AV90">
+        <v>6</v>
+      </c>
+      <c r="AW90">
+        <v>5</v>
+      </c>
+      <c r="AX90">
+        <v>6</v>
+      </c>
+      <c r="AY90">
+        <v>10</v>
+      </c>
+      <c r="AZ90">
+        <v>12</v>
+      </c>
+      <c r="BA90">
+        <v>5</v>
+      </c>
+      <c r="BB90">
+        <v>3</v>
+      </c>
+      <c r="BC90">
+        <v>8</v>
+      </c>
+      <c r="BD90">
+        <v>1.98</v>
+      </c>
+      <c r="BE90">
+        <v>7</v>
+      </c>
+      <c r="BF90">
+        <v>2.22</v>
+      </c>
+      <c r="BG90">
+        <v>1.51</v>
+      </c>
+      <c r="BH90">
+        <v>2.3</v>
+      </c>
+      <c r="BI90">
+        <v>1.94</v>
+      </c>
+      <c r="BJ90">
+        <v>1.8</v>
+      </c>
+      <c r="BK90">
+        <v>2.83</v>
+      </c>
+      <c r="BL90">
+        <v>1.48</v>
+      </c>
+      <c r="BM90">
+        <v>3.2</v>
+      </c>
+      <c r="BN90">
+        <v>1.3</v>
+      </c>
+      <c r="BO90">
+        <v>4.3</v>
+      </c>
+      <c r="BP90">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7793181</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45768.84375</v>
+      </c>
+      <c r="F91">
+        <v>15</v>
+      </c>
+      <c r="G91" t="s">
+        <v>78</v>
+      </c>
+      <c r="H91" t="s">
+        <v>77</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>2</v>
+      </c>
+      <c r="O91" t="s">
+        <v>142</v>
+      </c>
+      <c r="P91" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q91">
+        <v>2.61</v>
+      </c>
+      <c r="R91">
+        <v>2</v>
+      </c>
+      <c r="S91">
+        <v>4.75</v>
+      </c>
+      <c r="T91">
+        <v>1.44</v>
+      </c>
+      <c r="U91">
+        <v>2.8</v>
+      </c>
+      <c r="V91">
+        <v>3.2</v>
+      </c>
+      <c r="W91">
+        <v>1.29</v>
+      </c>
+      <c r="X91">
+        <v>7.5</v>
+      </c>
+      <c r="Y91">
+        <v>1.06</v>
+      </c>
+      <c r="Z91">
+        <v>1.91</v>
+      </c>
+      <c r="AA91">
+        <v>3.1</v>
+      </c>
+      <c r="AB91">
+        <v>3.45</v>
+      </c>
+      <c r="AC91">
+        <v>1.04</v>
+      </c>
+      <c r="AD91">
+        <v>9</v>
+      </c>
+      <c r="AE91">
+        <v>1.33</v>
+      </c>
+      <c r="AF91">
+        <v>2.88</v>
+      </c>
+      <c r="AG91">
+        <v>2.1</v>
+      </c>
+      <c r="AH91">
+        <v>1.62</v>
+      </c>
+      <c r="AI91">
+        <v>1.95</v>
+      </c>
+      <c r="AJ91">
+        <v>1.73</v>
+      </c>
+      <c r="AK91">
+        <v>1.35</v>
+      </c>
+      <c r="AL91">
+        <v>1.28</v>
+      </c>
+      <c r="AM91">
+        <v>1.75</v>
+      </c>
+      <c r="AN91">
+        <v>1</v>
+      </c>
+      <c r="AO91">
+        <v>1.43</v>
+      </c>
+      <c r="AP91">
+        <v>1</v>
+      </c>
+      <c r="AQ91">
+        <v>1.4</v>
+      </c>
+      <c r="AR91">
+        <v>1.46</v>
+      </c>
+      <c r="AS91">
+        <v>1.4</v>
+      </c>
+      <c r="AT91">
+        <v>2.86</v>
+      </c>
+      <c r="AU91">
+        <v>8</v>
+      </c>
+      <c r="AV91">
+        <v>4</v>
+      </c>
+      <c r="AW91">
+        <v>14</v>
+      </c>
+      <c r="AX91">
+        <v>8</v>
+      </c>
+      <c r="AY91">
+        <v>22</v>
+      </c>
+      <c r="AZ91">
+        <v>12</v>
+      </c>
+      <c r="BA91">
+        <v>6</v>
+      </c>
+      <c r="BB91">
+        <v>2</v>
+      </c>
+      <c r="BC91">
+        <v>8</v>
+      </c>
+      <c r="BD91">
+        <v>1.7</v>
+      </c>
+      <c r="BE91">
+        <v>7.5</v>
+      </c>
+      <c r="BF91">
+        <v>3</v>
+      </c>
+      <c r="BG91">
+        <v>1.4</v>
+      </c>
+      <c r="BH91">
+        <v>2.23</v>
+      </c>
+      <c r="BI91">
+        <v>1.75</v>
+      </c>
+      <c r="BJ91">
+        <v>1.73</v>
+      </c>
+      <c r="BK91">
+        <v>2.27</v>
+      </c>
+      <c r="BL91">
+        <v>1.59</v>
+      </c>
+      <c r="BM91">
+        <v>2.9</v>
+      </c>
+      <c r="BN91">
+        <v>1.28</v>
+      </c>
+      <c r="BO91">
+        <v>3.95</v>
+      </c>
+      <c r="BP91">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="190">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -445,6 +445,9 @@
     <t>['60']</t>
   </si>
   <si>
+    <t>['66']</t>
+  </si>
+  <si>
     <t>['7', '90']</t>
   </si>
   <si>
@@ -578,6 +581,9 @@
   </si>
   <si>
     <t>['35', '54', '77', '90+3']</t>
+  </si>
+  <si>
+    <t>['78']</t>
   </si>
 </sst>
 </file>
@@ -939,7 +945,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP91"/>
+  <dimension ref="A1:BP92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1198,7 +1204,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1404,7 +1410,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1688,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -1816,7 +1822,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -2022,7 +2028,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2228,7 +2234,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2434,7 +2440,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2640,7 +2646,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2721,7 +2727,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ9">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR9">
         <v>1.34</v>
@@ -3052,7 +3058,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3464,7 +3470,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q13">
         <v>4.33</v>
@@ -4288,7 +4294,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4494,7 +4500,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q18">
         <v>3.75</v>
@@ -4572,7 +4578,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ18">
         <v>1.73</v>
@@ -5318,7 +5324,7 @@
         <v>84</v>
       </c>
       <c r="P22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q22">
         <v>4.79</v>
@@ -5524,7 +5530,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q23">
         <v>3.74</v>
@@ -6017,7 +6023,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ25">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR25">
         <v>1.38</v>
@@ -6142,7 +6148,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q26">
         <v>2.6</v>
@@ -6220,7 +6226,7 @@
         <v>1.25</v>
       </c>
       <c r="AP26">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6554,7 +6560,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q28">
         <v>3.25</v>
@@ -6760,7 +6766,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q29">
         <v>1.8</v>
@@ -6966,7 +6972,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7378,7 +7384,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q32">
         <v>2.6</v>
@@ -7665,7 +7671,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR33">
         <v>1.83</v>
@@ -7790,7 +7796,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q34">
         <v>3.29</v>
@@ -7996,7 +8002,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q35">
         <v>5.47</v>
@@ -8202,7 +8208,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8614,7 +8620,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q38">
         <v>3.75</v>
@@ -9026,7 +9032,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q40">
         <v>4.4</v>
@@ -9438,7 +9444,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9516,7 +9522,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ42">
         <v>1.27</v>
@@ -9850,7 +9856,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q44">
         <v>3.5</v>
@@ -10056,7 +10062,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q45">
         <v>4.6</v>
@@ -10262,7 +10268,7 @@
         <v>84</v>
       </c>
       <c r="P46" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10468,7 +10474,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q47">
         <v>2.06</v>
@@ -10549,7 +10555,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ47">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR47">
         <v>1.75</v>
@@ -10674,7 +10680,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11164,7 +11170,7 @@
         <v>1.13</v>
       </c>
       <c r="AP50">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ50">
         <v>1.07</v>
@@ -11910,7 +11916,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12116,7 +12122,7 @@
         <v>102</v>
       </c>
       <c r="P55" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q55">
         <v>2.78</v>
@@ -12528,7 +12534,7 @@
         <v>84</v>
       </c>
       <c r="P57" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q57">
         <v>4.75</v>
@@ -12734,7 +12740,7 @@
         <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q58">
         <v>2.69</v>
@@ -12940,7 +12946,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q59">
         <v>4.96</v>
@@ -13018,7 +13024,7 @@
         <v>1.56</v>
       </c>
       <c r="AP59">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ59">
         <v>1.67</v>
@@ -13146,7 +13152,7 @@
         <v>84</v>
       </c>
       <c r="P60" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13558,7 +13564,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q62">
         <v>2.8</v>
@@ -13845,7 +13851,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ63">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR63">
         <v>1.64</v>
@@ -14176,7 +14182,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q65">
         <v>2.95</v>
@@ -15000,7 +15006,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15206,7 +15212,7 @@
         <v>102</v>
       </c>
       <c r="P70" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15618,7 +15624,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q72">
         <v>3.8</v>
@@ -15905,7 +15911,7 @@
         <v>1</v>
       </c>
       <c r="AQ73">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR73">
         <v>1.45</v>
@@ -16030,7 +16036,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q74">
         <v>2.8</v>
@@ -16108,7 +16114,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ74">
         <v>1.4</v>
@@ -16236,7 +16242,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -17266,7 +17272,7 @@
         <v>136</v>
       </c>
       <c r="P80" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q80">
         <v>4.8</v>
@@ -17678,7 +17684,7 @@
         <v>122</v>
       </c>
       <c r="P82" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17884,7 +17890,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q83">
         <v>2.75</v>
@@ -18090,7 +18096,7 @@
         <v>84</v>
       </c>
       <c r="P84" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q84">
         <v>2.9</v>
@@ -18171,7 +18177,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ84">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR84">
         <v>1.28</v>
@@ -18296,7 +18302,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q85">
         <v>4.41</v>
@@ -18502,7 +18508,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q86">
         <v>2.2</v>
@@ -18708,7 +18714,7 @@
         <v>139</v>
       </c>
       <c r="P87" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q87">
         <v>2.2</v>
@@ -18914,7 +18920,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q88">
         <v>3.55</v>
@@ -19326,7 +19332,7 @@
         <v>141</v>
       </c>
       <c r="P90" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19404,7 +19410,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AQ90">
         <v>1.13</v>
@@ -19689,6 +19695,212 @@
       </c>
       <c r="BP91">
         <v>1.14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7793185</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45772.79166666666</v>
+      </c>
+      <c r="F92">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>76</v>
+      </c>
+      <c r="H92" t="s">
+        <v>72</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>2</v>
+      </c>
+      <c r="O92" t="s">
+        <v>143</v>
+      </c>
+      <c r="P92" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q92">
+        <v>3.4</v>
+      </c>
+      <c r="R92">
+        <v>1.79</v>
+      </c>
+      <c r="S92">
+        <v>3.8</v>
+      </c>
+      <c r="T92">
+        <v>1.55</v>
+      </c>
+      <c r="U92">
+        <v>2.3</v>
+      </c>
+      <c r="V92">
+        <v>3.4</v>
+      </c>
+      <c r="W92">
+        <v>1.21</v>
+      </c>
+      <c r="X92">
+        <v>7.8</v>
+      </c>
+      <c r="Y92">
+        <v>1.03</v>
+      </c>
+      <c r="Z92">
+        <v>2.71</v>
+      </c>
+      <c r="AA92">
+        <v>3.37</v>
+      </c>
+      <c r="AB92">
+        <v>2.47</v>
+      </c>
+      <c r="AC92">
+        <v>1.08</v>
+      </c>
+      <c r="AD92">
+        <v>6.5</v>
+      </c>
+      <c r="AE92">
+        <v>1.48</v>
+      </c>
+      <c r="AF92">
+        <v>2.37</v>
+      </c>
+      <c r="AG92">
+        <v>2.5</v>
+      </c>
+      <c r="AH92">
+        <v>1.49</v>
+      </c>
+      <c r="AI92">
+        <v>2</v>
+      </c>
+      <c r="AJ92">
+        <v>1.7</v>
+      </c>
+      <c r="AK92">
+        <v>1.34</v>
+      </c>
+      <c r="AL92">
+        <v>1.33</v>
+      </c>
+      <c r="AM92">
+        <v>1.49</v>
+      </c>
+      <c r="AN92">
+        <v>1</v>
+      </c>
+      <c r="AO92">
+        <v>0.87</v>
+      </c>
+      <c r="AP92">
+        <v>1</v>
+      </c>
+      <c r="AQ92">
+        <v>0.88</v>
+      </c>
+      <c r="AR92">
+        <v>1.33</v>
+      </c>
+      <c r="AS92">
+        <v>1.27</v>
+      </c>
+      <c r="AT92">
+        <v>2.6</v>
+      </c>
+      <c r="AU92">
+        <v>4</v>
+      </c>
+      <c r="AV92">
+        <v>7</v>
+      </c>
+      <c r="AW92">
+        <v>13</v>
+      </c>
+      <c r="AX92">
+        <v>7</v>
+      </c>
+      <c r="AY92">
+        <v>17</v>
+      </c>
+      <c r="AZ92">
+        <v>14</v>
+      </c>
+      <c r="BA92">
+        <v>7</v>
+      </c>
+      <c r="BB92">
+        <v>4</v>
+      </c>
+      <c r="BC92">
+        <v>11</v>
+      </c>
+      <c r="BD92">
+        <v>1.93</v>
+      </c>
+      <c r="BE92">
+        <v>6.4</v>
+      </c>
+      <c r="BF92">
+        <v>2.08</v>
+      </c>
+      <c r="BG92">
+        <v>1.54</v>
+      </c>
+      <c r="BH92">
+        <v>2.37</v>
+      </c>
+      <c r="BI92">
+        <v>1.87</v>
+      </c>
+      <c r="BJ92">
+        <v>1.91</v>
+      </c>
+      <c r="BK92">
+        <v>2.05</v>
+      </c>
+      <c r="BL92">
+        <v>1.7</v>
+      </c>
+      <c r="BM92">
+        <v>2.9</v>
+      </c>
+      <c r="BN92">
+        <v>1.31</v>
+      </c>
+      <c r="BO92">
+        <v>4.15</v>
+      </c>
+      <c r="BP92">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="191">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -446,6 +446,9 @@
   </si>
   <si>
     <t>['66']</t>
+  </si>
+  <si>
+    <t>['40', '75']</t>
   </si>
   <si>
     <t>['7', '90']</t>
@@ -945,7 +948,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP92"/>
+  <dimension ref="A1:BP93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1204,7 +1207,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1410,7 +1413,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1697,7 +1700,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1822,7 +1825,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -2028,7 +2031,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2109,7 +2112,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ6">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2234,7 +2237,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2440,7 +2443,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2646,7 +2649,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -3058,7 +3061,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3136,7 +3139,7 @@
         <v>1</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ11">
         <v>2.27</v>
@@ -3342,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ12">
         <v>1.07</v>
@@ -3470,7 +3473,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q13">
         <v>4.33</v>
@@ -3963,7 +3966,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR15">
         <v>1.24</v>
@@ -4294,7 +4297,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4500,7 +4503,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q18">
         <v>3.75</v>
@@ -4581,7 +4584,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ18">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR18">
         <v>1.16</v>
@@ -4993,7 +4996,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR20">
         <v>1.3</v>
@@ -5324,7 +5327,7 @@
         <v>84</v>
       </c>
       <c r="P22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q22">
         <v>4.79</v>
@@ -5530,7 +5533,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q23">
         <v>3.74</v>
@@ -5608,7 +5611,7 @@
         <v>2.33</v>
       </c>
       <c r="AP23">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ23">
         <v>2.27</v>
@@ -6148,7 +6151,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q26">
         <v>2.6</v>
@@ -6560,7 +6563,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q28">
         <v>3.25</v>
@@ -6638,10 +6641,10 @@
         <v>2.25</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ28">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR28">
         <v>1.14</v>
@@ -6766,7 +6769,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q29">
         <v>1.8</v>
@@ -6972,7 +6975,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7384,7 +7387,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q32">
         <v>2.6</v>
@@ -7462,7 +7465,7 @@
         <v>0.8</v>
       </c>
       <c r="AP32">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ32">
         <v>1.4</v>
@@ -7796,7 +7799,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q34">
         <v>3.29</v>
@@ -7877,7 +7880,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR34">
         <v>1.34</v>
@@ -8002,7 +8005,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q35">
         <v>5.47</v>
@@ -8208,7 +8211,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8620,7 +8623,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q38">
         <v>3.75</v>
@@ -9032,7 +9035,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q40">
         <v>4.4</v>
@@ -9316,7 +9319,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ41">
         <v>1</v>
@@ -9444,7 +9447,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9731,7 +9734,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ43">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR43">
         <v>1.5</v>
@@ -9856,7 +9859,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q44">
         <v>3.5</v>
@@ -10062,7 +10065,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q45">
         <v>4.6</v>
@@ -10268,7 +10271,7 @@
         <v>84</v>
       </c>
       <c r="P46" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10474,7 +10477,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q47">
         <v>2.06</v>
@@ -10680,7 +10683,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -10761,7 +10764,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR48">
         <v>1.65</v>
@@ -10967,7 +10970,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ49">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR49">
         <v>1.28</v>
@@ -11376,7 +11379,7 @@
         <v>0.75</v>
       </c>
       <c r="AP51">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -11916,7 +11919,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12122,7 +12125,7 @@
         <v>102</v>
       </c>
       <c r="P55" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q55">
         <v>2.78</v>
@@ -12200,7 +12203,7 @@
         <v>1.25</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ55">
         <v>1.27</v>
@@ -12534,7 +12537,7 @@
         <v>84</v>
       </c>
       <c r="P57" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q57">
         <v>4.75</v>
@@ -12740,7 +12743,7 @@
         <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q58">
         <v>2.69</v>
@@ -12821,7 +12824,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR58">
         <v>1.71</v>
@@ -12946,7 +12949,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q59">
         <v>4.96</v>
@@ -13152,7 +13155,7 @@
         <v>84</v>
       </c>
       <c r="P60" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13233,7 +13236,7 @@
         <v>1</v>
       </c>
       <c r="AQ60">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR60">
         <v>1.65</v>
@@ -13564,7 +13567,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q62">
         <v>2.8</v>
@@ -13642,7 +13645,7 @@
         <v>1.2</v>
       </c>
       <c r="AP62">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ62">
         <v>1.27</v>
@@ -14182,7 +14185,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q65">
         <v>2.95</v>
@@ -14672,7 +14675,7 @@
         <v>1.2</v>
       </c>
       <c r="AP67">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ67">
         <v>1.07</v>
@@ -15006,7 +15009,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15212,7 +15215,7 @@
         <v>102</v>
       </c>
       <c r="P70" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15624,7 +15627,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q72">
         <v>3.8</v>
@@ -15702,7 +15705,7 @@
         <v>1.64</v>
       </c>
       <c r="AP72">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ72">
         <v>1.67</v>
@@ -15908,7 +15911,7 @@
         <v>0.91</v>
       </c>
       <c r="AP73">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ73">
         <v>0.88</v>
@@ -16036,7 +16039,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q74">
         <v>2.8</v>
@@ -16242,7 +16245,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16529,7 +16532,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ76">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR76">
         <v>1.6</v>
@@ -17147,7 +17150,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ79">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR79">
         <v>1.28</v>
@@ -17272,7 +17275,7 @@
         <v>136</v>
       </c>
       <c r="P80" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q80">
         <v>4.8</v>
@@ -17684,7 +17687,7 @@
         <v>122</v>
       </c>
       <c r="P82" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17762,7 +17765,7 @@
         <v>1.46</v>
       </c>
       <c r="AP82">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ82">
         <v>1.67</v>
@@ -17890,7 +17893,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q83">
         <v>2.75</v>
@@ -18096,7 +18099,7 @@
         <v>84</v>
       </c>
       <c r="P84" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q84">
         <v>2.9</v>
@@ -18174,7 +18177,7 @@
         <v>0.77</v>
       </c>
       <c r="AP84">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ84">
         <v>0.88</v>
@@ -18302,7 +18305,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q85">
         <v>4.41</v>
@@ -18508,7 +18511,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q86">
         <v>2.2</v>
@@ -18589,7 +18592,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ86">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR86">
         <v>1.64</v>
@@ -18714,7 +18717,7 @@
         <v>139</v>
       </c>
       <c r="P87" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q87">
         <v>2.2</v>
@@ -18920,7 +18923,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q88">
         <v>3.55</v>
@@ -19332,7 +19335,7 @@
         <v>141</v>
       </c>
       <c r="P90" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19616,7 +19619,7 @@
         <v>1.43</v>
       </c>
       <c r="AP91">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ91">
         <v>1.4</v>
@@ -19744,7 +19747,7 @@
         <v>143</v>
       </c>
       <c r="P92" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q92">
         <v>3.4</v>
@@ -19901,6 +19904,212 @@
       </c>
       <c r="BP92">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7793183</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45773.79166666666</v>
+      </c>
+      <c r="F93">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>79</v>
+      </c>
+      <c r="H93" t="s">
+        <v>78</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>2</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>3</v>
+      </c>
+      <c r="O93" t="s">
+        <v>144</v>
+      </c>
+      <c r="P93" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q93">
+        <v>3.2</v>
+      </c>
+      <c r="R93">
+        <v>1.88</v>
+      </c>
+      <c r="S93">
+        <v>3.8</v>
+      </c>
+      <c r="T93">
+        <v>1.54</v>
+      </c>
+      <c r="U93">
+        <v>2.38</v>
+      </c>
+      <c r="V93">
+        <v>3.4</v>
+      </c>
+      <c r="W93">
+        <v>1.29</v>
+      </c>
+      <c r="X93">
+        <v>8.5</v>
+      </c>
+      <c r="Y93">
+        <v>1.04</v>
+      </c>
+      <c r="Z93">
+        <v>2.6</v>
+      </c>
+      <c r="AA93">
+        <v>2.9</v>
+      </c>
+      <c r="AB93">
+        <v>2.6</v>
+      </c>
+      <c r="AC93">
+        <v>1.11</v>
+      </c>
+      <c r="AD93">
+        <v>6.68</v>
+      </c>
+      <c r="AE93">
+        <v>1.45</v>
+      </c>
+      <c r="AF93">
+        <v>2.41</v>
+      </c>
+      <c r="AG93">
+        <v>2.5</v>
+      </c>
+      <c r="AH93">
+        <v>1.55</v>
+      </c>
+      <c r="AI93">
+        <v>2</v>
+      </c>
+      <c r="AJ93">
+        <v>1.63</v>
+      </c>
+      <c r="AK93">
+        <v>1.37</v>
+      </c>
+      <c r="AL93">
+        <v>1.33</v>
+      </c>
+      <c r="AM93">
+        <v>1.49</v>
+      </c>
+      <c r="AN93">
+        <v>1.73</v>
+      </c>
+      <c r="AO93">
+        <v>1</v>
+      </c>
+      <c r="AP93">
+        <v>1.81</v>
+      </c>
+      <c r="AQ93">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR93">
+        <v>1.29</v>
+      </c>
+      <c r="AS93">
+        <v>1.52</v>
+      </c>
+      <c r="AT93">
+        <v>2.81</v>
+      </c>
+      <c r="AU93">
+        <v>3</v>
+      </c>
+      <c r="AV93">
+        <v>8</v>
+      </c>
+      <c r="AW93">
+        <v>4</v>
+      </c>
+      <c r="AX93">
+        <v>17</v>
+      </c>
+      <c r="AY93">
+        <v>7</v>
+      </c>
+      <c r="AZ93">
+        <v>25</v>
+      </c>
+      <c r="BA93">
+        <v>1</v>
+      </c>
+      <c r="BB93">
+        <v>8</v>
+      </c>
+      <c r="BC93">
+        <v>9</v>
+      </c>
+      <c r="BD93">
+        <v>2.15</v>
+      </c>
+      <c r="BE93">
+        <v>6.9</v>
+      </c>
+      <c r="BF93">
+        <v>1.81</v>
+      </c>
+      <c r="BG93">
+        <v>1.5</v>
+      </c>
+      <c r="BH93">
+        <v>2.4</v>
+      </c>
+      <c r="BI93">
+        <v>1.84</v>
+      </c>
+      <c r="BJ93">
+        <v>1.82</v>
+      </c>
+      <c r="BK93">
+        <v>2.35</v>
+      </c>
+      <c r="BL93">
+        <v>1.5</v>
+      </c>
+      <c r="BM93">
+        <v>3.05</v>
+      </c>
+      <c r="BN93">
+        <v>1.34</v>
+      </c>
+      <c r="BO93">
+        <v>4.1</v>
+      </c>
+      <c r="BP93">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="193">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -451,6 +451,9 @@
     <t>['40', '75']</t>
   </si>
   <si>
+    <t>['17']</t>
+  </si>
+  <si>
     <t>['7', '90']</t>
   </si>
   <si>
@@ -587,6 +590,9 @@
   </si>
   <si>
     <t>['78']</t>
+  </si>
+  <si>
+    <t>['34', '54', '71']</t>
   </si>
 </sst>
 </file>
@@ -948,7 +954,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP93"/>
+  <dimension ref="A1:BP97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1207,7 +1213,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1285,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ2">
         <v>1.13</v>
@@ -1413,7 +1419,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1825,7 +1831,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -1903,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AQ5">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2031,7 +2037,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2109,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ6">
         <v>1.81</v>
@@ -2237,7 +2243,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2315,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ7">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2443,7 +2449,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2524,7 +2530,7 @@
         <v>1</v>
       </c>
       <c r="AQ8">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR8">
         <v>1.35</v>
@@ -2649,7 +2655,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2727,7 +2733,7 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ9">
         <v>0.88</v>
@@ -2936,7 +2942,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR10">
         <v>2.15</v>
@@ -3061,7 +3067,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3142,7 +3148,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ11">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AR11">
         <v>0.7</v>
@@ -3348,7 +3354,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ12">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR12">
         <v>1.05</v>
@@ -3473,7 +3479,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q13">
         <v>4.33</v>
@@ -3554,7 +3560,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ13">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR13">
         <v>1.78</v>
@@ -3757,7 +3763,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -3963,7 +3969,7 @@
         <v>0.5</v>
       </c>
       <c r="AP15">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ15">
         <v>0.9399999999999999</v>
@@ -4169,7 +4175,7 @@
         <v>2</v>
       </c>
       <c r="AP16">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AQ16">
         <v>1.13</v>
@@ -4297,7 +4303,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4375,10 +4381,10 @@
         <v>0.5</v>
       </c>
       <c r="AP17">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AQ17">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR17">
         <v>1.68</v>
@@ -4503,7 +4509,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q18">
         <v>3.75</v>
@@ -4787,7 +4793,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -4993,7 +4999,7 @@
         <v>0.33</v>
       </c>
       <c r="AP20">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ20">
         <v>0.9399999999999999</v>
@@ -5199,10 +5205,10 @@
         <v>1.67</v>
       </c>
       <c r="AP21">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ21">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR21">
         <v>1.66</v>
@@ -5327,7 +5333,7 @@
         <v>84</v>
       </c>
       <c r="P22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q22">
         <v>4.79</v>
@@ -5408,7 +5414,7 @@
         <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR22">
         <v>1.81</v>
@@ -5533,7 +5539,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q23">
         <v>3.74</v>
@@ -5614,7 +5620,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ23">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AR23">
         <v>1.04</v>
@@ -5820,7 +5826,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR24">
         <v>1.38</v>
@@ -6151,7 +6157,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q26">
         <v>2.6</v>
@@ -6435,7 +6441,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -6563,7 +6569,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q28">
         <v>3.25</v>
@@ -6769,7 +6775,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q29">
         <v>1.8</v>
@@ -6847,10 +6853,10 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ29">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR29">
         <v>1.56</v>
@@ -6975,7 +6981,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7053,10 +7059,10 @@
         <v>1.75</v>
       </c>
       <c r="AP30">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ30">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR30">
         <v>1.83</v>
@@ -7259,7 +7265,7 @@
         <v>1.25</v>
       </c>
       <c r="AP31">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AQ31">
         <v>1.13</v>
@@ -7387,7 +7393,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q32">
         <v>2.6</v>
@@ -7468,7 +7474,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ32">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR32">
         <v>1.08</v>
@@ -7799,7 +7805,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q34">
         <v>3.29</v>
@@ -8005,7 +8011,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q35">
         <v>5.47</v>
@@ -8086,7 +8092,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AR35">
         <v>1.46</v>
@@ -8211,7 +8217,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8289,10 +8295,10 @@
         <v>1.6</v>
       </c>
       <c r="AP36">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ36">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR36">
         <v>1.8</v>
@@ -8495,10 +8501,10 @@
         <v>1.4</v>
       </c>
       <c r="AP37">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ37">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR37">
         <v>1.52</v>
@@ -8623,7 +8629,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q38">
         <v>3.75</v>
@@ -8701,7 +8707,7 @@
         <v>1.33</v>
       </c>
       <c r="AP38">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ38">
         <v>1.13</v>
@@ -8907,7 +8913,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9035,7 +9041,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q40">
         <v>4.4</v>
@@ -9113,10 +9119,10 @@
         <v>2.17</v>
       </c>
       <c r="AP40">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AQ40">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR40">
         <v>1.37</v>
@@ -9447,7 +9453,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9528,7 +9534,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ42">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR42">
         <v>1.17</v>
@@ -9731,7 +9737,7 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ43">
         <v>1.81</v>
@@ -9859,7 +9865,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q44">
         <v>3.5</v>
@@ -9940,7 +9946,7 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR44">
         <v>1.37</v>
@@ -10065,7 +10071,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q45">
         <v>4.6</v>
@@ -10143,10 +10149,10 @@
         <v>2.71</v>
       </c>
       <c r="AP45">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ45">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AR45">
         <v>1.43</v>
@@ -10271,7 +10277,7 @@
         <v>84</v>
       </c>
       <c r="P46" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10349,10 +10355,10 @@
         <v>1.14</v>
       </c>
       <c r="AP46">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AQ46">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR46">
         <v>1.32</v>
@@ -10477,7 +10483,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q47">
         <v>2.06</v>
@@ -10555,7 +10561,7 @@
         <v>1.14</v>
       </c>
       <c r="AP47">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ47">
         <v>0.88</v>
@@ -10683,7 +10689,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11176,7 +11182,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ50">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR50">
         <v>1.1</v>
@@ -11585,10 +11591,10 @@
         <v>2.13</v>
       </c>
       <c r="AP52">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AQ52">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR52">
         <v>1.57</v>
@@ -11791,7 +11797,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ53">
         <v>1.13</v>
@@ -11919,7 +11925,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11997,7 +12003,7 @@
         <v>0.75</v>
       </c>
       <c r="AP54">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -12125,7 +12131,7 @@
         <v>102</v>
       </c>
       <c r="P55" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q55">
         <v>2.78</v>
@@ -12206,7 +12212,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ55">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR55">
         <v>1.34</v>
@@ -12409,10 +12415,10 @@
         <v>1.22</v>
       </c>
       <c r="AP56">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ56">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR56">
         <v>1.42</v>
@@ -12537,7 +12543,7 @@
         <v>84</v>
       </c>
       <c r="P57" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q57">
         <v>4.75</v>
@@ -12615,10 +12621,10 @@
         <v>2.56</v>
       </c>
       <c r="AP57">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AQ57">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AR57">
         <v>1.3</v>
@@ -12743,7 +12749,7 @@
         <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q58">
         <v>2.69</v>
@@ -12821,7 +12827,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP58">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ58">
         <v>0.9399999999999999</v>
@@ -12949,7 +12955,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q59">
         <v>4.96</v>
@@ -13030,7 +13036,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ59">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR59">
         <v>1.21</v>
@@ -13155,7 +13161,7 @@
         <v>84</v>
       </c>
       <c r="P60" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13567,7 +13573,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q62">
         <v>2.8</v>
@@ -13648,7 +13654,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ62">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR62">
         <v>1.2</v>
@@ -13851,7 +13857,7 @@
         <v>0.9</v>
       </c>
       <c r="AP63">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AQ63">
         <v>0.88</v>
@@ -14057,7 +14063,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ64">
         <v>1</v>
@@ -14185,7 +14191,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q65">
         <v>2.95</v>
@@ -14469,10 +14475,10 @@
         <v>1.7</v>
       </c>
       <c r="AP66">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ66">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR66">
         <v>1.47</v>
@@ -14678,7 +14684,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ67">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR67">
         <v>1.43</v>
@@ -14881,10 +14887,10 @@
         <v>1.09</v>
       </c>
       <c r="AP68">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ68">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR68">
         <v>1.43</v>
@@ -15009,7 +15015,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15090,7 +15096,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ69">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR69">
         <v>1.22</v>
@@ -15215,7 +15221,7 @@
         <v>102</v>
       </c>
       <c r="P70" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15499,10 +15505,10 @@
         <v>1.64</v>
       </c>
       <c r="AP71">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AQ71">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR71">
         <v>1.62</v>
@@ -15627,7 +15633,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q72">
         <v>3.8</v>
@@ -15708,7 +15714,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ72">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR72">
         <v>1.29</v>
@@ -16039,7 +16045,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q74">
         <v>2.8</v>
@@ -16120,7 +16126,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ74">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR74">
         <v>1.18</v>
@@ -16245,7 +16251,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16323,7 +16329,7 @@
         <v>0.92</v>
       </c>
       <c r="AP75">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ75">
         <v>1</v>
@@ -16529,7 +16535,7 @@
         <v>1.17</v>
       </c>
       <c r="AP76">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AQ76">
         <v>0.9399999999999999</v>
@@ -16735,7 +16741,7 @@
         <v>0.92</v>
       </c>
       <c r="AP77">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -16941,7 +16947,7 @@
         <v>1.08</v>
       </c>
       <c r="AP78">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ78">
         <v>1.13</v>
@@ -17147,7 +17153,7 @@
         <v>1.83</v>
       </c>
       <c r="AP79">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AQ79">
         <v>1.81</v>
@@ -17275,7 +17281,7 @@
         <v>136</v>
       </c>
       <c r="P80" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q80">
         <v>4.8</v>
@@ -17353,10 +17359,10 @@
         <v>2.54</v>
       </c>
       <c r="AP80">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ80">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AR80">
         <v>1.4</v>
@@ -17562,7 +17568,7 @@
         <v>1</v>
       </c>
       <c r="AQ81">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR81">
         <v>1.44</v>
@@ -17687,7 +17693,7 @@
         <v>122</v>
       </c>
       <c r="P82" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17768,7 +17774,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ82">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AR82">
         <v>1.47</v>
@@ -17893,7 +17899,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q83">
         <v>2.75</v>
@@ -17974,7 +17980,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ83">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR83">
         <v>1.28</v>
@@ -18099,7 +18105,7 @@
         <v>84</v>
       </c>
       <c r="P84" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q84">
         <v>2.9</v>
@@ -18305,7 +18311,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q85">
         <v>4.41</v>
@@ -18386,7 +18392,7 @@
         <v>1</v>
       </c>
       <c r="AQ85">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR85">
         <v>1.32</v>
@@ -18511,7 +18517,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q86">
         <v>2.2</v>
@@ -18589,7 +18595,7 @@
         <v>1.64</v>
       </c>
       <c r="AP86">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AQ86">
         <v>1.81</v>
@@ -18717,7 +18723,7 @@
         <v>139</v>
       </c>
       <c r="P87" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q87">
         <v>2.2</v>
@@ -18795,7 +18801,7 @@
         <v>1.07</v>
       </c>
       <c r="AP87">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ87">
         <v>1</v>
@@ -18923,7 +18929,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q88">
         <v>3.55</v>
@@ -19001,7 +19007,7 @@
         <v>0.86</v>
       </c>
       <c r="AP88">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AQ88">
         <v>1</v>
@@ -19207,10 +19213,10 @@
         <v>1.36</v>
       </c>
       <c r="AP89">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ89">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR89">
         <v>1.53</v>
@@ -19335,7 +19341,7 @@
         <v>141</v>
       </c>
       <c r="P90" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19622,7 +19628,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ91">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR91">
         <v>1.46</v>
@@ -19747,7 +19753,7 @@
         <v>143</v>
       </c>
       <c r="P92" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q92">
         <v>3.4</v>
@@ -19953,7 +19959,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q93">
         <v>3.2</v>
@@ -20110,6 +20116,830 @@
       </c>
       <c r="BP93">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7793186</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45774.75</v>
+      </c>
+      <c r="F94">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>71</v>
+      </c>
+      <c r="H94" t="s">
+        <v>73</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94" t="s">
+        <v>84</v>
+      </c>
+      <c r="P94" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q94">
+        <v>3.05</v>
+      </c>
+      <c r="R94">
+        <v>1.77</v>
+      </c>
+      <c r="S94">
+        <v>4</v>
+      </c>
+      <c r="T94">
+        <v>1.57</v>
+      </c>
+      <c r="U94">
+        <v>2.31</v>
+      </c>
+      <c r="V94">
+        <v>3.3</v>
+      </c>
+      <c r="W94">
+        <v>1.25</v>
+      </c>
+      <c r="X94">
+        <v>8.6</v>
+      </c>
+      <c r="Y94">
+        <v>1.04</v>
+      </c>
+      <c r="Z94">
+        <v>2.3</v>
+      </c>
+      <c r="AA94">
+        <v>2.91</v>
+      </c>
+      <c r="AB94">
+        <v>3.38</v>
+      </c>
+      <c r="AC94">
+        <v>1.09</v>
+      </c>
+      <c r="AD94">
+        <v>6</v>
+      </c>
+      <c r="AE94">
+        <v>1.46</v>
+      </c>
+      <c r="AF94">
+        <v>2.66</v>
+      </c>
+      <c r="AG94">
+        <v>2.35</v>
+      </c>
+      <c r="AH94">
+        <v>1.51</v>
+      </c>
+      <c r="AI94">
+        <v>1.9</v>
+      </c>
+      <c r="AJ94">
+        <v>1.75</v>
+      </c>
+      <c r="AK94">
+        <v>1.4</v>
+      </c>
+      <c r="AL94">
+        <v>1.34</v>
+      </c>
+      <c r="AM94">
+        <v>1.52</v>
+      </c>
+      <c r="AN94">
+        <v>1</v>
+      </c>
+      <c r="AO94">
+        <v>1.07</v>
+      </c>
+      <c r="AP94">
+        <v>1</v>
+      </c>
+      <c r="AQ94">
+        <v>1.06</v>
+      </c>
+      <c r="AR94">
+        <v>1.46</v>
+      </c>
+      <c r="AS94">
+        <v>1.2</v>
+      </c>
+      <c r="AT94">
+        <v>2.66</v>
+      </c>
+      <c r="AU94">
+        <v>3</v>
+      </c>
+      <c r="AV94">
+        <v>2</v>
+      </c>
+      <c r="AW94">
+        <v>11</v>
+      </c>
+      <c r="AX94">
+        <v>10</v>
+      </c>
+      <c r="AY94">
+        <v>14</v>
+      </c>
+      <c r="AZ94">
+        <v>12</v>
+      </c>
+      <c r="BA94">
+        <v>2</v>
+      </c>
+      <c r="BB94">
+        <v>3</v>
+      </c>
+      <c r="BC94">
+        <v>5</v>
+      </c>
+      <c r="BD94">
+        <v>1.81</v>
+      </c>
+      <c r="BE94">
+        <v>5.9</v>
+      </c>
+      <c r="BF94">
+        <v>2.22</v>
+      </c>
+      <c r="BG94">
+        <v>1.43</v>
+      </c>
+      <c r="BH94">
+        <v>2.55</v>
+      </c>
+      <c r="BI94">
+        <v>1.8</v>
+      </c>
+      <c r="BJ94">
+        <v>1.81</v>
+      </c>
+      <c r="BK94">
+        <v>2.46</v>
+      </c>
+      <c r="BL94">
+        <v>1.48</v>
+      </c>
+      <c r="BM94">
+        <v>2.8</v>
+      </c>
+      <c r="BN94">
+        <v>1.36</v>
+      </c>
+      <c r="BO94">
+        <v>3.8</v>
+      </c>
+      <c r="BP94">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7793184</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45774.84375</v>
+      </c>
+      <c r="F95">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>80</v>
+      </c>
+      <c r="H95" t="s">
+        <v>81</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95" t="s">
+        <v>84</v>
+      </c>
+      <c r="P95" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q95">
+        <v>4.8</v>
+      </c>
+      <c r="R95">
+        <v>2.02</v>
+      </c>
+      <c r="S95">
+        <v>2.6</v>
+      </c>
+      <c r="T95">
+        <v>1.5</v>
+      </c>
+      <c r="U95">
+        <v>2.38</v>
+      </c>
+      <c r="V95">
+        <v>3.4</v>
+      </c>
+      <c r="W95">
+        <v>1.28</v>
+      </c>
+      <c r="X95">
+        <v>8.4</v>
+      </c>
+      <c r="Y95">
+        <v>1.01</v>
+      </c>
+      <c r="Z95">
+        <v>4.36</v>
+      </c>
+      <c r="AA95">
+        <v>3.15</v>
+      </c>
+      <c r="AB95">
+        <v>1.9</v>
+      </c>
+      <c r="AC95">
+        <v>1.05</v>
+      </c>
+      <c r="AD95">
+        <v>9</v>
+      </c>
+      <c r="AE95">
+        <v>1.4</v>
+      </c>
+      <c r="AF95">
+        <v>2.49</v>
+      </c>
+      <c r="AG95">
+        <v>2.38</v>
+      </c>
+      <c r="AH95">
+        <v>1.6</v>
+      </c>
+      <c r="AI95">
+        <v>2.18</v>
+      </c>
+      <c r="AJ95">
+        <v>1.67</v>
+      </c>
+      <c r="AK95">
+        <v>1.32</v>
+      </c>
+      <c r="AL95">
+        <v>1.31</v>
+      </c>
+      <c r="AM95">
+        <v>1.24</v>
+      </c>
+      <c r="AN95">
+        <v>1.13</v>
+      </c>
+      <c r="AO95">
+        <v>2.27</v>
+      </c>
+      <c r="AP95">
+        <v>1.13</v>
+      </c>
+      <c r="AQ95">
+        <v>2.19</v>
+      </c>
+      <c r="AR95">
+        <v>1.3</v>
+      </c>
+      <c r="AS95">
+        <v>1.63</v>
+      </c>
+      <c r="AT95">
+        <v>2.93</v>
+      </c>
+      <c r="AU95">
+        <v>3</v>
+      </c>
+      <c r="AV95">
+        <v>0</v>
+      </c>
+      <c r="AW95">
+        <v>5</v>
+      </c>
+      <c r="AX95">
+        <v>6</v>
+      </c>
+      <c r="AY95">
+        <v>8</v>
+      </c>
+      <c r="AZ95">
+        <v>6</v>
+      </c>
+      <c r="BA95">
+        <v>3</v>
+      </c>
+      <c r="BB95">
+        <v>3</v>
+      </c>
+      <c r="BC95">
+        <v>6</v>
+      </c>
+      <c r="BD95">
+        <v>2.25</v>
+      </c>
+      <c r="BE95">
+        <v>6.9</v>
+      </c>
+      <c r="BF95">
+        <v>1.93</v>
+      </c>
+      <c r="BG95">
+        <v>1.5</v>
+      </c>
+      <c r="BH95">
+        <v>2.4</v>
+      </c>
+      <c r="BI95">
+        <v>1.85</v>
+      </c>
+      <c r="BJ95">
+        <v>1.8</v>
+      </c>
+      <c r="BK95">
+        <v>2.47</v>
+      </c>
+      <c r="BL95">
+        <v>1.5</v>
+      </c>
+      <c r="BM95">
+        <v>3</v>
+      </c>
+      <c r="BN95">
+        <v>1.33</v>
+      </c>
+      <c r="BO95">
+        <v>4</v>
+      </c>
+      <c r="BP95">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7793187</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45775.75</v>
+      </c>
+      <c r="F96">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>70</v>
+      </c>
+      <c r="H96" t="s">
+        <v>74</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>2</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>2</v>
+      </c>
+      <c r="O96" t="s">
+        <v>145</v>
+      </c>
+      <c r="P96" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q96">
+        <v>4.71</v>
+      </c>
+      <c r="R96">
+        <v>2.1</v>
+      </c>
+      <c r="S96">
+        <v>2.5</v>
+      </c>
+      <c r="T96">
+        <v>1.37</v>
+      </c>
+      <c r="U96">
+        <v>2.7</v>
+      </c>
+      <c r="V96">
+        <v>2.62</v>
+      </c>
+      <c r="W96">
+        <v>1.38</v>
+      </c>
+      <c r="X96">
+        <v>7.8</v>
+      </c>
+      <c r="Y96">
+        <v>1.02</v>
+      </c>
+      <c r="Z96">
+        <v>3.6</v>
+      </c>
+      <c r="AA96">
+        <v>3.3</v>
+      </c>
+      <c r="AB96">
+        <v>1.85</v>
+      </c>
+      <c r="AC96">
+        <v>1.05</v>
+      </c>
+      <c r="AD96">
+        <v>8.5</v>
+      </c>
+      <c r="AE96">
+        <v>1.25</v>
+      </c>
+      <c r="AF96">
+        <v>3.2</v>
+      </c>
+      <c r="AG96">
+        <v>1.99</v>
+      </c>
+      <c r="AH96">
+        <v>1.8</v>
+      </c>
+      <c r="AI96">
+        <v>1.8</v>
+      </c>
+      <c r="AJ96">
+        <v>1.88</v>
+      </c>
+      <c r="AK96">
+        <v>1.82</v>
+      </c>
+      <c r="AL96">
+        <v>0</v>
+      </c>
+      <c r="AM96">
+        <v>1.21</v>
+      </c>
+      <c r="AN96">
+        <v>1.27</v>
+      </c>
+      <c r="AO96">
+        <v>1.67</v>
+      </c>
+      <c r="AP96">
+        <v>1.25</v>
+      </c>
+      <c r="AQ96">
+        <v>1.63</v>
+      </c>
+      <c r="AR96">
+        <v>1.44</v>
+      </c>
+      <c r="AS96">
+        <v>1.7</v>
+      </c>
+      <c r="AT96">
+        <v>3.14</v>
+      </c>
+      <c r="AU96">
+        <v>5</v>
+      </c>
+      <c r="AV96">
+        <v>5</v>
+      </c>
+      <c r="AW96">
+        <v>4</v>
+      </c>
+      <c r="AX96">
+        <v>8</v>
+      </c>
+      <c r="AY96">
+        <v>9</v>
+      </c>
+      <c r="AZ96">
+        <v>13</v>
+      </c>
+      <c r="BA96">
+        <v>2</v>
+      </c>
+      <c r="BB96">
+        <v>3</v>
+      </c>
+      <c r="BC96">
+        <v>5</v>
+      </c>
+      <c r="BD96">
+        <v>2.34</v>
+      </c>
+      <c r="BE96">
+        <v>7.5</v>
+      </c>
+      <c r="BF96">
+        <v>1.9</v>
+      </c>
+      <c r="BG96">
+        <v>1.27</v>
+      </c>
+      <c r="BH96">
+        <v>3</v>
+      </c>
+      <c r="BI96">
+        <v>1.57</v>
+      </c>
+      <c r="BJ96">
+        <v>2.25</v>
+      </c>
+      <c r="BK96">
+        <v>2.23</v>
+      </c>
+      <c r="BL96">
+        <v>1.81</v>
+      </c>
+      <c r="BM96">
+        <v>2.4</v>
+      </c>
+      <c r="BN96">
+        <v>1.5</v>
+      </c>
+      <c r="BO96">
+        <v>3.34</v>
+      </c>
+      <c r="BP96">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7793182</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45775.84375</v>
+      </c>
+      <c r="F97">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>77</v>
+      </c>
+      <c r="H97" t="s">
+        <v>75</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>3</v>
+      </c>
+      <c r="N97">
+        <v>4</v>
+      </c>
+      <c r="O97" t="s">
+        <v>143</v>
+      </c>
+      <c r="P97" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q97">
+        <v>4.8</v>
+      </c>
+      <c r="R97">
+        <v>2.07</v>
+      </c>
+      <c r="S97">
+        <v>2.43</v>
+      </c>
+      <c r="T97">
+        <v>1.42</v>
+      </c>
+      <c r="U97">
+        <v>2.7</v>
+      </c>
+      <c r="V97">
+        <v>2.9</v>
+      </c>
+      <c r="W97">
+        <v>1.35</v>
+      </c>
+      <c r="X97">
+        <v>6.5</v>
+      </c>
+      <c r="Y97">
+        <v>1.07</v>
+      </c>
+      <c r="Z97">
+        <v>4.45</v>
+      </c>
+      <c r="AA97">
+        <v>3.55</v>
+      </c>
+      <c r="AB97">
+        <v>1.68</v>
+      </c>
+      <c r="AC97">
+        <v>1.06</v>
+      </c>
+      <c r="AD97">
+        <v>8.5</v>
+      </c>
+      <c r="AE97">
+        <v>1.32</v>
+      </c>
+      <c r="AF97">
+        <v>3.1</v>
+      </c>
+      <c r="AG97">
+        <v>2.09</v>
+      </c>
+      <c r="AH97">
+        <v>1.71</v>
+      </c>
+      <c r="AI97">
+        <v>1.93</v>
+      </c>
+      <c r="AJ97">
+        <v>1.74</v>
+      </c>
+      <c r="AK97">
+        <v>1.24</v>
+      </c>
+      <c r="AL97">
+        <v>0</v>
+      </c>
+      <c r="AM97">
+        <v>1.13</v>
+      </c>
+      <c r="AN97">
+        <v>1.4</v>
+      </c>
+      <c r="AO97">
+        <v>1.67</v>
+      </c>
+      <c r="AP97">
+        <v>1.31</v>
+      </c>
+      <c r="AQ97">
+        <v>1.75</v>
+      </c>
+      <c r="AR97">
+        <v>1.39</v>
+      </c>
+      <c r="AS97">
+        <v>1.6</v>
+      </c>
+      <c r="AT97">
+        <v>2.99</v>
+      </c>
+      <c r="AU97">
+        <v>5</v>
+      </c>
+      <c r="AV97">
+        <v>4</v>
+      </c>
+      <c r="AW97">
+        <v>9</v>
+      </c>
+      <c r="AX97">
+        <v>8</v>
+      </c>
+      <c r="AY97">
+        <v>14</v>
+      </c>
+      <c r="AZ97">
+        <v>12</v>
+      </c>
+      <c r="BA97">
+        <v>4</v>
+      </c>
+      <c r="BB97">
+        <v>2</v>
+      </c>
+      <c r="BC97">
+        <v>6</v>
+      </c>
+      <c r="BD97">
+        <v>2.66</v>
+      </c>
+      <c r="BE97">
+        <v>6.75</v>
+      </c>
+      <c r="BF97">
+        <v>1.62</v>
+      </c>
+      <c r="BG97">
+        <v>1.39</v>
+      </c>
+      <c r="BH97">
+        <v>2.75</v>
+      </c>
+      <c r="BI97">
+        <v>1.75</v>
+      </c>
+      <c r="BJ97">
+        <v>1.92</v>
+      </c>
+      <c r="BK97">
+        <v>2.1</v>
+      </c>
+      <c r="BL97">
+        <v>1.57</v>
+      </c>
+      <c r="BM97">
+        <v>2.65</v>
+      </c>
+      <c r="BN97">
+        <v>1.42</v>
+      </c>
+      <c r="BO97">
+        <v>3.84</v>
+      </c>
+      <c r="BP97">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="195">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -594,6 +594,12 @@
   <si>
     <t>['34', '54', '71']</t>
   </si>
+  <si>
+    <t>['51']</t>
+  </si>
+  <si>
+    <t>['6', '81', '90+3']</t>
+  </si>
 </sst>
 </file>
 
@@ -954,7 +960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP97"/>
+  <dimension ref="A1:BP99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1912,7 +1918,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ5">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2118,7 +2124,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ6">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2733,7 +2739,7 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ9">
         <v>0.88</v>
@@ -3351,7 +3357,7 @@
         <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ12">
         <v>1.06</v>
@@ -4384,7 +4390,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ17">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR17">
         <v>1.68</v>
@@ -4590,7 +4596,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ18">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR18">
         <v>1.16</v>
@@ -4999,7 +5005,7 @@
         <v>0.33</v>
       </c>
       <c r="AP20">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ20">
         <v>0.9399999999999999</v>
@@ -5617,7 +5623,7 @@
         <v>2.33</v>
       </c>
       <c r="AP23">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ23">
         <v>2.19</v>
@@ -6650,7 +6656,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ28">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR28">
         <v>1.14</v>
@@ -6856,7 +6862,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ29">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR29">
         <v>1.56</v>
@@ -7471,10 +7477,10 @@
         <v>0.8</v>
       </c>
       <c r="AP32">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ32">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR32">
         <v>1.08</v>
@@ -8707,7 +8713,7 @@
         <v>1.33</v>
       </c>
       <c r="AP38">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ38">
         <v>1.13</v>
@@ -9740,7 +9746,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ43">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR43">
         <v>1.5</v>
@@ -9946,7 +9952,7 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR44">
         <v>1.37</v>
@@ -10976,7 +10982,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ49">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR49">
         <v>1.28</v>
@@ -11385,7 +11391,7 @@
         <v>0.75</v>
       </c>
       <c r="AP51">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -12003,7 +12009,7 @@
         <v>0.75</v>
       </c>
       <c r="AP54">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -12418,7 +12424,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ56">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR56">
         <v>1.42</v>
@@ -13242,7 +13248,7 @@
         <v>1</v>
       </c>
       <c r="AQ60">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR60">
         <v>1.65</v>
@@ -13651,7 +13657,7 @@
         <v>1.2</v>
       </c>
       <c r="AP62">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ62">
         <v>1.25</v>
@@ -14475,7 +14481,7 @@
         <v>1.7</v>
       </c>
       <c r="AP66">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ66">
         <v>1.63</v>
@@ -14887,7 +14893,7 @@
         <v>1.09</v>
       </c>
       <c r="AP68">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ68">
         <v>1.06</v>
@@ -15711,7 +15717,7 @@
         <v>1.64</v>
       </c>
       <c r="AP72">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ72">
         <v>1.63</v>
@@ -16126,7 +16132,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ74">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR74">
         <v>1.18</v>
@@ -17156,7 +17162,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ79">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR79">
         <v>1.28</v>
@@ -17359,7 +17365,7 @@
         <v>2.54</v>
       </c>
       <c r="AP80">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ80">
         <v>2.19</v>
@@ -18183,7 +18189,7 @@
         <v>0.77</v>
       </c>
       <c r="AP84">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ84">
         <v>0.88</v>
@@ -18598,7 +18604,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ86">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR86">
         <v>1.64</v>
@@ -19628,7 +19634,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ91">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR91">
         <v>1.46</v>
@@ -20037,7 +20043,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ93">
         <v>0.9399999999999999</v>
@@ -20861,7 +20867,7 @@
         <v>1.67</v>
       </c>
       <c r="AP97">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ97">
         <v>1.75</v>
@@ -20940,6 +20946,418 @@
       </c>
       <c r="BP97">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7793190</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45779.75</v>
+      </c>
+      <c r="F98">
+        <v>17</v>
+      </c>
+      <c r="G98" t="s">
+        <v>72</v>
+      </c>
+      <c r="H98" t="s">
+        <v>71</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>2</v>
+      </c>
+      <c r="O98" t="s">
+        <v>123</v>
+      </c>
+      <c r="P98" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q98">
+        <v>2.3</v>
+      </c>
+      <c r="R98">
+        <v>1.95</v>
+      </c>
+      <c r="S98">
+        <v>4.2</v>
+      </c>
+      <c r="T98">
+        <v>1.47</v>
+      </c>
+      <c r="U98">
+        <v>2.4</v>
+      </c>
+      <c r="V98">
+        <v>3.3</v>
+      </c>
+      <c r="W98">
+        <v>1.29</v>
+      </c>
+      <c r="X98">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y98">
+        <v>1.05</v>
+      </c>
+      <c r="Z98">
+        <v>2</v>
+      </c>
+      <c r="AA98">
+        <v>3.05</v>
+      </c>
+      <c r="AB98">
+        <v>3.9</v>
+      </c>
+      <c r="AC98">
+        <v>1.01</v>
+      </c>
+      <c r="AD98">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE98">
+        <v>1.35</v>
+      </c>
+      <c r="AF98">
+        <v>2.78</v>
+      </c>
+      <c r="AG98">
+        <v>2.3</v>
+      </c>
+      <c r="AH98">
+        <v>1.62</v>
+      </c>
+      <c r="AI98">
+        <v>2</v>
+      </c>
+      <c r="AJ98">
+        <v>1.68</v>
+      </c>
+      <c r="AK98">
+        <v>1.35</v>
+      </c>
+      <c r="AL98">
+        <v>1.33</v>
+      </c>
+      <c r="AM98">
+        <v>1.7</v>
+      </c>
+      <c r="AN98">
+        <v>0.88</v>
+      </c>
+      <c r="AO98">
+        <v>1</v>
+      </c>
+      <c r="AP98">
+        <v>0.88</v>
+      </c>
+      <c r="AQ98">
+        <v>1</v>
+      </c>
+      <c r="AR98">
+        <v>1.29</v>
+      </c>
+      <c r="AS98">
+        <v>1.46</v>
+      </c>
+      <c r="AT98">
+        <v>2.75</v>
+      </c>
+      <c r="AU98">
+        <v>5</v>
+      </c>
+      <c r="AV98">
+        <v>6</v>
+      </c>
+      <c r="AW98">
+        <v>8</v>
+      </c>
+      <c r="AX98">
+        <v>7</v>
+      </c>
+      <c r="AY98">
+        <v>13</v>
+      </c>
+      <c r="AZ98">
+        <v>13</v>
+      </c>
+      <c r="BA98">
+        <v>5</v>
+      </c>
+      <c r="BB98">
+        <v>12</v>
+      </c>
+      <c r="BC98">
+        <v>17</v>
+      </c>
+      <c r="BD98">
+        <v>1.59</v>
+      </c>
+      <c r="BE98">
+        <v>7.5</v>
+      </c>
+      <c r="BF98">
+        <v>3</v>
+      </c>
+      <c r="BG98">
+        <v>1.43</v>
+      </c>
+      <c r="BH98">
+        <v>2.55</v>
+      </c>
+      <c r="BI98">
+        <v>1.83</v>
+      </c>
+      <c r="BJ98">
+        <v>1.99</v>
+      </c>
+      <c r="BK98">
+        <v>2.18</v>
+      </c>
+      <c r="BL98">
+        <v>1.58</v>
+      </c>
+      <c r="BM98">
+        <v>2.93</v>
+      </c>
+      <c r="BN98">
+        <v>1.35</v>
+      </c>
+      <c r="BO98">
+        <v>3.8</v>
+      </c>
+      <c r="BP98">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7793193</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45779.84375</v>
+      </c>
+      <c r="F99">
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>77</v>
+      </c>
+      <c r="H99" t="s">
+        <v>79</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>3</v>
+      </c>
+      <c r="N99">
+        <v>3</v>
+      </c>
+      <c r="O99" t="s">
+        <v>84</v>
+      </c>
+      <c r="P99" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q99">
+        <v>3.5</v>
+      </c>
+      <c r="R99">
+        <v>1.9</v>
+      </c>
+      <c r="S99">
+        <v>3.2</v>
+      </c>
+      <c r="T99">
+        <v>1.47</v>
+      </c>
+      <c r="U99">
+        <v>2.5</v>
+      </c>
+      <c r="V99">
+        <v>3.26</v>
+      </c>
+      <c r="W99">
+        <v>1.31</v>
+      </c>
+      <c r="X99">
+        <v>8.5</v>
+      </c>
+      <c r="Y99">
+        <v>1.01</v>
+      </c>
+      <c r="Z99">
+        <v>2.67</v>
+      </c>
+      <c r="AA99">
+        <v>3.01</v>
+      </c>
+      <c r="AB99">
+        <v>2.54</v>
+      </c>
+      <c r="AC99">
+        <v>1.07</v>
+      </c>
+      <c r="AD99">
+        <v>7</v>
+      </c>
+      <c r="AE99">
+        <v>1.4</v>
+      </c>
+      <c r="AF99">
+        <v>2.7</v>
+      </c>
+      <c r="AG99">
+        <v>2.1</v>
+      </c>
+      <c r="AH99">
+        <v>1.6</v>
+      </c>
+      <c r="AI99">
+        <v>1.95</v>
+      </c>
+      <c r="AJ99">
+        <v>1.77</v>
+      </c>
+      <c r="AK99">
+        <v>1.35</v>
+      </c>
+      <c r="AL99">
+        <v>1.33</v>
+      </c>
+      <c r="AM99">
+        <v>1.44</v>
+      </c>
+      <c r="AN99">
+        <v>1.31</v>
+      </c>
+      <c r="AO99">
+        <v>1.81</v>
+      </c>
+      <c r="AP99">
+        <v>1.24</v>
+      </c>
+      <c r="AQ99">
+        <v>1.88</v>
+      </c>
+      <c r="AR99">
+        <v>1.4</v>
+      </c>
+      <c r="AS99">
+        <v>1.26</v>
+      </c>
+      <c r="AT99">
+        <v>2.66</v>
+      </c>
+      <c r="AU99">
+        <v>4</v>
+      </c>
+      <c r="AV99">
+        <v>10</v>
+      </c>
+      <c r="AW99">
+        <v>17</v>
+      </c>
+      <c r="AX99">
+        <v>9</v>
+      </c>
+      <c r="AY99">
+        <v>21</v>
+      </c>
+      <c r="AZ99">
+        <v>19</v>
+      </c>
+      <c r="BA99">
+        <v>12</v>
+      </c>
+      <c r="BB99">
+        <v>3</v>
+      </c>
+      <c r="BC99">
+        <v>15</v>
+      </c>
+      <c r="BD99">
+        <v>1.88</v>
+      </c>
+      <c r="BE99">
+        <v>6.25</v>
+      </c>
+      <c r="BF99">
+        <v>2.3</v>
+      </c>
+      <c r="BG99">
+        <v>1.45</v>
+      </c>
+      <c r="BH99">
+        <v>2.59</v>
+      </c>
+      <c r="BI99">
+        <v>1.74</v>
+      </c>
+      <c r="BJ99">
+        <v>1.89</v>
+      </c>
+      <c r="BK99">
+        <v>2.63</v>
+      </c>
+      <c r="BL99">
+        <v>1.53</v>
+      </c>
+      <c r="BM99">
+        <v>2.9</v>
+      </c>
+      <c r="BN99">
+        <v>1.36</v>
+      </c>
+      <c r="BO99">
+        <v>3.9</v>
+      </c>
+      <c r="BP99">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="196">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -454,6 +454,9 @@
     <t>['17']</t>
   </si>
   <si>
+    <t>['28']</t>
+  </si>
+  <si>
     <t>['7', '90']</t>
   </si>
   <si>
@@ -574,9 +577,6 @@
     <t>['18', '45+2', '53']</t>
   </si>
   <si>
-    <t>['28']</t>
-  </si>
-  <si>
     <t>['67']</t>
   </si>
   <si>
@@ -599,6 +599,9 @@
   </si>
   <si>
     <t>['6', '81', '90+3']</t>
+  </si>
+  <si>
+    <t>['51', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -960,7 +963,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP99"/>
+  <dimension ref="A1:BP100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1219,7 +1222,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1425,7 +1428,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1837,7 +1840,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -2043,7 +2046,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2121,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ6">
         <v>1.88</v>
@@ -2249,7 +2252,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2327,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ7">
         <v>2.19</v>
@@ -2455,7 +2458,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2661,7 +2664,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2948,7 +2951,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR10">
         <v>2.15</v>
@@ -3073,7 +3076,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3485,7 +3488,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q13">
         <v>4.33</v>
@@ -3566,7 +3569,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ13">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR13">
         <v>1.78</v>
@@ -3975,7 +3978,7 @@
         <v>0.5</v>
       </c>
       <c r="AP15">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ15">
         <v>0.9399999999999999</v>
@@ -4309,7 +4312,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4515,7 +4518,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q18">
         <v>3.75</v>
@@ -4799,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -5214,7 +5217,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ21">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR21">
         <v>1.66</v>
@@ -5339,7 +5342,7 @@
         <v>84</v>
       </c>
       <c r="P22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22">
         <v>4.79</v>
@@ -5420,7 +5423,7 @@
         <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR22">
         <v>1.81</v>
@@ -5545,7 +5548,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q23">
         <v>3.74</v>
@@ -6163,7 +6166,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q26">
         <v>2.6</v>
@@ -6575,7 +6578,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q28">
         <v>3.25</v>
@@ -6781,7 +6784,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q29">
         <v>1.8</v>
@@ -6859,7 +6862,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ29">
         <v>1.24</v>
@@ -6987,7 +6990,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7065,7 +7068,7 @@
         <v>1.75</v>
       </c>
       <c r="AP30">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ30">
         <v>1.25</v>
@@ -7399,7 +7402,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q32">
         <v>2.6</v>
@@ -7811,7 +7814,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q34">
         <v>3.29</v>
@@ -8017,7 +8020,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q35">
         <v>5.47</v>
@@ -8223,7 +8226,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8301,10 +8304,10 @@
         <v>1.6</v>
       </c>
       <c r="AP36">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ36">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR36">
         <v>1.8</v>
@@ -8635,7 +8638,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q38">
         <v>3.75</v>
@@ -9047,7 +9050,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q40">
         <v>4.4</v>
@@ -9128,7 +9131,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ40">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR40">
         <v>1.37</v>
@@ -9459,7 +9462,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9743,7 +9746,7 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ43">
         <v>1.88</v>
@@ -9871,7 +9874,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q44">
         <v>3.5</v>
@@ -10077,7 +10080,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q45">
         <v>4.6</v>
@@ -10283,7 +10286,7 @@
         <v>84</v>
       </c>
       <c r="P46" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10364,7 +10367,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ46">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR46">
         <v>1.32</v>
@@ -10489,7 +10492,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q47">
         <v>2.06</v>
@@ -10567,7 +10570,7 @@
         <v>1.14</v>
       </c>
       <c r="AP47">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ47">
         <v>0.88</v>
@@ -10695,7 +10698,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11600,7 +11603,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ52">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR52">
         <v>1.57</v>
@@ -11803,7 +11806,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ53">
         <v>1.13</v>
@@ -11931,7 +11934,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12137,7 +12140,7 @@
         <v>102</v>
       </c>
       <c r="P55" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q55">
         <v>2.78</v>
@@ -12549,7 +12552,7 @@
         <v>84</v>
       </c>
       <c r="P57" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q57">
         <v>4.75</v>
@@ -12755,7 +12758,7 @@
         <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q58">
         <v>2.69</v>
@@ -12833,7 +12836,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP58">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ58">
         <v>0.9399999999999999</v>
@@ -12961,7 +12964,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q59">
         <v>4.96</v>
@@ -13042,7 +13045,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ59">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR59">
         <v>1.21</v>
@@ -13167,7 +13170,7 @@
         <v>84</v>
       </c>
       <c r="P60" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13579,7 +13582,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q62">
         <v>2.8</v>
@@ -14069,7 +14072,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ64">
         <v>1</v>
@@ -14197,7 +14200,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q65">
         <v>2.95</v>
@@ -14484,7 +14487,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ66">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR66">
         <v>1.47</v>
@@ -15021,7 +15024,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15227,7 +15230,7 @@
         <v>102</v>
       </c>
       <c r="P70" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15514,7 +15517,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ71">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR71">
         <v>1.62</v>
@@ -15639,7 +15642,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q72">
         <v>3.8</v>
@@ -15720,7 +15723,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ72">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR72">
         <v>1.29</v>
@@ -16051,7 +16054,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q74">
         <v>2.8</v>
@@ -16257,7 +16260,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16747,7 +16750,7 @@
         <v>0.92</v>
       </c>
       <c r="AP77">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -16953,7 +16956,7 @@
         <v>1.08</v>
       </c>
       <c r="AP78">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ78">
         <v>1.13</v>
@@ -17287,7 +17290,7 @@
         <v>136</v>
       </c>
       <c r="P80" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q80">
         <v>4.8</v>
@@ -17699,7 +17702,7 @@
         <v>122</v>
       </c>
       <c r="P82" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17780,7 +17783,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ82">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR82">
         <v>1.47</v>
@@ -17905,7 +17908,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q83">
         <v>2.75</v>
@@ -18111,7 +18114,7 @@
         <v>84</v>
       </c>
       <c r="P84" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="Q84">
         <v>2.9</v>
@@ -18398,7 +18401,7 @@
         <v>1</v>
       </c>
       <c r="AQ85">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR85">
         <v>1.32</v>
@@ -18807,7 +18810,7 @@
         <v>1.07</v>
       </c>
       <c r="AP87">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ87">
         <v>1</v>
@@ -18935,7 +18938,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q88">
         <v>3.55</v>
@@ -19219,7 +19222,7 @@
         <v>1.36</v>
       </c>
       <c r="AP89">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ89">
         <v>1.25</v>
@@ -20664,7 +20667,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ96">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR96">
         <v>1.44</v>
@@ -20870,7 +20873,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ97">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AR97">
         <v>1.39</v>
@@ -21358,6 +21361,212 @@
       </c>
       <c r="BP99">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7793188</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45780.72916666666</v>
+      </c>
+      <c r="F100">
+        <v>17</v>
+      </c>
+      <c r="G100" t="s">
+        <v>75</v>
+      </c>
+      <c r="H100" t="s">
+        <v>74</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>2</v>
+      </c>
+      <c r="N100">
+        <v>3</v>
+      </c>
+      <c r="O100" t="s">
+        <v>146</v>
+      </c>
+      <c r="P100" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q100">
+        <v>2.8</v>
+      </c>
+      <c r="R100">
+        <v>1.95</v>
+      </c>
+      <c r="S100">
+        <v>4.3</v>
+      </c>
+      <c r="T100">
+        <v>1.5</v>
+      </c>
+      <c r="U100">
+        <v>2.41</v>
+      </c>
+      <c r="V100">
+        <v>3.45</v>
+      </c>
+      <c r="W100">
+        <v>1.28</v>
+      </c>
+      <c r="X100">
+        <v>8.5</v>
+      </c>
+      <c r="Y100">
+        <v>1.04</v>
+      </c>
+      <c r="Z100">
+        <v>2.16</v>
+      </c>
+      <c r="AA100">
+        <v>3.1</v>
+      </c>
+      <c r="AB100">
+        <v>3.2</v>
+      </c>
+      <c r="AC100">
+        <v>1.08</v>
+      </c>
+      <c r="AD100">
+        <v>8</v>
+      </c>
+      <c r="AE100">
+        <v>1.44</v>
+      </c>
+      <c r="AF100">
+        <v>2.77</v>
+      </c>
+      <c r="AG100">
+        <v>2.4</v>
+      </c>
+      <c r="AH100">
+        <v>1.53</v>
+      </c>
+      <c r="AI100">
+        <v>2</v>
+      </c>
+      <c r="AJ100">
+        <v>1.67</v>
+      </c>
+      <c r="AK100">
+        <v>1.27</v>
+      </c>
+      <c r="AL100">
+        <v>1.34</v>
+      </c>
+      <c r="AM100">
+        <v>1.62</v>
+      </c>
+      <c r="AN100">
+        <v>1.75</v>
+      </c>
+      <c r="AO100">
+        <v>1.63</v>
+      </c>
+      <c r="AP100">
+        <v>1.65</v>
+      </c>
+      <c r="AQ100">
+        <v>1.71</v>
+      </c>
+      <c r="AR100">
+        <v>1.58</v>
+      </c>
+      <c r="AS100">
+        <v>1.7</v>
+      </c>
+      <c r="AT100">
+        <v>3.28</v>
+      </c>
+      <c r="AU100">
+        <v>5</v>
+      </c>
+      <c r="AV100">
+        <v>7</v>
+      </c>
+      <c r="AW100">
+        <v>5</v>
+      </c>
+      <c r="AX100">
+        <v>6</v>
+      </c>
+      <c r="AY100">
+        <v>10</v>
+      </c>
+      <c r="AZ100">
+        <v>13</v>
+      </c>
+      <c r="BA100">
+        <v>5</v>
+      </c>
+      <c r="BB100">
+        <v>3</v>
+      </c>
+      <c r="BC100">
+        <v>8</v>
+      </c>
+      <c r="BD100">
+        <v>1.9</v>
+      </c>
+      <c r="BE100">
+        <v>7.3</v>
+      </c>
+      <c r="BF100">
+        <v>2.3</v>
+      </c>
+      <c r="BG100">
+        <v>1.3</v>
+      </c>
+      <c r="BH100">
+        <v>2.78</v>
+      </c>
+      <c r="BI100">
+        <v>1.75</v>
+      </c>
+      <c r="BJ100">
+        <v>2.16</v>
+      </c>
+      <c r="BK100">
+        <v>2.08</v>
+      </c>
+      <c r="BL100">
+        <v>1.7</v>
+      </c>
+      <c r="BM100">
+        <v>2.63</v>
+      </c>
+      <c r="BN100">
+        <v>1.43</v>
+      </c>
+      <c r="BO100">
+        <v>3.5</v>
+      </c>
+      <c r="BP100">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="196">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -963,7 +963,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP100"/>
+  <dimension ref="A1:BP102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1303,7 +1303,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ2">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ4">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ7">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3154,10 +3154,10 @@
         <v>1</v>
       </c>
       <c r="AP11">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ11">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR11">
         <v>0.7</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ13">
         <v>1.71</v>
@@ -3981,7 +3981,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ15">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR15">
         <v>1.24</v>
@@ -4187,7 +4187,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ16">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR16">
         <v>1.31</v>
@@ -4390,7 +4390,7 @@
         <v>0.5</v>
       </c>
       <c r="AP17">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ17">
         <v>1.24</v>
@@ -5011,7 +5011,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ20">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR20">
         <v>1.3</v>
@@ -5629,7 +5629,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ23">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR23">
         <v>1.04</v>
@@ -6038,7 +6038,7 @@
         <v>1.33</v>
       </c>
       <c r="AP25">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ25">
         <v>0.88</v>
@@ -6656,7 +6656,7 @@
         <v>2.25</v>
       </c>
       <c r="AP28">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ28">
         <v>1.88</v>
@@ -7274,10 +7274,10 @@
         <v>1.25</v>
       </c>
       <c r="AP31">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ31">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR31">
         <v>1.72</v>
@@ -7892,10 +7892,10 @@
         <v>0.2</v>
       </c>
       <c r="AP34">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ34">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR34">
         <v>1.34</v>
@@ -8101,7 +8101,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR35">
         <v>1.46</v>
@@ -8719,7 +8719,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ38">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR38">
         <v>1.26</v>
@@ -8922,7 +8922,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9334,7 +9334,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ41">
         <v>1</v>
@@ -10161,7 +10161,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ45">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR45">
         <v>1.43</v>
@@ -10779,7 +10779,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR48">
         <v>1.65</v>
@@ -10982,7 +10982,7 @@
         <v>2.14</v>
       </c>
       <c r="AP49">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ49">
         <v>1.88</v>
@@ -11600,7 +11600,7 @@
         <v>2.13</v>
       </c>
       <c r="AP52">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ52">
         <v>1.71</v>
@@ -11809,7 +11809,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ53">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR53">
         <v>1.53</v>
@@ -12218,7 +12218,7 @@
         <v>1.25</v>
       </c>
       <c r="AP55">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ55">
         <v>1.25</v>
@@ -12633,7 +12633,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ57">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR57">
         <v>1.3</v>
@@ -12839,7 +12839,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ58">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR58">
         <v>1.71</v>
@@ -13457,7 +13457,7 @@
         <v>1</v>
       </c>
       <c r="AQ61">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR61">
         <v>1.44</v>
@@ -13866,7 +13866,7 @@
         <v>0.9</v>
       </c>
       <c r="AP63">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ63">
         <v>0.88</v>
@@ -14278,7 +14278,7 @@
         <v>0.9</v>
       </c>
       <c r="AP65">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -14690,7 +14690,7 @@
         <v>1.2</v>
       </c>
       <c r="AP67">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ67">
         <v>1.06</v>
@@ -15102,7 +15102,7 @@
         <v>1.36</v>
       </c>
       <c r="AP69">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ69">
         <v>1.25</v>
@@ -15514,7 +15514,7 @@
         <v>1.64</v>
       </c>
       <c r="AP71">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ71">
         <v>1.65</v>
@@ -15926,7 +15926,7 @@
         <v>0.91</v>
       </c>
       <c r="AP73">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ73">
         <v>0.88</v>
@@ -16544,10 +16544,10 @@
         <v>1.17</v>
       </c>
       <c r="AP76">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ76">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR76">
         <v>1.6</v>
@@ -16959,7 +16959,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ78">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR78">
         <v>1.69</v>
@@ -17371,7 +17371,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ80">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR80">
         <v>1.4</v>
@@ -17780,7 +17780,7 @@
         <v>1.46</v>
       </c>
       <c r="AP82">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ82">
         <v>1.65</v>
@@ -17986,7 +17986,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ83">
         <v>1.06</v>
@@ -18604,7 +18604,7 @@
         <v>1.64</v>
       </c>
       <c r="AP86">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ86">
         <v>1.88</v>
@@ -19431,7 +19431,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ90">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR90">
         <v>1.27</v>
@@ -19634,7 +19634,7 @@
         <v>1.43</v>
       </c>
       <c r="AP91">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ91">
         <v>1.24</v>
@@ -20049,7 +20049,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ93">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR93">
         <v>1.29</v>
@@ -20458,10 +20458,10 @@
         <v>2.27</v>
       </c>
       <c r="AP95">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ95">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR95">
         <v>1.3</v>
@@ -21567,6 +21567,418 @@
       </c>
       <c r="BP100">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7793192</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45781.75</v>
+      </c>
+      <c r="F101">
+        <v>17</v>
+      </c>
+      <c r="G101" t="s">
+        <v>78</v>
+      </c>
+      <c r="H101" t="s">
+        <v>80</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>1</v>
+      </c>
+      <c r="O101" t="s">
+        <v>84</v>
+      </c>
+      <c r="P101" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q101">
+        <v>2.8</v>
+      </c>
+      <c r="R101">
+        <v>1.86</v>
+      </c>
+      <c r="S101">
+        <v>4.35</v>
+      </c>
+      <c r="T101">
+        <v>1.55</v>
+      </c>
+      <c r="U101">
+        <v>2.4</v>
+      </c>
+      <c r="V101">
+        <v>3.65</v>
+      </c>
+      <c r="W101">
+        <v>1.29</v>
+      </c>
+      <c r="X101">
+        <v>9.5</v>
+      </c>
+      <c r="Y101">
+        <v>1.01</v>
+      </c>
+      <c r="Z101">
+        <v>2.15</v>
+      </c>
+      <c r="AA101">
+        <v>2.87</v>
+      </c>
+      <c r="AB101">
+        <v>3.25</v>
+      </c>
+      <c r="AC101">
+        <v>1.07</v>
+      </c>
+      <c r="AD101">
+        <v>6.5</v>
+      </c>
+      <c r="AE101">
+        <v>1.52</v>
+      </c>
+      <c r="AF101">
+        <v>2.5</v>
+      </c>
+      <c r="AG101">
+        <v>2.5</v>
+      </c>
+      <c r="AH101">
+        <v>1.5</v>
+      </c>
+      <c r="AI101">
+        <v>2.1</v>
+      </c>
+      <c r="AJ101">
+        <v>1.67</v>
+      </c>
+      <c r="AK101">
+        <v>1.33</v>
+      </c>
+      <c r="AL101">
+        <v>1.34</v>
+      </c>
+      <c r="AM101">
+        <v>1.67</v>
+      </c>
+      <c r="AN101">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AO101">
+        <v>1.13</v>
+      </c>
+      <c r="AP101">
+        <v>0.88</v>
+      </c>
+      <c r="AQ101">
+        <v>1.24</v>
+      </c>
+      <c r="AR101">
+        <v>1.59</v>
+      </c>
+      <c r="AS101">
+        <v>1.29</v>
+      </c>
+      <c r="AT101">
+        <v>2.88</v>
+      </c>
+      <c r="AU101">
+        <v>10</v>
+      </c>
+      <c r="AV101">
+        <v>5</v>
+      </c>
+      <c r="AW101">
+        <v>17</v>
+      </c>
+      <c r="AX101">
+        <v>2</v>
+      </c>
+      <c r="AY101">
+        <v>27</v>
+      </c>
+      <c r="AZ101">
+        <v>7</v>
+      </c>
+      <c r="BA101">
+        <v>6</v>
+      </c>
+      <c r="BB101">
+        <v>0</v>
+      </c>
+      <c r="BC101">
+        <v>6</v>
+      </c>
+      <c r="BD101">
+        <v>1.76</v>
+      </c>
+      <c r="BE101">
+        <v>7.5</v>
+      </c>
+      <c r="BF101">
+        <v>2.3</v>
+      </c>
+      <c r="BG101">
+        <v>1.59</v>
+      </c>
+      <c r="BH101">
+        <v>2.28</v>
+      </c>
+      <c r="BI101">
+        <v>1.98</v>
+      </c>
+      <c r="BJ101">
+        <v>1.8</v>
+      </c>
+      <c r="BK101">
+        <v>2.25</v>
+      </c>
+      <c r="BL101">
+        <v>1.46</v>
+      </c>
+      <c r="BM101">
+        <v>3.38</v>
+      </c>
+      <c r="BN101">
+        <v>1.25</v>
+      </c>
+      <c r="BO101">
+        <v>4.2</v>
+      </c>
+      <c r="BP101">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7793191</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45781.84375</v>
+      </c>
+      <c r="F102">
+        <v>17</v>
+      </c>
+      <c r="G102" t="s">
+        <v>81</v>
+      </c>
+      <c r="H102" t="s">
+        <v>76</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102" t="s">
+        <v>84</v>
+      </c>
+      <c r="P102" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q102">
+        <v>2.3</v>
+      </c>
+      <c r="R102">
+        <v>2.05</v>
+      </c>
+      <c r="S102">
+        <v>5.61</v>
+      </c>
+      <c r="T102">
+        <v>1.42</v>
+      </c>
+      <c r="U102">
+        <v>2.55</v>
+      </c>
+      <c r="V102">
+        <v>3.2</v>
+      </c>
+      <c r="W102">
+        <v>1.32</v>
+      </c>
+      <c r="X102">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y102">
+        <v>1.01</v>
+      </c>
+      <c r="Z102">
+        <v>1.55</v>
+      </c>
+      <c r="AA102">
+        <v>3.55</v>
+      </c>
+      <c r="AB102">
+        <v>5.5</v>
+      </c>
+      <c r="AC102">
+        <v>1.04</v>
+      </c>
+      <c r="AD102">
+        <v>7.5</v>
+      </c>
+      <c r="AE102">
+        <v>1.33</v>
+      </c>
+      <c r="AF102">
+        <v>2.7</v>
+      </c>
+      <c r="AG102">
+        <v>2.2</v>
+      </c>
+      <c r="AH102">
+        <v>1.62</v>
+      </c>
+      <c r="AI102">
+        <v>2.2</v>
+      </c>
+      <c r="AJ102">
+        <v>1.62</v>
+      </c>
+      <c r="AK102">
+        <v>1.3</v>
+      </c>
+      <c r="AL102">
+        <v>1.28</v>
+      </c>
+      <c r="AM102">
+        <v>2.44</v>
+      </c>
+      <c r="AN102">
+        <v>2.19</v>
+      </c>
+      <c r="AO102">
+        <v>1</v>
+      </c>
+      <c r="AP102">
+        <v>2.12</v>
+      </c>
+      <c r="AQ102">
+        <v>1</v>
+      </c>
+      <c r="AR102">
+        <v>1.57</v>
+      </c>
+      <c r="AS102">
+        <v>1.35</v>
+      </c>
+      <c r="AT102">
+        <v>2.92</v>
+      </c>
+      <c r="AU102">
+        <v>6</v>
+      </c>
+      <c r="AV102">
+        <v>2</v>
+      </c>
+      <c r="AW102">
+        <v>13</v>
+      </c>
+      <c r="AX102">
+        <v>5</v>
+      </c>
+      <c r="AY102">
+        <v>19</v>
+      </c>
+      <c r="AZ102">
+        <v>7</v>
+      </c>
+      <c r="BA102">
+        <v>6</v>
+      </c>
+      <c r="BB102">
+        <v>1</v>
+      </c>
+      <c r="BC102">
+        <v>7</v>
+      </c>
+      <c r="BD102">
+        <v>1.46</v>
+      </c>
+      <c r="BE102">
+        <v>8</v>
+      </c>
+      <c r="BF102">
+        <v>3.46</v>
+      </c>
+      <c r="BG102">
+        <v>1.76</v>
+      </c>
+      <c r="BH102">
+        <v>2</v>
+      </c>
+      <c r="BI102">
+        <v>2.26</v>
+      </c>
+      <c r="BJ102">
+        <v>1.59</v>
+      </c>
+      <c r="BK102">
+        <v>2.93</v>
+      </c>
+      <c r="BL102">
+        <v>1.41</v>
+      </c>
+      <c r="BM102">
+        <v>4.1</v>
+      </c>
+      <c r="BN102">
+        <v>1.18</v>
+      </c>
+      <c r="BO102">
+        <v>4.8</v>
+      </c>
+      <c r="BP102">
+        <v>1.11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="197">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -457,6 +457,9 @@
     <t>['28']</t>
   </si>
   <si>
+    <t>['45']</t>
+  </si>
+  <si>
     <t>['7', '90']</t>
   </si>
   <si>
@@ -550,9 +553,6 @@
     <t>['2', '28', '43', '54', '63']</t>
   </si>
   <si>
-    <t>['45']</t>
-  </si>
-  <si>
     <t>['29']</t>
   </si>
   <si>
@@ -602,6 +602,9 @@
   </si>
   <si>
     <t>['51', '90+2']</t>
+  </si>
+  <si>
+    <t>['10']</t>
   </si>
 </sst>
 </file>
@@ -963,7 +966,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP102"/>
+  <dimension ref="A1:BP103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1222,7 +1225,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1300,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ2">
         <v>1.24</v>
@@ -1428,7 +1431,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1840,7 +1843,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -2046,7 +2049,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2252,7 +2255,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2458,7 +2461,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2539,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="AQ8">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR8">
         <v>1.35</v>
@@ -2664,7 +2667,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -3076,7 +3079,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3488,7 +3491,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q13">
         <v>4.33</v>
@@ -3772,7 +3775,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4312,7 +4315,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4518,7 +4521,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q18">
         <v>3.75</v>
@@ -5214,7 +5217,7 @@
         <v>1.67</v>
       </c>
       <c r="AP21">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ21">
         <v>1.65</v>
@@ -5342,7 +5345,7 @@
         <v>84</v>
       </c>
       <c r="P22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q22">
         <v>4.79</v>
@@ -5548,7 +5551,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q23">
         <v>3.74</v>
@@ -6166,7 +6169,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q26">
         <v>2.6</v>
@@ -6578,7 +6581,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q28">
         <v>3.25</v>
@@ -6784,7 +6787,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q29">
         <v>1.8</v>
@@ -6990,7 +6993,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7071,7 +7074,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ30">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR30">
         <v>1.83</v>
@@ -7402,7 +7405,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q32">
         <v>2.6</v>
@@ -7814,7 +7817,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q34">
         <v>3.29</v>
@@ -8020,7 +8023,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q35">
         <v>5.47</v>
@@ -8226,7 +8229,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8510,7 +8513,7 @@
         <v>1.4</v>
       </c>
       <c r="AP37">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ37">
         <v>1.06</v>
@@ -8638,7 +8641,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q38">
         <v>3.75</v>
@@ -9050,7 +9053,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q40">
         <v>4.4</v>
@@ -9462,7 +9465,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9543,7 +9546,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ42">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR42">
         <v>1.17</v>
@@ -9874,7 +9877,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q44">
         <v>3.5</v>
@@ -10080,7 +10083,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q45">
         <v>4.6</v>
@@ -10158,7 +10161,7 @@
         <v>2.71</v>
       </c>
       <c r="AP45">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ45">
         <v>2.12</v>
@@ -10286,7 +10289,7 @@
         <v>84</v>
       </c>
       <c r="P46" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10492,7 +10495,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q47">
         <v>2.06</v>
@@ -10698,7 +10701,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11934,7 +11937,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12140,7 +12143,7 @@
         <v>102</v>
       </c>
       <c r="P55" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q55">
         <v>2.78</v>
@@ -12221,7 +12224,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ55">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR55">
         <v>1.34</v>
@@ -12424,7 +12427,7 @@
         <v>1.22</v>
       </c>
       <c r="AP56">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ56">
         <v>1.24</v>
@@ -12552,7 +12555,7 @@
         <v>84</v>
       </c>
       <c r="P57" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q57">
         <v>4.75</v>
@@ -12758,7 +12761,7 @@
         <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="Q58">
         <v>2.69</v>
@@ -13170,7 +13173,7 @@
         <v>84</v>
       </c>
       <c r="P60" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13663,7 +13666,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ62">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR62">
         <v>1.2</v>
@@ -15105,7 +15108,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ69">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR69">
         <v>1.22</v>
@@ -15230,7 +15233,7 @@
         <v>102</v>
       </c>
       <c r="P70" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -16338,7 +16341,7 @@
         <v>0.92</v>
       </c>
       <c r="AP75">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ75">
         <v>1</v>
@@ -17290,7 +17293,7 @@
         <v>136</v>
       </c>
       <c r="P80" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q80">
         <v>4.8</v>
@@ -17577,7 +17580,7 @@
         <v>1</v>
       </c>
       <c r="AQ81">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR81">
         <v>1.44</v>
@@ -17908,7 +17911,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q83">
         <v>2.75</v>
@@ -18938,7 +18941,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q88">
         <v>3.55</v>
@@ -19225,7 +19228,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ89">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR89">
         <v>1.53</v>
@@ -20664,7 +20667,7 @@
         <v>1.67</v>
       </c>
       <c r="AP96">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ96">
         <v>1.71</v>
@@ -21979,6 +21982,212 @@
       </c>
       <c r="BP102">
         <v>1.11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7793189</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45782.79166666666</v>
+      </c>
+      <c r="F103">
+        <v>17</v>
+      </c>
+      <c r="G103" t="s">
+        <v>73</v>
+      </c>
+      <c r="H103" t="s">
+        <v>70</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>2</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>2</v>
+      </c>
+      <c r="O103" t="s">
+        <v>147</v>
+      </c>
+      <c r="P103" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q103">
+        <v>3.15</v>
+      </c>
+      <c r="R103">
+        <v>1.98</v>
+      </c>
+      <c r="S103">
+        <v>3.6</v>
+      </c>
+      <c r="T103">
+        <v>1.42</v>
+      </c>
+      <c r="U103">
+        <v>2.55</v>
+      </c>
+      <c r="V103">
+        <v>3.1</v>
+      </c>
+      <c r="W103">
+        <v>1.3</v>
+      </c>
+      <c r="X103">
+        <v>9</v>
+      </c>
+      <c r="Y103">
+        <v>1.04</v>
+      </c>
+      <c r="Z103">
+        <v>2.73</v>
+      </c>
+      <c r="AA103">
+        <v>2.9</v>
+      </c>
+      <c r="AB103">
+        <v>2.7</v>
+      </c>
+      <c r="AC103">
+        <v>1.06</v>
+      </c>
+      <c r="AD103">
+        <v>7.5</v>
+      </c>
+      <c r="AE103">
+        <v>1.44</v>
+      </c>
+      <c r="AF103">
+        <v>2.8</v>
+      </c>
+      <c r="AG103">
+        <v>2.39</v>
+      </c>
+      <c r="AH103">
+        <v>1.6</v>
+      </c>
+      <c r="AI103">
+        <v>1.8</v>
+      </c>
+      <c r="AJ103">
+        <v>1.85</v>
+      </c>
+      <c r="AK103">
+        <v>1.46</v>
+      </c>
+      <c r="AL103">
+        <v>1.34</v>
+      </c>
+      <c r="AM103">
+        <v>1.5</v>
+      </c>
+      <c r="AN103">
+        <v>1.06</v>
+      </c>
+      <c r="AO103">
+        <v>1.25</v>
+      </c>
+      <c r="AP103">
+        <v>1.06</v>
+      </c>
+      <c r="AQ103">
+        <v>1.24</v>
+      </c>
+      <c r="AR103">
+        <v>1.2</v>
+      </c>
+      <c r="AS103">
+        <v>1.43</v>
+      </c>
+      <c r="AT103">
+        <v>2.63</v>
+      </c>
+      <c r="AU103">
+        <v>8</v>
+      </c>
+      <c r="AV103">
+        <v>12</v>
+      </c>
+      <c r="AW103">
+        <v>7</v>
+      </c>
+      <c r="AX103">
+        <v>2</v>
+      </c>
+      <c r="AY103">
+        <v>15</v>
+      </c>
+      <c r="AZ103">
+        <v>14</v>
+      </c>
+      <c r="BA103">
+        <v>5</v>
+      </c>
+      <c r="BB103">
+        <v>8</v>
+      </c>
+      <c r="BC103">
+        <v>13</v>
+      </c>
+      <c r="BD103">
+        <v>2.15</v>
+      </c>
+      <c r="BE103">
+        <v>6.9</v>
+      </c>
+      <c r="BF103">
+        <v>1.95</v>
+      </c>
+      <c r="BG103">
+        <v>1.48</v>
+      </c>
+      <c r="BH103">
+        <v>2.5</v>
+      </c>
+      <c r="BI103">
+        <v>1.75</v>
+      </c>
+      <c r="BJ103">
+        <v>1.95</v>
+      </c>
+      <c r="BK103">
+        <v>2.27</v>
+      </c>
+      <c r="BL103">
+        <v>1.57</v>
+      </c>
+      <c r="BM103">
+        <v>2.9</v>
+      </c>
+      <c r="BN103">
+        <v>1.36</v>
+      </c>
+      <c r="BO103">
+        <v>3.8</v>
+      </c>
+      <c r="BP103">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="198">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -458,6 +458,9 @@
   </si>
   <si>
     <t>['45']</t>
+  </si>
+  <si>
+    <t>['38', '48']</t>
   </si>
   <si>
     <t>['7', '90']</t>
@@ -966,7 +969,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP103"/>
+  <dimension ref="A1:BP104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1225,7 +1228,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1303,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ2">
         <v>1.24</v>
@@ -1431,7 +1434,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1715,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ4">
         <v>0.88</v>
@@ -1843,7 +1846,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -2049,7 +2052,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2255,7 +2258,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2461,7 +2464,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2542,7 +2545,7 @@
         <v>1</v>
       </c>
       <c r="AQ8">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR8">
         <v>1.35</v>
@@ -2667,7 +2670,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2748,7 +2751,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ9">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR9">
         <v>1.34</v>
@@ -3079,7 +3082,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3491,7 +3494,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q13">
         <v>4.33</v>
@@ -3775,7 +3778,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4315,7 +4318,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4521,7 +4524,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q18">
         <v>3.75</v>
@@ -4599,7 +4602,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ18">
         <v>1.88</v>
@@ -5217,7 +5220,7 @@
         <v>1.67</v>
       </c>
       <c r="AP21">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ21">
         <v>1.65</v>
@@ -5345,7 +5348,7 @@
         <v>84</v>
       </c>
       <c r="P22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q22">
         <v>4.79</v>
@@ -5551,7 +5554,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q23">
         <v>3.74</v>
@@ -6044,7 +6047,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ25">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR25">
         <v>1.38</v>
@@ -6169,7 +6172,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q26">
         <v>2.6</v>
@@ -6247,7 +6250,7 @@
         <v>1.25</v>
       </c>
       <c r="AP26">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6581,7 +6584,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q28">
         <v>3.25</v>
@@ -6787,7 +6790,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q29">
         <v>1.8</v>
@@ -6993,7 +6996,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7074,7 +7077,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ30">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR30">
         <v>1.83</v>
@@ -7405,7 +7408,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q32">
         <v>2.6</v>
@@ -7692,7 +7695,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR33">
         <v>1.83</v>
@@ -7817,7 +7820,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q34">
         <v>3.29</v>
@@ -8023,7 +8026,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q35">
         <v>5.47</v>
@@ -8229,7 +8232,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8513,7 +8516,7 @@
         <v>1.4</v>
       </c>
       <c r="AP37">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ37">
         <v>1.06</v>
@@ -8641,7 +8644,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q38">
         <v>3.75</v>
@@ -9053,7 +9056,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q40">
         <v>4.4</v>
@@ -9465,7 +9468,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9543,10 +9546,10 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ42">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR42">
         <v>1.17</v>
@@ -9877,7 +9880,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q44">
         <v>3.5</v>
@@ -10083,7 +10086,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q45">
         <v>4.6</v>
@@ -10161,7 +10164,7 @@
         <v>2.71</v>
       </c>
       <c r="AP45">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ45">
         <v>2.12</v>
@@ -10289,7 +10292,7 @@
         <v>84</v>
       </c>
       <c r="P46" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10495,7 +10498,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q47">
         <v>2.06</v>
@@ -10576,7 +10579,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ47">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR47">
         <v>1.75</v>
@@ -10701,7 +10704,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11191,7 +11194,7 @@
         <v>1.13</v>
       </c>
       <c r="AP50">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ50">
         <v>1.06</v>
@@ -11937,7 +11940,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12143,7 +12146,7 @@
         <v>102</v>
       </c>
       <c r="P55" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q55">
         <v>2.78</v>
@@ -12224,7 +12227,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ55">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR55">
         <v>1.34</v>
@@ -12427,7 +12430,7 @@
         <v>1.22</v>
       </c>
       <c r="AP56">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ56">
         <v>1.24</v>
@@ -12555,7 +12558,7 @@
         <v>84</v>
       </c>
       <c r="P57" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q57">
         <v>4.75</v>
@@ -12967,7 +12970,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q59">
         <v>4.96</v>
@@ -13045,7 +13048,7 @@
         <v>1.56</v>
       </c>
       <c r="AP59">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ59">
         <v>1.65</v>
@@ -13173,7 +13176,7 @@
         <v>84</v>
       </c>
       <c r="P60" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13585,7 +13588,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q62">
         <v>2.8</v>
@@ -13666,7 +13669,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ62">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR62">
         <v>1.2</v>
@@ -13872,7 +13875,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ63">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR63">
         <v>1.64</v>
@@ -14203,7 +14206,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q65">
         <v>2.95</v>
@@ -15027,7 +15030,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15108,7 +15111,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ69">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR69">
         <v>1.22</v>
@@ -15233,7 +15236,7 @@
         <v>102</v>
       </c>
       <c r="P70" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15645,7 +15648,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q72">
         <v>3.8</v>
@@ -15932,7 +15935,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ73">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR73">
         <v>1.45</v>
@@ -16057,7 +16060,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q74">
         <v>2.8</v>
@@ -16135,7 +16138,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ74">
         <v>1.24</v>
@@ -16263,7 +16266,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16341,7 +16344,7 @@
         <v>0.92</v>
       </c>
       <c r="AP75">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ75">
         <v>1</v>
@@ -17293,7 +17296,7 @@
         <v>136</v>
       </c>
       <c r="P80" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q80">
         <v>4.8</v>
@@ -17580,7 +17583,7 @@
         <v>1</v>
       </c>
       <c r="AQ81">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR81">
         <v>1.44</v>
@@ -17705,7 +17708,7 @@
         <v>122</v>
       </c>
       <c r="P82" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17911,7 +17914,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q83">
         <v>2.75</v>
@@ -18198,7 +18201,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ84">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR84">
         <v>1.28</v>
@@ -18323,7 +18326,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q85">
         <v>4.41</v>
@@ -18529,7 +18532,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q86">
         <v>2.2</v>
@@ -18735,7 +18738,7 @@
         <v>139</v>
       </c>
       <c r="P87" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q87">
         <v>2.2</v>
@@ -18941,7 +18944,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q88">
         <v>3.55</v>
@@ -19228,7 +19231,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ89">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR89">
         <v>1.53</v>
@@ -19353,7 +19356,7 @@
         <v>141</v>
       </c>
       <c r="P90" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19431,7 +19434,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ90">
         <v>1.24</v>
@@ -19765,7 +19768,7 @@
         <v>143</v>
       </c>
       <c r="P92" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q92">
         <v>3.4</v>
@@ -19846,7 +19849,7 @@
         <v>1</v>
       </c>
       <c r="AQ92">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR92">
         <v>1.33</v>
@@ -19971,7 +19974,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q93">
         <v>3.2</v>
@@ -20667,7 +20670,7 @@
         <v>1.67</v>
       </c>
       <c r="AP96">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ96">
         <v>1.71</v>
@@ -20795,7 +20798,7 @@
         <v>143</v>
       </c>
       <c r="P97" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q97">
         <v>4.8</v>
@@ -21001,7 +21004,7 @@
         <v>123</v>
       </c>
       <c r="P98" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q98">
         <v>2.3</v>
@@ -21079,7 +21082,7 @@
         <v>1</v>
       </c>
       <c r="AP98">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ98">
         <v>1</v>
@@ -21207,7 +21210,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21413,7 +21416,7 @@
         <v>146</v>
       </c>
       <c r="P100" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q100">
         <v>2.8</v>
@@ -22031,7 +22034,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q103">
         <v>3.15</v>
@@ -22112,7 +22115,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ103">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR103">
         <v>1.2</v>
@@ -22188,6 +22191,212 @@
       </c>
       <c r="BP103">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7793198</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45786.70833333334</v>
+      </c>
+      <c r="F104">
+        <v>18</v>
+      </c>
+      <c r="G104" t="s">
+        <v>70</v>
+      </c>
+      <c r="H104" t="s">
+        <v>72</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>2</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>3</v>
+      </c>
+      <c r="O104" t="s">
+        <v>148</v>
+      </c>
+      <c r="P104" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q104">
+        <v>2.98</v>
+      </c>
+      <c r="R104">
+        <v>1.94</v>
+      </c>
+      <c r="S104">
+        <v>4</v>
+      </c>
+      <c r="T104">
+        <v>1.49</v>
+      </c>
+      <c r="U104">
+        <v>2.62</v>
+      </c>
+      <c r="V104">
+        <v>3.3</v>
+      </c>
+      <c r="W104">
+        <v>1.29</v>
+      </c>
+      <c r="X104">
+        <v>8.5</v>
+      </c>
+      <c r="Y104">
+        <v>1.06</v>
+      </c>
+      <c r="Z104">
+        <v>2.37</v>
+      </c>
+      <c r="AA104">
+        <v>3</v>
+      </c>
+      <c r="AB104">
+        <v>3</v>
+      </c>
+      <c r="AC104">
+        <v>1.06</v>
+      </c>
+      <c r="AD104">
+        <v>7</v>
+      </c>
+      <c r="AE104">
+        <v>1.45</v>
+      </c>
+      <c r="AF104">
+        <v>2.62</v>
+      </c>
+      <c r="AG104">
+        <v>2.37</v>
+      </c>
+      <c r="AH104">
+        <v>1.57</v>
+      </c>
+      <c r="AI104">
+        <v>1.91</v>
+      </c>
+      <c r="AJ104">
+        <v>1.8</v>
+      </c>
+      <c r="AK104">
+        <v>1.27</v>
+      </c>
+      <c r="AL104">
+        <v>1.33</v>
+      </c>
+      <c r="AM104">
+        <v>1.49</v>
+      </c>
+      <c r="AN104">
+        <v>1.24</v>
+      </c>
+      <c r="AO104">
+        <v>0.88</v>
+      </c>
+      <c r="AP104">
+        <v>1.33</v>
+      </c>
+      <c r="AQ104">
+        <v>0.83</v>
+      </c>
+      <c r="AR104">
+        <v>1.47</v>
+      </c>
+      <c r="AS104">
+        <v>1.3</v>
+      </c>
+      <c r="AT104">
+        <v>2.77</v>
+      </c>
+      <c r="AU104">
+        <v>9</v>
+      </c>
+      <c r="AV104">
+        <v>3</v>
+      </c>
+      <c r="AW104">
+        <v>3</v>
+      </c>
+      <c r="AX104">
+        <v>12</v>
+      </c>
+      <c r="AY104">
+        <v>12</v>
+      </c>
+      <c r="AZ104">
+        <v>15</v>
+      </c>
+      <c r="BA104">
+        <v>4</v>
+      </c>
+      <c r="BB104">
+        <v>5</v>
+      </c>
+      <c r="BC104">
+        <v>9</v>
+      </c>
+      <c r="BD104">
+        <v>1.72</v>
+      </c>
+      <c r="BE104">
+        <v>6.1</v>
+      </c>
+      <c r="BF104">
+        <v>2.4</v>
+      </c>
+      <c r="BG104">
+        <v>1.43</v>
+      </c>
+      <c r="BH104">
+        <v>2.52</v>
+      </c>
+      <c r="BI104">
+        <v>1.75</v>
+      </c>
+      <c r="BJ104">
+        <v>1.88</v>
+      </c>
+      <c r="BK104">
+        <v>2.46</v>
+      </c>
+      <c r="BL104">
+        <v>1.56</v>
+      </c>
+      <c r="BM104">
+        <v>3.08</v>
+      </c>
+      <c r="BN104">
+        <v>1.28</v>
+      </c>
+      <c r="BO104">
+        <v>4.45</v>
+      </c>
+      <c r="BP104">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="199">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -463,6 +463,9 @@
     <t>['38', '48']</t>
   </si>
   <si>
+    <t>['39']</t>
+  </si>
+  <si>
     <t>['7', '90']</t>
   </si>
   <si>
@@ -547,9 +550,6 @@
     <t>['42']</t>
   </si>
   <si>
-    <t>['39']</t>
-  </si>
-  <si>
     <t>['88']</t>
   </si>
   <si>
@@ -608,6 +608,9 @@
   </si>
   <si>
     <t>['10']</t>
+  </si>
+  <si>
+    <t>['2', '31']</t>
   </si>
 </sst>
 </file>
@@ -969,7 +972,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP104"/>
+  <dimension ref="A1:BP105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1228,7 +1231,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1434,7 +1437,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1515,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1721,7 +1724,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ4">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1846,7 +1849,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -2052,7 +2055,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2258,7 +2261,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2464,7 +2467,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2542,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ8">
         <v>1.33</v>
@@ -2670,7 +2673,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -3082,7 +3085,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3160,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="AP11">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
         <v>2.12</v>
@@ -3494,7 +3497,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q13">
         <v>4.33</v>
@@ -3987,7 +3990,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ15">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>1.24</v>
@@ -4318,7 +4321,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4524,7 +4527,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q18">
         <v>3.75</v>
@@ -4811,7 +4814,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR19">
         <v>1.79</v>
@@ -5017,7 +5020,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ20">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>1.3</v>
@@ -5348,7 +5351,7 @@
         <v>84</v>
       </c>
       <c r="P22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q22">
         <v>4.79</v>
@@ -5554,7 +5557,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q23">
         <v>3.74</v>
@@ -5838,7 +5841,7 @@
         <v>1.33</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ24">
         <v>1.06</v>
@@ -6172,7 +6175,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q26">
         <v>2.6</v>
@@ -6253,7 +6256,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR26">
         <v>1.14</v>
@@ -6584,7 +6587,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q28">
         <v>3.25</v>
@@ -6662,7 +6665,7 @@
         <v>2.25</v>
       </c>
       <c r="AP28">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
         <v>1.88</v>
@@ -6790,7 +6793,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q29">
         <v>1.8</v>
@@ -6996,7 +6999,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7408,7 +7411,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q32">
         <v>2.6</v>
@@ -7820,7 +7823,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q34">
         <v>3.29</v>
@@ -7901,7 +7904,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ34">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR34">
         <v>1.34</v>
@@ -8026,7 +8029,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q35">
         <v>5.47</v>
@@ -8104,7 +8107,7 @@
         <v>2.6</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ35">
         <v>2.12</v>
@@ -8232,7 +8235,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8644,7 +8647,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q38">
         <v>3.75</v>
@@ -9056,7 +9059,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q40">
         <v>4.4</v>
@@ -9340,10 +9343,10 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR41">
         <v>1.17</v>
@@ -9468,7 +9471,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9880,7 +9883,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q44">
         <v>3.5</v>
@@ -9958,7 +9961,7 @@
         <v>1.14</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ44">
         <v>1.24</v>
@@ -10086,7 +10089,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q45">
         <v>4.6</v>
@@ -10292,7 +10295,7 @@
         <v>84</v>
       </c>
       <c r="P46" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10498,7 +10501,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q47">
         <v>2.06</v>
@@ -10704,7 +10707,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -10785,7 +10788,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR48">
         <v>1.65</v>
@@ -11403,7 +11406,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR51">
         <v>1.14</v>
@@ -11940,7 +11943,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12224,7 +12227,7 @@
         <v>1.25</v>
       </c>
       <c r="AP55">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ55">
         <v>1.33</v>
@@ -12845,7 +12848,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ58">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR58">
         <v>1.71</v>
@@ -13176,7 +13179,7 @@
         <v>84</v>
       </c>
       <c r="P60" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13460,7 +13463,7 @@
         <v>1.33</v>
       </c>
       <c r="AP61">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ61">
         <v>1.24</v>
@@ -14081,7 +14084,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ64">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR64">
         <v>1.44</v>
@@ -14696,7 +14699,7 @@
         <v>1.2</v>
       </c>
       <c r="AP67">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ67">
         <v>1.06</v>
@@ -15236,7 +15239,7 @@
         <v>102</v>
       </c>
       <c r="P70" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15314,7 +15317,7 @@
         <v>0.91</v>
       </c>
       <c r="AP70">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ70">
         <v>1</v>
@@ -15932,7 +15935,7 @@
         <v>0.91</v>
       </c>
       <c r="AP73">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ73">
         <v>0.83</v>
@@ -16347,7 +16350,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ75">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR75">
         <v>1.43</v>
@@ -16553,7 +16556,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ76">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR76">
         <v>1.6</v>
@@ -17786,7 +17789,7 @@
         <v>1.46</v>
       </c>
       <c r="AP82">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ82">
         <v>1.65</v>
@@ -17914,7 +17917,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q83">
         <v>2.75</v>
@@ -18404,7 +18407,7 @@
         <v>1.46</v>
       </c>
       <c r="AP85">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ85">
         <v>1.71</v>
@@ -18944,7 +18947,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q88">
         <v>3.55</v>
@@ -19025,7 +19028,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ88">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR88">
         <v>1.25</v>
@@ -19640,7 +19643,7 @@
         <v>1.43</v>
       </c>
       <c r="AP91">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ91">
         <v>1.24</v>
@@ -19846,7 +19849,7 @@
         <v>0.87</v>
       </c>
       <c r="AP92">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ92">
         <v>0.83</v>
@@ -20055,7 +20058,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ93">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR93">
         <v>1.29</v>
@@ -21700,7 +21703,7 @@
         <v>1.13</v>
       </c>
       <c r="AP101">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ101">
         <v>1.24</v>
@@ -21909,7 +21912,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ102">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR102">
         <v>1.57</v>
@@ -22397,6 +22400,212 @@
       </c>
       <c r="BP104">
         <v>1.14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7793196</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45786.8125</v>
+      </c>
+      <c r="F105">
+        <v>18</v>
+      </c>
+      <c r="G105" t="s">
+        <v>76</v>
+      </c>
+      <c r="H105" t="s">
+        <v>78</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>2</v>
+      </c>
+      <c r="K105">
+        <v>3</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>2</v>
+      </c>
+      <c r="N105">
+        <v>3</v>
+      </c>
+      <c r="O105" t="s">
+        <v>149</v>
+      </c>
+      <c r="P105" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q105">
+        <v>4</v>
+      </c>
+      <c r="R105">
+        <v>1.91</v>
+      </c>
+      <c r="S105">
+        <v>2.95</v>
+      </c>
+      <c r="T105">
+        <v>1.55</v>
+      </c>
+      <c r="U105">
+        <v>2.3</v>
+      </c>
+      <c r="V105">
+        <v>3.4</v>
+      </c>
+      <c r="W105">
+        <v>1.29</v>
+      </c>
+      <c r="X105">
+        <v>8.5</v>
+      </c>
+      <c r="Y105">
+        <v>1.01</v>
+      </c>
+      <c r="Z105">
+        <v>2.79</v>
+      </c>
+      <c r="AA105">
+        <v>3.07</v>
+      </c>
+      <c r="AB105">
+        <v>2.3</v>
+      </c>
+      <c r="AC105">
+        <v>1.03</v>
+      </c>
+      <c r="AD105">
+        <v>6.5</v>
+      </c>
+      <c r="AE105">
+        <v>1.5</v>
+      </c>
+      <c r="AF105">
+        <v>2.5</v>
+      </c>
+      <c r="AG105">
+        <v>2.5</v>
+      </c>
+      <c r="AH105">
+        <v>1.49</v>
+      </c>
+      <c r="AI105">
+        <v>2.05</v>
+      </c>
+      <c r="AJ105">
+        <v>1.67</v>
+      </c>
+      <c r="AK105">
+        <v>1.3</v>
+      </c>
+      <c r="AL105">
+        <v>1.33</v>
+      </c>
+      <c r="AM105">
+        <v>1.28</v>
+      </c>
+      <c r="AN105">
+        <v>1</v>
+      </c>
+      <c r="AO105">
+        <v>0.88</v>
+      </c>
+      <c r="AP105">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ105">
+        <v>1</v>
+      </c>
+      <c r="AR105">
+        <v>1.31</v>
+      </c>
+      <c r="AS105">
+        <v>1.66</v>
+      </c>
+      <c r="AT105">
+        <v>2.97</v>
+      </c>
+      <c r="AU105">
+        <v>3</v>
+      </c>
+      <c r="AV105">
+        <v>6</v>
+      </c>
+      <c r="AW105">
+        <v>5</v>
+      </c>
+      <c r="AX105">
+        <v>8</v>
+      </c>
+      <c r="AY105">
+        <v>8</v>
+      </c>
+      <c r="AZ105">
+        <v>14</v>
+      </c>
+      <c r="BA105">
+        <v>5</v>
+      </c>
+      <c r="BB105">
+        <v>6</v>
+      </c>
+      <c r="BC105">
+        <v>11</v>
+      </c>
+      <c r="BD105">
+        <v>2.13</v>
+      </c>
+      <c r="BE105">
+        <v>6.25</v>
+      </c>
+      <c r="BF105">
+        <v>1.78</v>
+      </c>
+      <c r="BG105">
+        <v>1.58</v>
+      </c>
+      <c r="BH105">
+        <v>2.29</v>
+      </c>
+      <c r="BI105">
+        <v>1.95</v>
+      </c>
+      <c r="BJ105">
+        <v>1.78</v>
+      </c>
+      <c r="BK105">
+        <v>3.05</v>
+      </c>
+      <c r="BL105">
+        <v>1.46</v>
+      </c>
+      <c r="BM105">
+        <v>3.38</v>
+      </c>
+      <c r="BN105">
+        <v>1.26</v>
+      </c>
+      <c r="BO105">
+        <v>4.4</v>
+      </c>
+      <c r="BP105">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="201">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -466,6 +466,9 @@
     <t>['39']</t>
   </si>
   <si>
+    <t>['51']</t>
+  </si>
+  <si>
     <t>['7', '90']</t>
   </si>
   <si>
@@ -598,9 +601,6 @@
     <t>['34', '54', '71']</t>
   </si>
   <si>
-    <t>['51']</t>
-  </si>
-  <si>
     <t>['6', '81', '90+3']</t>
   </si>
   <si>
@@ -611,6 +611,12 @@
   </si>
   <si>
     <t>['2', '31']</t>
+  </si>
+  <si>
+    <t>['8', '26']</t>
+  </si>
+  <si>
+    <t>['31', '71']</t>
   </si>
 </sst>
 </file>
@@ -972,7 +978,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP105"/>
+  <dimension ref="A1:BP107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1231,7 +1237,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1312,7 +1318,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ2">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1437,7 +1443,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1849,7 +1855,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -1930,7 +1936,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ5">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2055,7 +2061,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2136,7 +2142,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ6">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2261,7 +2267,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2339,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ7">
         <v>2.12</v>
@@ -2467,7 +2473,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2673,7 +2679,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2751,7 +2757,7 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ9">
         <v>0.83</v>
@@ -2960,7 +2966,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR10">
         <v>2.15</v>
@@ -3085,7 +3091,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3369,7 +3375,7 @@
         <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ12">
         <v>1.06</v>
@@ -3497,7 +3503,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q13">
         <v>4.33</v>
@@ -3575,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ13">
         <v>1.71</v>
@@ -3987,7 +3993,7 @@
         <v>0.5</v>
       </c>
       <c r="AP15">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4196,7 +4202,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ16">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR16">
         <v>1.31</v>
@@ -4321,7 +4327,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4402,7 +4408,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ17">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR17">
         <v>1.68</v>
@@ -4527,7 +4533,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q18">
         <v>3.75</v>
@@ -4608,7 +4614,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ18">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR18">
         <v>1.16</v>
@@ -5017,7 +5023,7 @@
         <v>0.33</v>
       </c>
       <c r="AP20">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5226,7 +5232,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ21">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR21">
         <v>1.66</v>
@@ -5351,7 +5357,7 @@
         <v>84</v>
       </c>
       <c r="P22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q22">
         <v>4.79</v>
@@ -5557,7 +5563,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q23">
         <v>3.74</v>
@@ -5635,7 +5641,7 @@
         <v>2.33</v>
       </c>
       <c r="AP23">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ23">
         <v>2.12</v>
@@ -6047,7 +6053,7 @@
         <v>1.33</v>
       </c>
       <c r="AP25">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ25">
         <v>0.83</v>
@@ -6175,7 +6181,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q26">
         <v>2.6</v>
@@ -6587,7 +6593,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q28">
         <v>3.25</v>
@@ -6668,7 +6674,7 @@
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR28">
         <v>1.14</v>
@@ -6793,7 +6799,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q29">
         <v>1.8</v>
@@ -6871,10 +6877,10 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ29">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR29">
         <v>1.56</v>
@@ -6999,7 +7005,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7286,7 +7292,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ31">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR31">
         <v>1.72</v>
@@ -7411,7 +7417,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q32">
         <v>2.6</v>
@@ -7489,10 +7495,10 @@
         <v>0.8</v>
       </c>
       <c r="AP32">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ32">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR32">
         <v>1.08</v>
@@ -7823,7 +7829,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q34">
         <v>3.29</v>
@@ -7901,7 +7907,7 @@
         <v>0.2</v>
       </c>
       <c r="AP34">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -8029,7 +8035,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q35">
         <v>5.47</v>
@@ -8235,7 +8241,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8316,7 +8322,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ36">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR36">
         <v>1.8</v>
@@ -8647,7 +8653,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q38">
         <v>3.75</v>
@@ -8725,10 +8731,10 @@
         <v>1.33</v>
       </c>
       <c r="AP38">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ38">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR38">
         <v>1.26</v>
@@ -9059,7 +9065,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q40">
         <v>4.4</v>
@@ -9471,7 +9477,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9755,10 +9761,10 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ43">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR43">
         <v>1.5</v>
@@ -9883,7 +9889,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q44">
         <v>3.5</v>
@@ -9964,7 +9970,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ44">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR44">
         <v>1.37</v>
@@ -10089,7 +10095,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q45">
         <v>4.6</v>
@@ -10295,7 +10301,7 @@
         <v>84</v>
       </c>
       <c r="P46" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10376,7 +10382,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ46">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR46">
         <v>1.32</v>
@@ -10501,7 +10507,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q47">
         <v>2.06</v>
@@ -10991,10 +10997,10 @@
         <v>2.14</v>
       </c>
       <c r="AP49">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ49">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR49">
         <v>1.28</v>
@@ -11403,7 +11409,7 @@
         <v>0.75</v>
       </c>
       <c r="AP51">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ51">
         <v>0.9399999999999999</v>
@@ -11815,10 +11821,10 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ53">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR53">
         <v>1.53</v>
@@ -11943,7 +11949,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12021,7 +12027,7 @@
         <v>0.75</v>
       </c>
       <c r="AP54">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -12149,7 +12155,7 @@
         <v>102</v>
       </c>
       <c r="P55" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q55">
         <v>2.78</v>
@@ -12436,7 +12442,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ56">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR56">
         <v>1.42</v>
@@ -12561,7 +12567,7 @@
         <v>84</v>
       </c>
       <c r="P57" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q57">
         <v>4.75</v>
@@ -12973,7 +12979,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q59">
         <v>4.96</v>
@@ -13054,7 +13060,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ59">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR59">
         <v>1.21</v>
@@ -13179,7 +13185,7 @@
         <v>84</v>
       </c>
       <c r="P60" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13260,7 +13266,7 @@
         <v>1</v>
       </c>
       <c r="AQ60">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR60">
         <v>1.65</v>
@@ -13466,7 +13472,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ61">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR61">
         <v>1.44</v>
@@ -13591,7 +13597,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q62">
         <v>2.8</v>
@@ -13669,7 +13675,7 @@
         <v>1.2</v>
       </c>
       <c r="AP62">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ62">
         <v>1.33</v>
@@ -14081,7 +14087,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ64">
         <v>0.9399999999999999</v>
@@ -14209,7 +14215,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q65">
         <v>2.95</v>
@@ -14287,7 +14293,7 @@
         <v>0.9</v>
       </c>
       <c r="AP65">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -14493,7 +14499,7 @@
         <v>1.7</v>
       </c>
       <c r="AP66">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ66">
         <v>1.71</v>
@@ -14905,7 +14911,7 @@
         <v>1.09</v>
       </c>
       <c r="AP68">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ68">
         <v>1.06</v>
@@ -15033,7 +15039,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15111,7 +15117,7 @@
         <v>1.36</v>
       </c>
       <c r="AP69">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ69">
         <v>1.33</v>
@@ -15239,7 +15245,7 @@
         <v>102</v>
       </c>
       <c r="P70" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15526,7 +15532,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ71">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR71">
         <v>1.62</v>
@@ -15651,7 +15657,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q72">
         <v>3.8</v>
@@ -15729,7 +15735,7 @@
         <v>1.64</v>
       </c>
       <c r="AP72">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ72">
         <v>1.71</v>
@@ -16063,7 +16069,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q74">
         <v>2.8</v>
@@ -16144,7 +16150,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ74">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR74">
         <v>1.18</v>
@@ -16269,7 +16275,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16759,7 +16765,7 @@
         <v>0.92</v>
       </c>
       <c r="AP77">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -16968,7 +16974,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ78">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR78">
         <v>1.69</v>
@@ -17174,7 +17180,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ79">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR79">
         <v>1.28</v>
@@ -17299,7 +17305,7 @@
         <v>136</v>
       </c>
       <c r="P80" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q80">
         <v>4.8</v>
@@ -17377,7 +17383,7 @@
         <v>2.54</v>
       </c>
       <c r="AP80">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ80">
         <v>2.12</v>
@@ -17711,7 +17717,7 @@
         <v>122</v>
       </c>
       <c r="P82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17792,7 +17798,7 @@
         <v>1</v>
       </c>
       <c r="AQ82">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR82">
         <v>1.47</v>
@@ -17917,7 +17923,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q83">
         <v>2.75</v>
@@ -17995,7 +18001,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ83">
         <v>1.06</v>
@@ -18201,7 +18207,7 @@
         <v>0.77</v>
       </c>
       <c r="AP84">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ84">
         <v>0.83</v>
@@ -18329,7 +18335,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q85">
         <v>4.41</v>
@@ -18535,7 +18541,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q86">
         <v>2.2</v>
@@ -18616,7 +18622,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ86">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR86">
         <v>1.64</v>
@@ -18741,7 +18747,7 @@
         <v>139</v>
       </c>
       <c r="P87" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q87">
         <v>2.2</v>
@@ -18947,7 +18953,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q88">
         <v>3.55</v>
@@ -19231,7 +19237,7 @@
         <v>1.36</v>
       </c>
       <c r="AP89">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ89">
         <v>1.33</v>
@@ -19359,7 +19365,7 @@
         <v>141</v>
       </c>
       <c r="P90" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19440,7 +19446,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ90">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR90">
         <v>1.27</v>
@@ -19646,7 +19652,7 @@
         <v>1</v>
       </c>
       <c r="AQ91">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR91">
         <v>1.46</v>
@@ -19771,7 +19777,7 @@
         <v>143</v>
       </c>
       <c r="P92" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q92">
         <v>3.4</v>
@@ -19977,7 +19983,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q93">
         <v>3.2</v>
@@ -20055,7 +20061,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ93">
         <v>1</v>
@@ -20467,7 +20473,7 @@
         <v>2.27</v>
       </c>
       <c r="AP95">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ95">
         <v>2.12</v>
@@ -20801,7 +20807,7 @@
         <v>143</v>
       </c>
       <c r="P97" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q97">
         <v>4.8</v>
@@ -20879,10 +20885,10 @@
         <v>1.67</v>
       </c>
       <c r="AP97">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ97">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AR97">
         <v>1.39</v>
@@ -21007,7 +21013,7 @@
         <v>123</v>
       </c>
       <c r="P98" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="Q98">
         <v>2.3</v>
@@ -21291,10 +21297,10 @@
         <v>1.81</v>
       </c>
       <c r="AP99">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AQ99">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR99">
         <v>1.4</v>
@@ -21497,7 +21503,7 @@
         <v>1.63</v>
       </c>
       <c r="AP100">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ100">
         <v>1.71</v>
@@ -21706,7 +21712,7 @@
         <v>1</v>
       </c>
       <c r="AQ101">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR101">
         <v>1.59</v>
@@ -22606,6 +22612,418 @@
       </c>
       <c r="BP105">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7793194</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45787.70833333334</v>
+      </c>
+      <c r="F106">
+        <v>18</v>
+      </c>
+      <c r="G106" t="s">
+        <v>79</v>
+      </c>
+      <c r="H106" t="s">
+        <v>75</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>2</v>
+      </c>
+      <c r="K106">
+        <v>2</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>2</v>
+      </c>
+      <c r="N106">
+        <v>2</v>
+      </c>
+      <c r="O106" t="s">
+        <v>84</v>
+      </c>
+      <c r="P106" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q106">
+        <v>3.65</v>
+      </c>
+      <c r="R106">
+        <v>1.75</v>
+      </c>
+      <c r="S106">
+        <v>2.9</v>
+      </c>
+      <c r="T106">
+        <v>1.5</v>
+      </c>
+      <c r="U106">
+        <v>2.4</v>
+      </c>
+      <c r="V106">
+        <v>3.2</v>
+      </c>
+      <c r="W106">
+        <v>1.3</v>
+      </c>
+      <c r="X106">
+        <v>7.5</v>
+      </c>
+      <c r="Y106">
+        <v>1.04</v>
+      </c>
+      <c r="Z106">
+        <v>3.25</v>
+      </c>
+      <c r="AA106">
+        <v>3.1</v>
+      </c>
+      <c r="AB106">
+        <v>2.2</v>
+      </c>
+      <c r="AC106">
+        <v>1.04</v>
+      </c>
+      <c r="AD106">
+        <v>7.5</v>
+      </c>
+      <c r="AE106">
+        <v>1.4</v>
+      </c>
+      <c r="AF106">
+        <v>2.8</v>
+      </c>
+      <c r="AG106">
+        <v>2.35</v>
+      </c>
+      <c r="AH106">
+        <v>1.62</v>
+      </c>
+      <c r="AI106">
+        <v>2</v>
+      </c>
+      <c r="AJ106">
+        <v>1.85</v>
+      </c>
+      <c r="AK106">
+        <v>1.31</v>
+      </c>
+      <c r="AL106">
+        <v>1.32</v>
+      </c>
+      <c r="AM106">
+        <v>1.3</v>
+      </c>
+      <c r="AN106">
+        <v>1.88</v>
+      </c>
+      <c r="AO106">
+        <v>1.65</v>
+      </c>
+      <c r="AP106">
+        <v>1.78</v>
+      </c>
+      <c r="AQ106">
+        <v>1.72</v>
+      </c>
+      <c r="AR106">
+        <v>1.31</v>
+      </c>
+      <c r="AS106">
+        <v>1.56</v>
+      </c>
+      <c r="AT106">
+        <v>2.87</v>
+      </c>
+      <c r="AU106">
+        <v>2</v>
+      </c>
+      <c r="AV106">
+        <v>3</v>
+      </c>
+      <c r="AW106">
+        <v>13</v>
+      </c>
+      <c r="AX106">
+        <v>12</v>
+      </c>
+      <c r="AY106">
+        <v>15</v>
+      </c>
+      <c r="AZ106">
+        <v>15</v>
+      </c>
+      <c r="BA106">
+        <v>6</v>
+      </c>
+      <c r="BB106">
+        <v>5</v>
+      </c>
+      <c r="BC106">
+        <v>11</v>
+      </c>
+      <c r="BD106">
+        <v>2.3</v>
+      </c>
+      <c r="BE106">
+        <v>6.75</v>
+      </c>
+      <c r="BF106">
+        <v>1.6</v>
+      </c>
+      <c r="BG106">
+        <v>1.38</v>
+      </c>
+      <c r="BH106">
+        <v>2.8</v>
+      </c>
+      <c r="BI106">
+        <v>1.72</v>
+      </c>
+      <c r="BJ106">
+        <v>2.06</v>
+      </c>
+      <c r="BK106">
+        <v>2.5</v>
+      </c>
+      <c r="BL106">
+        <v>1.65</v>
+      </c>
+      <c r="BM106">
+        <v>2.62</v>
+      </c>
+      <c r="BN106">
+        <v>1.42</v>
+      </c>
+      <c r="BO106">
+        <v>3.4</v>
+      </c>
+      <c r="BP106">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7793195</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45787.8125</v>
+      </c>
+      <c r="F107">
+        <v>18</v>
+      </c>
+      <c r="G107" t="s">
+        <v>80</v>
+      </c>
+      <c r="H107" t="s">
+        <v>77</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>2</v>
+      </c>
+      <c r="N107">
+        <v>3</v>
+      </c>
+      <c r="O107" t="s">
+        <v>150</v>
+      </c>
+      <c r="P107" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q107">
+        <v>2.7</v>
+      </c>
+      <c r="R107">
+        <v>2</v>
+      </c>
+      <c r="S107">
+        <v>3.2</v>
+      </c>
+      <c r="T107">
+        <v>1.47</v>
+      </c>
+      <c r="U107">
+        <v>2.65</v>
+      </c>
+      <c r="V107">
+        <v>3.2</v>
+      </c>
+      <c r="W107">
+        <v>1.33</v>
+      </c>
+      <c r="X107">
+        <v>7.2</v>
+      </c>
+      <c r="Y107">
+        <v>1.02</v>
+      </c>
+      <c r="Z107">
+        <v>2.01</v>
+      </c>
+      <c r="AA107">
+        <v>3.04</v>
+      </c>
+      <c r="AB107">
+        <v>3.41</v>
+      </c>
+      <c r="AC107">
+        <v>1.02</v>
+      </c>
+      <c r="AD107">
+        <v>7.25</v>
+      </c>
+      <c r="AE107">
+        <v>1.38</v>
+      </c>
+      <c r="AF107">
+        <v>2.8</v>
+      </c>
+      <c r="AG107">
+        <v>2.05</v>
+      </c>
+      <c r="AH107">
+        <v>1.61</v>
+      </c>
+      <c r="AI107">
+        <v>1.95</v>
+      </c>
+      <c r="AJ107">
+        <v>1.8</v>
+      </c>
+      <c r="AK107">
+        <v>1.26</v>
+      </c>
+      <c r="AL107">
+        <v>1.32</v>
+      </c>
+      <c r="AM107">
+        <v>1.62</v>
+      </c>
+      <c r="AN107">
+        <v>1.24</v>
+      </c>
+      <c r="AO107">
+        <v>1.24</v>
+      </c>
+      <c r="AP107">
+        <v>1.17</v>
+      </c>
+      <c r="AQ107">
+        <v>1.33</v>
+      </c>
+      <c r="AR107">
+        <v>1.27</v>
+      </c>
+      <c r="AS107">
+        <v>1.44</v>
+      </c>
+      <c r="AT107">
+        <v>2.71</v>
+      </c>
+      <c r="AU107">
+        <v>6</v>
+      </c>
+      <c r="AV107">
+        <v>3</v>
+      </c>
+      <c r="AW107">
+        <v>8</v>
+      </c>
+      <c r="AX107">
+        <v>5</v>
+      </c>
+      <c r="AY107">
+        <v>14</v>
+      </c>
+      <c r="AZ107">
+        <v>8</v>
+      </c>
+      <c r="BA107">
+        <v>4</v>
+      </c>
+      <c r="BB107">
+        <v>3</v>
+      </c>
+      <c r="BC107">
+        <v>7</v>
+      </c>
+      <c r="BD107">
+        <v>1.68</v>
+      </c>
+      <c r="BE107">
+        <v>7.5</v>
+      </c>
+      <c r="BF107">
+        <v>2.55</v>
+      </c>
+      <c r="BG107">
+        <v>1.47</v>
+      </c>
+      <c r="BH107">
+        <v>2.3</v>
+      </c>
+      <c r="BI107">
+        <v>1.91</v>
+      </c>
+      <c r="BJ107">
+        <v>1.8</v>
+      </c>
+      <c r="BK107">
+        <v>2.47</v>
+      </c>
+      <c r="BL107">
+        <v>1.51</v>
+      </c>
+      <c r="BM107">
+        <v>3.2</v>
+      </c>
+      <c r="BN107">
+        <v>1.24</v>
+      </c>
+      <c r="BO107">
+        <v>4.33</v>
+      </c>
+      <c r="BP107">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="202">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -618,6 +618,9 @@
   <si>
     <t>['31', '71']</t>
   </si>
+  <si>
+    <t>['17', '32', '85']</t>
+  </si>
 </sst>
 </file>
 
@@ -978,7 +981,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP107"/>
+  <dimension ref="A1:BP108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1933,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ5">
         <v>1.33</v>
@@ -2139,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ6">
         <v>1.78</v>
@@ -3378,7 +3381,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ12">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR12">
         <v>1.05</v>
@@ -3584,7 +3587,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ13">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AR13">
         <v>1.78</v>
@@ -4199,7 +4202,7 @@
         <v>2</v>
       </c>
       <c r="AP16">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ16">
         <v>1.17</v>
@@ -4817,7 +4820,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ19">
         <v>0.9399999999999999</v>
@@ -5438,7 +5441,7 @@
         <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AR22">
         <v>1.81</v>
@@ -5850,7 +5853,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ24">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR24">
         <v>1.38</v>
@@ -6465,7 +6468,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -7083,7 +7086,7 @@
         <v>1.75</v>
       </c>
       <c r="AP30">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ30">
         <v>1.33</v>
@@ -8319,7 +8322,7 @@
         <v>1.6</v>
       </c>
       <c r="AP36">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ36">
         <v>1.72</v>
@@ -8528,7 +8531,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ37">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR37">
         <v>1.52</v>
@@ -9143,10 +9146,10 @@
         <v>2.17</v>
       </c>
       <c r="AP40">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ40">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AR40">
         <v>1.37</v>
@@ -10379,7 +10382,7 @@
         <v>1.14</v>
       </c>
       <c r="AP46">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ46">
         <v>1.72</v>
@@ -10585,7 +10588,7 @@
         <v>1.14</v>
       </c>
       <c r="AP47">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ47">
         <v>0.83</v>
@@ -11206,7 +11209,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ50">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR50">
         <v>1.1</v>
@@ -11618,7 +11621,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ52">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AR52">
         <v>1.57</v>
@@ -12645,7 +12648,7 @@
         <v>2.56</v>
       </c>
       <c r="AP57">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ57">
         <v>2.12</v>
@@ -12851,7 +12854,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP58">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -14502,7 +14505,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ66">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AR66">
         <v>1.47</v>
@@ -14708,7 +14711,7 @@
         <v>1</v>
       </c>
       <c r="AQ67">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR67">
         <v>1.43</v>
@@ -14914,7 +14917,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ68">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR68">
         <v>1.43</v>
@@ -15738,7 +15741,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ72">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AR72">
         <v>1.29</v>
@@ -16971,7 +16974,7 @@
         <v>1.08</v>
       </c>
       <c r="AP78">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ78">
         <v>1.17</v>
@@ -17177,7 +17180,7 @@
         <v>1.83</v>
       </c>
       <c r="AP79">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ79">
         <v>1.78</v>
@@ -18004,7 +18007,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ83">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR83">
         <v>1.28</v>
@@ -18416,7 +18419,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ85">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AR85">
         <v>1.32</v>
@@ -18825,7 +18828,7 @@
         <v>1.07</v>
       </c>
       <c r="AP87">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AQ87">
         <v>1</v>
@@ -19031,7 +19034,7 @@
         <v>0.86</v>
       </c>
       <c r="AP88">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ88">
         <v>0.9399999999999999</v>
@@ -20270,7 +20273,7 @@
         <v>1</v>
       </c>
       <c r="AQ94">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR94">
         <v>1.46</v>
@@ -20682,7 +20685,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ96">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AR96">
         <v>1.44</v>
@@ -21506,7 +21509,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ100">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AR100">
         <v>1.58</v>
@@ -22121,7 +22124,7 @@
         <v>1.25</v>
       </c>
       <c r="AP103">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ103">
         <v>1.33</v>
@@ -23024,6 +23027,212 @@
       </c>
       <c r="BP107">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7793199</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45788.70833333334</v>
+      </c>
+      <c r="F108">
+        <v>18</v>
+      </c>
+      <c r="G108" t="s">
+        <v>74</v>
+      </c>
+      <c r="H108" t="s">
+        <v>73</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>2</v>
+      </c>
+      <c r="K108">
+        <v>2</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>3</v>
+      </c>
+      <c r="N108">
+        <v>3</v>
+      </c>
+      <c r="O108" t="s">
+        <v>84</v>
+      </c>
+      <c r="P108" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q108">
+        <v>2.2</v>
+      </c>
+      <c r="R108">
+        <v>2.1</v>
+      </c>
+      <c r="S108">
+        <v>5.5</v>
+      </c>
+      <c r="T108">
+        <v>1.45</v>
+      </c>
+      <c r="U108">
+        <v>2.62</v>
+      </c>
+      <c r="V108">
+        <v>3.14</v>
+      </c>
+      <c r="W108">
+        <v>1.31</v>
+      </c>
+      <c r="X108">
+        <v>7.5</v>
+      </c>
+      <c r="Y108">
+        <v>1.05</v>
+      </c>
+      <c r="Z108">
+        <v>1.56</v>
+      </c>
+      <c r="AA108">
+        <v>3.7</v>
+      </c>
+      <c r="AB108">
+        <v>5.1</v>
+      </c>
+      <c r="AC108">
+        <v>1.03</v>
+      </c>
+      <c r="AD108">
+        <v>8</v>
+      </c>
+      <c r="AE108">
+        <v>1.38</v>
+      </c>
+      <c r="AF108">
+        <v>3</v>
+      </c>
+      <c r="AG108">
+        <v>2.2</v>
+      </c>
+      <c r="AH108">
+        <v>1.64</v>
+      </c>
+      <c r="AI108">
+        <v>2</v>
+      </c>
+      <c r="AJ108">
+        <v>1.68</v>
+      </c>
+      <c r="AK108">
+        <v>1.14</v>
+      </c>
+      <c r="AL108">
+        <v>1.24</v>
+      </c>
+      <c r="AM108">
+        <v>2.18</v>
+      </c>
+      <c r="AN108">
+        <v>1.71</v>
+      </c>
+      <c r="AO108">
+        <v>1.06</v>
+      </c>
+      <c r="AP108">
+        <v>1.61</v>
+      </c>
+      <c r="AQ108">
+        <v>1.17</v>
+      </c>
+      <c r="AR108">
+        <v>1.7</v>
+      </c>
+      <c r="AS108">
+        <v>1.24</v>
+      </c>
+      <c r="AT108">
+        <v>2.94</v>
+      </c>
+      <c r="AU108">
+        <v>4</v>
+      </c>
+      <c r="AV108">
+        <v>6</v>
+      </c>
+      <c r="AW108">
+        <v>11</v>
+      </c>
+      <c r="AX108">
+        <v>9</v>
+      </c>
+      <c r="AY108">
+        <v>15</v>
+      </c>
+      <c r="AZ108">
+        <v>15</v>
+      </c>
+      <c r="BA108">
+        <v>9</v>
+      </c>
+      <c r="BB108">
+        <v>4</v>
+      </c>
+      <c r="BC108">
+        <v>13</v>
+      </c>
+      <c r="BD108">
+        <v>1.33</v>
+      </c>
+      <c r="BE108">
+        <v>8</v>
+      </c>
+      <c r="BF108">
+        <v>3.2</v>
+      </c>
+      <c r="BG108">
+        <v>1.7</v>
+      </c>
+      <c r="BH108">
+        <v>2.18</v>
+      </c>
+      <c r="BI108">
+        <v>1.73</v>
+      </c>
+      <c r="BJ108">
+        <v>2</v>
+      </c>
+      <c r="BK108">
+        <v>2.1</v>
+      </c>
+      <c r="BL108">
+        <v>1.65</v>
+      </c>
+      <c r="BM108">
+        <v>3.75</v>
+      </c>
+      <c r="BN108">
+        <v>1.15</v>
+      </c>
+      <c r="BO108">
+        <v>5.2</v>
+      </c>
+      <c r="BP108">
+        <v>1.13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="202">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -981,7 +981,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP108"/>
+  <dimension ref="A1:BP109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ3">
         <v>0.9399999999999999</v>
@@ -2351,7 +2351,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ7">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2966,7 +2966,7 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ10">
         <v>1.72</v>
@@ -3175,7 +3175,7 @@
         <v>1</v>
       </c>
       <c r="AQ11">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0.7</v>
@@ -3793,7 +3793,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR14">
         <v>1.54</v>
@@ -4408,7 +4408,7 @@
         <v>0.5</v>
       </c>
       <c r="AP17">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
         <v>1.33</v>
@@ -5438,7 +5438,7 @@
         <v>1.33</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ22">
         <v>1.61</v>
@@ -5647,7 +5647,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ23">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AR23">
         <v>1.04</v>
@@ -6471,7 +6471,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR27">
         <v>1.17</v>
@@ -7292,7 +7292,7 @@
         <v>1.25</v>
       </c>
       <c r="AP31">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
         <v>1.17</v>
@@ -7704,7 +7704,7 @@
         <v>1.2</v>
       </c>
       <c r="AP33">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ33">
         <v>0.83</v>
@@ -8119,7 +8119,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ35">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AR35">
         <v>1.46</v>
@@ -8940,10 +8940,10 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR39">
         <v>1.59</v>
@@ -10179,7 +10179,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ45">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AR45">
         <v>1.43</v>
@@ -10794,7 +10794,7 @@
         <v>0.57</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -11618,7 +11618,7 @@
         <v>2.13</v>
       </c>
       <c r="AP52">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ52">
         <v>1.61</v>
@@ -12033,7 +12033,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR54">
         <v>1.4</v>
@@ -12651,7 +12651,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ57">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AR57">
         <v>1.3</v>
@@ -13266,7 +13266,7 @@
         <v>1.78</v>
       </c>
       <c r="AP60">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ60">
         <v>1.78</v>
@@ -13884,7 +13884,7 @@
         <v>0.9</v>
       </c>
       <c r="AP63">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ63">
         <v>0.83</v>
@@ -14299,7 +14299,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR65">
         <v>1.17</v>
@@ -15329,7 +15329,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR70">
         <v>1.3</v>
@@ -15532,7 +15532,7 @@
         <v>1.64</v>
       </c>
       <c r="AP71">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ71">
         <v>1.72</v>
@@ -16562,7 +16562,7 @@
         <v>1.17</v>
       </c>
       <c r="AP76">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ76">
         <v>1</v>
@@ -16771,7 +16771,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR77">
         <v>1.45</v>
@@ -17389,7 +17389,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ80">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AR80">
         <v>1.4</v>
@@ -17592,7 +17592,7 @@
         <v>1.46</v>
       </c>
       <c r="AP81">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ81">
         <v>1.33</v>
@@ -18622,7 +18622,7 @@
         <v>1.64</v>
       </c>
       <c r="AP86">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ86">
         <v>1.78</v>
@@ -18831,7 +18831,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ87">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR87">
         <v>1.67</v>
@@ -20270,7 +20270,7 @@
         <v>1.07</v>
       </c>
       <c r="AP94">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ94">
         <v>1.17</v>
@@ -20479,7 +20479,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ95">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AR95">
         <v>1.3</v>
@@ -21097,7 +21097,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ98">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR98">
         <v>1.29</v>
@@ -21918,7 +21918,7 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ102">
         <v>0.9399999999999999</v>
@@ -23233,6 +23233,212 @@
       </c>
       <c r="BP108">
         <v>1.13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7793197</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45788.8125</v>
+      </c>
+      <c r="F109">
+        <v>18</v>
+      </c>
+      <c r="G109" t="s">
+        <v>71</v>
+      </c>
+      <c r="H109" t="s">
+        <v>81</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="O109" t="s">
+        <v>108</v>
+      </c>
+      <c r="P109" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q109">
+        <v>5.25</v>
+      </c>
+      <c r="R109">
+        <v>2.1</v>
+      </c>
+      <c r="S109">
+        <v>2.2</v>
+      </c>
+      <c r="T109">
+        <v>1.4</v>
+      </c>
+      <c r="U109">
+        <v>2.62</v>
+      </c>
+      <c r="V109">
+        <v>2.8</v>
+      </c>
+      <c r="W109">
+        <v>1.36</v>
+      </c>
+      <c r="X109">
+        <v>8</v>
+      </c>
+      <c r="Y109">
+        <v>1.03</v>
+      </c>
+      <c r="Z109">
+        <v>4.85</v>
+      </c>
+      <c r="AA109">
+        <v>3.5</v>
+      </c>
+      <c r="AB109">
+        <v>1.57</v>
+      </c>
+      <c r="AC109">
+        <v>1.01</v>
+      </c>
+      <c r="AD109">
+        <v>8.5</v>
+      </c>
+      <c r="AE109">
+        <v>1.33</v>
+      </c>
+      <c r="AF109">
+        <v>3.1</v>
+      </c>
+      <c r="AG109">
+        <v>2.04</v>
+      </c>
+      <c r="AH109">
+        <v>1.7</v>
+      </c>
+      <c r="AI109">
+        <v>2.05</v>
+      </c>
+      <c r="AJ109">
+        <v>1.7</v>
+      </c>
+      <c r="AK109">
+        <v>1.29</v>
+      </c>
+      <c r="AL109">
+        <v>1.27</v>
+      </c>
+      <c r="AM109">
+        <v>1.17</v>
+      </c>
+      <c r="AN109">
+        <v>1</v>
+      </c>
+      <c r="AO109">
+        <v>2.12</v>
+      </c>
+      <c r="AP109">
+        <v>1.11</v>
+      </c>
+      <c r="AQ109">
+        <v>2</v>
+      </c>
+      <c r="AR109">
+        <v>1.46</v>
+      </c>
+      <c r="AS109">
+        <v>1.6</v>
+      </c>
+      <c r="AT109">
+        <v>3.06</v>
+      </c>
+      <c r="AU109">
+        <v>2</v>
+      </c>
+      <c r="AV109">
+        <v>7</v>
+      </c>
+      <c r="AW109">
+        <v>3</v>
+      </c>
+      <c r="AX109">
+        <v>11</v>
+      </c>
+      <c r="AY109">
+        <v>5</v>
+      </c>
+      <c r="AZ109">
+        <v>18</v>
+      </c>
+      <c r="BA109">
+        <v>2</v>
+      </c>
+      <c r="BB109">
+        <v>2</v>
+      </c>
+      <c r="BC109">
+        <v>4</v>
+      </c>
+      <c r="BD109">
+        <v>3.08</v>
+      </c>
+      <c r="BE109">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF109">
+        <v>1.55</v>
+      </c>
+      <c r="BG109">
+        <v>1.47</v>
+      </c>
+      <c r="BH109">
+        <v>2.48</v>
+      </c>
+      <c r="BI109">
+        <v>1.81</v>
+      </c>
+      <c r="BJ109">
+        <v>1.97</v>
+      </c>
+      <c r="BK109">
+        <v>2.26</v>
+      </c>
+      <c r="BL109">
+        <v>1.58</v>
+      </c>
+      <c r="BM109">
+        <v>3.08</v>
+      </c>
+      <c r="BN109">
+        <v>1.35</v>
+      </c>
+      <c r="BO109">
+        <v>3.9</v>
+      </c>
+      <c r="BP109">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="203">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -469,6 +469,9 @@
     <t>['51']</t>
   </si>
   <si>
+    <t>['88']</t>
+  </si>
+  <si>
     <t>['7', '90']</t>
   </si>
   <si>
@@ -553,9 +556,6 @@
     <t>['42']</t>
   </si>
   <si>
-    <t>['88']</t>
-  </si>
-  <si>
     <t>['2', '28', '43', '54', '63']</t>
   </si>
   <si>
@@ -620,6 +620,9 @@
   </si>
   <si>
     <t>['17', '32', '85']</t>
+  </si>
+  <si>
+    <t>['90+7']</t>
   </si>
 </sst>
 </file>
@@ -981,7 +984,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP109"/>
+  <dimension ref="A1:BP110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1240,7 +1243,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1446,7 +1449,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1527,7 +1530,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ3">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1858,7 +1861,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -1939,7 +1942,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ5">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2064,7 +2067,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2270,7 +2273,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2476,7 +2479,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2554,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AQ8">
         <v>1.33</v>
@@ -2682,7 +2685,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2760,7 +2763,7 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ9">
         <v>0.83</v>
@@ -3094,7 +3097,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3506,7 +3509,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q13">
         <v>4.33</v>
@@ -4330,7 +4333,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4411,7 +4414,7 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR17">
         <v>1.68</v>
@@ -4536,7 +4539,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q18">
         <v>3.75</v>
@@ -4823,7 +4826,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ19">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR19">
         <v>1.79</v>
@@ -5026,7 +5029,7 @@
         <v>0.33</v>
       </c>
       <c r="AP20">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5360,7 +5363,7 @@
         <v>84</v>
       </c>
       <c r="P22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q22">
         <v>4.79</v>
@@ -5566,7 +5569,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q23">
         <v>3.74</v>
@@ -5850,7 +5853,7 @@
         <v>1.33</v>
       </c>
       <c r="AP24">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AQ24">
         <v>1.17</v>
@@ -6184,7 +6187,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q26">
         <v>2.6</v>
@@ -6265,7 +6268,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ26">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR26">
         <v>1.14</v>
@@ -6596,7 +6599,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q28">
         <v>3.25</v>
@@ -6802,7 +6805,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q29">
         <v>1.8</v>
@@ -6883,7 +6886,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ29">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR29">
         <v>1.56</v>
@@ -7008,7 +7011,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7420,7 +7423,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q32">
         <v>2.6</v>
@@ -7501,7 +7504,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ32">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR32">
         <v>1.08</v>
@@ -7832,7 +7835,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q34">
         <v>3.29</v>
@@ -8038,7 +8041,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q35">
         <v>5.47</v>
@@ -8116,7 +8119,7 @@
         <v>2.6</v>
       </c>
       <c r="AP35">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AQ35">
         <v>2</v>
@@ -8244,7 +8247,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8656,7 +8659,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q38">
         <v>3.75</v>
@@ -8734,7 +8737,7 @@
         <v>1.33</v>
       </c>
       <c r="AP38">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ38">
         <v>1.17</v>
@@ -9068,7 +9071,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q40">
         <v>4.4</v>
@@ -9355,7 +9358,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR41">
         <v>1.17</v>
@@ -9480,7 +9483,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9892,7 +9895,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q44">
         <v>3.5</v>
@@ -9970,10 +9973,10 @@
         <v>1.14</v>
       </c>
       <c r="AP44">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AQ44">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR44">
         <v>1.37</v>
@@ -10098,7 +10101,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q45">
         <v>4.6</v>
@@ -10304,7 +10307,7 @@
         <v>84</v>
       </c>
       <c r="P46" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10510,7 +10513,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q47">
         <v>2.06</v>
@@ -11415,7 +11418,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ51">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR51">
         <v>1.14</v>
@@ -11952,7 +11955,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12030,7 +12033,7 @@
         <v>0.75</v>
       </c>
       <c r="AP54">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ54">
         <v>1.11</v>
@@ -12158,7 +12161,7 @@
         <v>102</v>
       </c>
       <c r="P55" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="Q55">
         <v>2.78</v>
@@ -12445,7 +12448,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ56">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR56">
         <v>1.42</v>
@@ -13188,7 +13191,7 @@
         <v>84</v>
       </c>
       <c r="P60" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13472,7 +13475,7 @@
         <v>1.33</v>
       </c>
       <c r="AP61">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AQ61">
         <v>1.17</v>
@@ -14093,7 +14096,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ64">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR64">
         <v>1.44</v>
@@ -14502,7 +14505,7 @@
         <v>1.7</v>
       </c>
       <c r="AP66">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ66">
         <v>1.61</v>
@@ -14914,7 +14917,7 @@
         <v>1.09</v>
       </c>
       <c r="AP68">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ68">
         <v>1.17</v>
@@ -15248,7 +15251,7 @@
         <v>102</v>
       </c>
       <c r="P70" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15326,7 +15329,7 @@
         <v>0.91</v>
       </c>
       <c r="AP70">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AQ70">
         <v>1.11</v>
@@ -16153,7 +16156,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ74">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR74">
         <v>1.18</v>
@@ -16359,7 +16362,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ75">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR75">
         <v>1.43</v>
@@ -17308,7 +17311,7 @@
         <v>136</v>
       </c>
       <c r="P80" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="Q80">
         <v>4.8</v>
@@ -17386,7 +17389,7 @@
         <v>2.54</v>
       </c>
       <c r="AP80">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ80">
         <v>2</v>
@@ -17926,7 +17929,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q83">
         <v>2.75</v>
@@ -18416,7 +18419,7 @@
         <v>1.46</v>
       </c>
       <c r="AP85">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AQ85">
         <v>1.61</v>
@@ -18956,7 +18959,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q88">
         <v>3.55</v>
@@ -19037,7 +19040,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ88">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR88">
         <v>1.25</v>
@@ -19655,7 +19658,7 @@
         <v>1</v>
       </c>
       <c r="AQ91">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR91">
         <v>1.46</v>
@@ -19858,7 +19861,7 @@
         <v>0.87</v>
       </c>
       <c r="AP92">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AQ92">
         <v>0.83</v>
@@ -20888,7 +20891,7 @@
         <v>1.67</v>
       </c>
       <c r="AP97">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ97">
         <v>1.72</v>
@@ -21300,7 +21303,7 @@
         <v>1.81</v>
       </c>
       <c r="AP99">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ99">
         <v>1.78</v>
@@ -21921,7 +21924,7 @@
         <v>2</v>
       </c>
       <c r="AQ102">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR102">
         <v>1.57</v>
@@ -22536,7 +22539,7 @@
         <v>0.88</v>
       </c>
       <c r="AP105">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AQ105">
         <v>1</v>
@@ -22951,7 +22954,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ107">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR107">
         <v>1.27</v>
@@ -23439,6 +23442,212 @@
       </c>
       <c r="BP109">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7793204</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45793.70833333334</v>
+      </c>
+      <c r="F110">
+        <v>19</v>
+      </c>
+      <c r="G110" t="s">
+        <v>77</v>
+      </c>
+      <c r="H110" t="s">
+        <v>76</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>2</v>
+      </c>
+      <c r="O110" t="s">
+        <v>151</v>
+      </c>
+      <c r="P110" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q110">
+        <v>3</v>
+      </c>
+      <c r="R110">
+        <v>2.14</v>
+      </c>
+      <c r="S110">
+        <v>3.79</v>
+      </c>
+      <c r="T110">
+        <v>1.47</v>
+      </c>
+      <c r="U110">
+        <v>2.6</v>
+      </c>
+      <c r="V110">
+        <v>3.1</v>
+      </c>
+      <c r="W110">
+        <v>1.33</v>
+      </c>
+      <c r="X110">
+        <v>7.5</v>
+      </c>
+      <c r="Y110">
+        <v>1.06</v>
+      </c>
+      <c r="Z110">
+        <v>2.26</v>
+      </c>
+      <c r="AA110">
+        <v>3.1</v>
+      </c>
+      <c r="AB110">
+        <v>2.8</v>
+      </c>
+      <c r="AC110">
+        <v>1.04</v>
+      </c>
+      <c r="AD110">
+        <v>7.8</v>
+      </c>
+      <c r="AE110">
+        <v>1.4</v>
+      </c>
+      <c r="AF110">
+        <v>2.78</v>
+      </c>
+      <c r="AG110">
+        <v>2.17</v>
+      </c>
+      <c r="AH110">
+        <v>1.67</v>
+      </c>
+      <c r="AI110">
+        <v>1.84</v>
+      </c>
+      <c r="AJ110">
+        <v>1.92</v>
+      </c>
+      <c r="AK110">
+        <v>1.37</v>
+      </c>
+      <c r="AL110">
+        <v>1.3</v>
+      </c>
+      <c r="AM110">
+        <v>1.55</v>
+      </c>
+      <c r="AN110">
+        <v>1.33</v>
+      </c>
+      <c r="AO110">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP110">
+        <v>1.32</v>
+      </c>
+      <c r="AQ110">
+        <v>0.95</v>
+      </c>
+      <c r="AR110">
+        <v>1.41</v>
+      </c>
+      <c r="AS110">
+        <v>1.29</v>
+      </c>
+      <c r="AT110">
+        <v>2.7</v>
+      </c>
+      <c r="AU110">
+        <v>4</v>
+      </c>
+      <c r="AV110">
+        <v>5</v>
+      </c>
+      <c r="AW110">
+        <v>8</v>
+      </c>
+      <c r="AX110">
+        <v>7</v>
+      </c>
+      <c r="AY110">
+        <v>12</v>
+      </c>
+      <c r="AZ110">
+        <v>12</v>
+      </c>
+      <c r="BA110">
+        <v>7</v>
+      </c>
+      <c r="BB110">
+        <v>2</v>
+      </c>
+      <c r="BC110">
+        <v>9</v>
+      </c>
+      <c r="BD110">
+        <v>1.87</v>
+      </c>
+      <c r="BE110">
+        <v>6.9</v>
+      </c>
+      <c r="BF110">
+        <v>2.4</v>
+      </c>
+      <c r="BG110">
+        <v>1.48</v>
+      </c>
+      <c r="BH110">
+        <v>2.33</v>
+      </c>
+      <c r="BI110">
+        <v>1.85</v>
+      </c>
+      <c r="BJ110">
+        <v>1.81</v>
+      </c>
+      <c r="BK110">
+        <v>2.38</v>
+      </c>
+      <c r="BL110">
+        <v>1.43</v>
+      </c>
+      <c r="BM110">
+        <v>3.42</v>
+      </c>
+      <c r="BN110">
+        <v>1.23</v>
+      </c>
+      <c r="BO110">
+        <v>4.1</v>
+      </c>
+      <c r="BP110">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="204">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -470,6 +470,9 @@
   </si>
   <si>
     <t>['88']</t>
+  </si>
+  <si>
+    <t>['15', '38']</t>
   </si>
   <si>
     <t>['7', '90']</t>
@@ -984,7 +987,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP110"/>
+  <dimension ref="A1:BP111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1243,7 +1246,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1449,7 +1452,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1861,7 +1864,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -1939,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ5">
         <v>1.32</v>
@@ -2067,7 +2070,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2273,7 +2276,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2351,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ7">
         <v>2</v>
@@ -2479,7 +2482,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2685,7 +2688,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2972,7 +2975,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ10">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AR10">
         <v>2.15</v>
@@ -3097,7 +3100,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3384,7 +3387,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ12">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR12">
         <v>1.05</v>
@@ -3509,7 +3512,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q13">
         <v>4.33</v>
@@ -3999,7 +4002,7 @@
         <v>0.5</v>
       </c>
       <c r="AP15">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4205,7 +4208,7 @@
         <v>2</v>
       </c>
       <c r="AP16">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ16">
         <v>1.17</v>
@@ -4333,7 +4336,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4539,7 +4542,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q18">
         <v>3.75</v>
@@ -5238,7 +5241,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ21">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AR21">
         <v>1.66</v>
@@ -5363,7 +5366,7 @@
         <v>84</v>
       </c>
       <c r="P22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q22">
         <v>4.79</v>
@@ -5569,7 +5572,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q23">
         <v>3.74</v>
@@ -5856,7 +5859,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ24">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR24">
         <v>1.38</v>
@@ -6187,7 +6190,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q26">
         <v>2.6</v>
@@ -6471,7 +6474,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ27">
         <v>1.11</v>
@@ -6599,7 +6602,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q28">
         <v>3.25</v>
@@ -6805,7 +6808,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q29">
         <v>1.8</v>
@@ -6883,7 +6886,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ29">
         <v>1.32</v>
@@ -7011,7 +7014,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7423,7 +7426,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q32">
         <v>2.6</v>
@@ -7835,7 +7838,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q34">
         <v>3.29</v>
@@ -8041,7 +8044,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q35">
         <v>5.47</v>
@@ -8247,7 +8250,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8328,7 +8331,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ36">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AR36">
         <v>1.8</v>
@@ -8534,7 +8537,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ37">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR37">
         <v>1.52</v>
@@ -8659,7 +8662,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q38">
         <v>3.75</v>
@@ -9071,7 +9074,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q40">
         <v>4.4</v>
@@ -9149,7 +9152,7 @@
         <v>2.17</v>
       </c>
       <c r="AP40">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ40">
         <v>1.61</v>
@@ -9483,7 +9486,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9767,7 +9770,7 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ43">
         <v>1.78</v>
@@ -9895,7 +9898,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q44">
         <v>3.5</v>
@@ -10101,7 +10104,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q45">
         <v>4.6</v>
@@ -10307,7 +10310,7 @@
         <v>84</v>
       </c>
       <c r="P46" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10385,10 +10388,10 @@
         <v>1.14</v>
       </c>
       <c r="AP46">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ46">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AR46">
         <v>1.32</v>
@@ -10513,7 +10516,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q47">
         <v>2.06</v>
@@ -11212,7 +11215,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ50">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR50">
         <v>1.1</v>
@@ -11827,7 +11830,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ53">
         <v>1.17</v>
@@ -11955,7 +11958,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12573,7 +12576,7 @@
         <v>84</v>
       </c>
       <c r="P57" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q57">
         <v>4.75</v>
@@ -12651,7 +12654,7 @@
         <v>2.56</v>
       </c>
       <c r="AP57">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ57">
         <v>2</v>
@@ -12985,7 +12988,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q59">
         <v>4.96</v>
@@ -13066,7 +13069,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ59">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AR59">
         <v>1.21</v>
@@ -13191,7 +13194,7 @@
         <v>84</v>
       </c>
       <c r="P60" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13603,7 +13606,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q62">
         <v>2.8</v>
@@ -14093,7 +14096,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ64">
         <v>0.95</v>
@@ -14221,7 +14224,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q65">
         <v>2.95</v>
@@ -14714,7 +14717,7 @@
         <v>1</v>
       </c>
       <c r="AQ67">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR67">
         <v>1.43</v>
@@ -14920,7 +14923,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ68">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR68">
         <v>1.43</v>
@@ -15045,7 +15048,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15251,7 +15254,7 @@
         <v>102</v>
       </c>
       <c r="P70" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15538,7 +15541,7 @@
         <v>2</v>
       </c>
       <c r="AQ71">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AR71">
         <v>1.62</v>
@@ -15663,7 +15666,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q72">
         <v>3.8</v>
@@ -16075,7 +16078,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q74">
         <v>2.8</v>
@@ -16281,7 +16284,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16771,7 +16774,7 @@
         <v>0.92</v>
       </c>
       <c r="AP77">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ77">
         <v>1.11</v>
@@ -17183,7 +17186,7 @@
         <v>1.83</v>
       </c>
       <c r="AP79">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ79">
         <v>1.78</v>
@@ -17723,7 +17726,7 @@
         <v>122</v>
       </c>
       <c r="P82" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17804,7 +17807,7 @@
         <v>1</v>
       </c>
       <c r="AQ82">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AR82">
         <v>1.47</v>
@@ -17929,7 +17932,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q83">
         <v>2.75</v>
@@ -18010,7 +18013,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ83">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR83">
         <v>1.28</v>
@@ -18341,7 +18344,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q85">
         <v>4.41</v>
@@ -18547,7 +18550,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q86">
         <v>2.2</v>
@@ -18753,7 +18756,7 @@
         <v>139</v>
       </c>
       <c r="P87" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q87">
         <v>2.2</v>
@@ -18959,7 +18962,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q88">
         <v>3.55</v>
@@ -19037,7 +19040,7 @@
         <v>0.86</v>
       </c>
       <c r="AP88">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ88">
         <v>0.95</v>
@@ -19243,7 +19246,7 @@
         <v>1.36</v>
       </c>
       <c r="AP89">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ89">
         <v>1.33</v>
@@ -19371,7 +19374,7 @@
         <v>141</v>
       </c>
       <c r="P90" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19783,7 +19786,7 @@
         <v>143</v>
       </c>
       <c r="P92" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q92">
         <v>3.4</v>
@@ -19989,7 +19992,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q93">
         <v>3.2</v>
@@ -20276,7 +20279,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ94">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR94">
         <v>1.46</v>
@@ -20813,7 +20816,7 @@
         <v>143</v>
       </c>
       <c r="P97" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q97">
         <v>4.8</v>
@@ -20894,7 +20897,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ97">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AR97">
         <v>1.39</v>
@@ -21225,7 +21228,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21431,7 +21434,7 @@
         <v>146</v>
       </c>
       <c r="P100" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q100">
         <v>2.8</v>
@@ -21509,7 +21512,7 @@
         <v>1.63</v>
       </c>
       <c r="AP100">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ100">
         <v>1.61</v>
@@ -22049,7 +22052,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q103">
         <v>3.15</v>
@@ -22127,7 +22130,7 @@
         <v>1.25</v>
       </c>
       <c r="AP103">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ103">
         <v>1.33</v>
@@ -22461,7 +22464,7 @@
         <v>149</v>
       </c>
       <c r="P105" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -22667,7 +22670,7 @@
         <v>84</v>
       </c>
       <c r="P106" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q106">
         <v>3.65</v>
@@ -22748,7 +22751,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ106">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AR106">
         <v>1.31</v>
@@ -22873,7 +22876,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q107">
         <v>2.7</v>
@@ -23079,7 +23082,7 @@
         <v>84</v>
       </c>
       <c r="P108" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q108">
         <v>2.2</v>
@@ -23160,7 +23163,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ108">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR108">
         <v>1.7</v>
@@ -23491,7 +23494,7 @@
         <v>151</v>
       </c>
       <c r="P110" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -23648,6 +23651,212 @@
       </c>
       <c r="BP110">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7793200</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45793.8125</v>
+      </c>
+      <c r="F111">
+        <v>19</v>
+      </c>
+      <c r="G111" t="s">
+        <v>75</v>
+      </c>
+      <c r="H111" t="s">
+        <v>73</v>
+      </c>
+      <c r="I111">
+        <v>2</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>3</v>
+      </c>
+      <c r="L111">
+        <v>2</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>3</v>
+      </c>
+      <c r="O111" t="s">
+        <v>152</v>
+      </c>
+      <c r="P111" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q111">
+        <v>1.99</v>
+      </c>
+      <c r="R111">
+        <v>2.25</v>
+      </c>
+      <c r="S111">
+        <v>6.25</v>
+      </c>
+      <c r="T111">
+        <v>1.35</v>
+      </c>
+      <c r="U111">
+        <v>2.65</v>
+      </c>
+      <c r="V111">
+        <v>2.98</v>
+      </c>
+      <c r="W111">
+        <v>1.37</v>
+      </c>
+      <c r="X111">
+        <v>7</v>
+      </c>
+      <c r="Y111">
+        <v>1.08</v>
+      </c>
+      <c r="Z111">
+        <v>1.45</v>
+      </c>
+      <c r="AA111">
+        <v>4.1</v>
+      </c>
+      <c r="AB111">
+        <v>7</v>
+      </c>
+      <c r="AC111">
+        <v>1.05</v>
+      </c>
+      <c r="AD111">
+        <v>9</v>
+      </c>
+      <c r="AE111">
+        <v>1.33</v>
+      </c>
+      <c r="AF111">
+        <v>3.2</v>
+      </c>
+      <c r="AG111">
+        <v>2.05</v>
+      </c>
+      <c r="AH111">
+        <v>1.77</v>
+      </c>
+      <c r="AI111">
+        <v>2.1</v>
+      </c>
+      <c r="AJ111">
+        <v>1.67</v>
+      </c>
+      <c r="AK111">
+        <v>1.25</v>
+      </c>
+      <c r="AL111">
+        <v>1.2</v>
+      </c>
+      <c r="AM111">
+        <v>2.63</v>
+      </c>
+      <c r="AN111">
+        <v>1.72</v>
+      </c>
+      <c r="AO111">
+        <v>1.17</v>
+      </c>
+      <c r="AP111">
+        <v>1.79</v>
+      </c>
+      <c r="AQ111">
+        <v>1.11</v>
+      </c>
+      <c r="AR111">
+        <v>1.55</v>
+      </c>
+      <c r="AS111">
+        <v>1.26</v>
+      </c>
+      <c r="AT111">
+        <v>2.81</v>
+      </c>
+      <c r="AU111">
+        <v>7</v>
+      </c>
+      <c r="AV111">
+        <v>6</v>
+      </c>
+      <c r="AW111">
+        <v>9</v>
+      </c>
+      <c r="AX111">
+        <v>7</v>
+      </c>
+      <c r="AY111">
+        <v>16</v>
+      </c>
+      <c r="AZ111">
+        <v>13</v>
+      </c>
+      <c r="BA111">
+        <v>8</v>
+      </c>
+      <c r="BB111">
+        <v>3</v>
+      </c>
+      <c r="BC111">
+        <v>11</v>
+      </c>
+      <c r="BD111">
+        <v>1.4</v>
+      </c>
+      <c r="BE111">
+        <v>7.5</v>
+      </c>
+      <c r="BF111">
+        <v>3.65</v>
+      </c>
+      <c r="BG111">
+        <v>1.36</v>
+      </c>
+      <c r="BH111">
+        <v>2.7</v>
+      </c>
+      <c r="BI111">
+        <v>1.73</v>
+      </c>
+      <c r="BJ111">
+        <v>2.06</v>
+      </c>
+      <c r="BK111">
+        <v>2.02</v>
+      </c>
+      <c r="BL111">
+        <v>1.64</v>
+      </c>
+      <c r="BM111">
+        <v>2.88</v>
+      </c>
+      <c r="BN111">
+        <v>1.32</v>
+      </c>
+      <c r="BO111">
+        <v>3.4</v>
+      </c>
+      <c r="BP111">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="206">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -475,6 +475,12 @@
     <t>['15', '38']</t>
   </si>
   <si>
+    <t>['17', '25', '28', '41']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
     <t>['7', '90']</t>
   </si>
   <si>
@@ -536,9 +542,6 @@
   </si>
   <si>
     <t>['32']</t>
-  </si>
-  <si>
-    <t>['84']</t>
   </si>
   <si>
     <t>['83']</t>
@@ -626,6 +629,9 @@
   </si>
   <si>
     <t>['90+7']</t>
+  </si>
+  <si>
+    <t>['70']</t>
   </si>
 </sst>
 </file>
@@ -987,7 +993,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP111"/>
+  <dimension ref="A1:BP113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1246,7 +1252,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1324,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ2">
         <v>1.17</v>
@@ -1452,7 +1458,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1530,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ3">
         <v>0.95</v>
@@ -1739,7 +1745,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1864,7 +1870,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -2070,7 +2076,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2276,7 +2282,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2357,7 +2363,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2482,7 +2488,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2563,7 +2569,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ8">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR8">
         <v>1.35</v>
@@ -2688,7 +2694,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2972,7 +2978,7 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ10">
         <v>1.79</v>
@@ -3100,7 +3106,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3178,10 +3184,10 @@
         <v>1</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AR11">
         <v>0.7</v>
@@ -3512,7 +3518,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q13">
         <v>4.33</v>
@@ -3796,10 +3802,10 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ14">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR14">
         <v>1.54</v>
@@ -4005,7 +4011,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR15">
         <v>1.24</v>
@@ -4336,7 +4342,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4414,7 +4420,7 @@
         <v>0.5</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ17">
         <v>1.32</v>
@@ -4542,7 +4548,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q18">
         <v>3.75</v>
@@ -5035,7 +5041,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR20">
         <v>1.3</v>
@@ -5238,7 +5244,7 @@
         <v>1.67</v>
       </c>
       <c r="AP21">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ21">
         <v>1.79</v>
@@ -5366,7 +5372,7 @@
         <v>84</v>
       </c>
       <c r="P22" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q22">
         <v>4.79</v>
@@ -5444,7 +5450,7 @@
         <v>1.33</v>
       </c>
       <c r="AP22">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ22">
         <v>1.61</v>
@@ -5572,7 +5578,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q23">
         <v>3.74</v>
@@ -5653,7 +5659,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ23">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AR23">
         <v>1.04</v>
@@ -6190,7 +6196,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q26">
         <v>2.6</v>
@@ -6477,7 +6483,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ27">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR27">
         <v>1.17</v>
@@ -6602,7 +6608,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q28">
         <v>3.25</v>
@@ -6680,7 +6686,7 @@
         <v>2.25</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ28">
         <v>1.78</v>
@@ -6808,7 +6814,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q29">
         <v>1.8</v>
@@ -7014,7 +7020,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7095,7 +7101,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ30">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR30">
         <v>1.83</v>
@@ -7298,7 +7304,7 @@
         <v>1.25</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ31">
         <v>1.17</v>
@@ -7426,7 +7432,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q32">
         <v>2.6</v>
@@ -7710,7 +7716,7 @@
         <v>1.2</v>
       </c>
       <c r="AP33">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ33">
         <v>0.83</v>
@@ -7838,7 +7844,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q34">
         <v>3.29</v>
@@ -7919,7 +7925,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR34">
         <v>1.34</v>
@@ -8044,7 +8050,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q35">
         <v>5.47</v>
@@ -8125,7 +8131,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ35">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AR35">
         <v>1.46</v>
@@ -8250,7 +8256,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8534,7 +8540,7 @@
         <v>1.4</v>
       </c>
       <c r="AP37">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ37">
         <v>1.11</v>
@@ -8662,7 +8668,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="Q38">
         <v>3.75</v>
@@ -8946,10 +8952,10 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ39">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR39">
         <v>1.59</v>
@@ -9074,7 +9080,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q40">
         <v>4.4</v>
@@ -9358,7 +9364,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ41">
         <v>0.95</v>
@@ -9486,7 +9492,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9567,7 +9573,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ42">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR42">
         <v>1.17</v>
@@ -9898,7 +9904,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q44">
         <v>3.5</v>
@@ -10104,7 +10110,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q45">
         <v>4.6</v>
@@ -10182,10 +10188,10 @@
         <v>2.71</v>
       </c>
       <c r="AP45">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ45">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AR45">
         <v>1.43</v>
@@ -10310,7 +10316,7 @@
         <v>84</v>
       </c>
       <c r="P46" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10516,7 +10522,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q47">
         <v>2.06</v>
@@ -10800,10 +10806,10 @@
         <v>0.57</v>
       </c>
       <c r="AP48">
+        <v>1.05</v>
+      </c>
+      <c r="AQ48">
         <v>1.11</v>
-      </c>
-      <c r="AQ48">
-        <v>1</v>
       </c>
       <c r="AR48">
         <v>1.65</v>
@@ -11624,7 +11630,7 @@
         <v>2.13</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ52">
         <v>1.61</v>
@@ -11958,7 +11964,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12039,7 +12045,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ54">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR54">
         <v>1.4</v>
@@ -12242,10 +12248,10 @@
         <v>1.25</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ55">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR55">
         <v>1.34</v>
@@ -12448,7 +12454,7 @@
         <v>1.22</v>
       </c>
       <c r="AP56">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ56">
         <v>1.32</v>
@@ -12576,7 +12582,7 @@
         <v>84</v>
       </c>
       <c r="P57" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q57">
         <v>4.75</v>
@@ -12657,7 +12663,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ57">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AR57">
         <v>1.3</v>
@@ -12863,7 +12869,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR58">
         <v>1.71</v>
@@ -12988,7 +12994,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q59">
         <v>4.96</v>
@@ -13194,7 +13200,7 @@
         <v>84</v>
       </c>
       <c r="P60" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13272,7 +13278,7 @@
         <v>1.78</v>
       </c>
       <c r="AP60">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ60">
         <v>1.78</v>
@@ -13606,7 +13612,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q62">
         <v>2.8</v>
@@ -13687,7 +13693,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ62">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR62">
         <v>1.2</v>
@@ -13890,7 +13896,7 @@
         <v>0.9</v>
       </c>
       <c r="AP63">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ63">
         <v>0.83</v>
@@ -14224,7 +14230,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q65">
         <v>2.95</v>
@@ -14305,7 +14311,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ65">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR65">
         <v>1.17</v>
@@ -14714,7 +14720,7 @@
         <v>1.2</v>
       </c>
       <c r="AP67">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ67">
         <v>1.11</v>
@@ -15048,7 +15054,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15129,7 +15135,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ69">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR69">
         <v>1.22</v>
@@ -15254,7 +15260,7 @@
         <v>102</v>
       </c>
       <c r="P70" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15335,7 +15341,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ70">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR70">
         <v>1.3</v>
@@ -15538,7 +15544,7 @@
         <v>1.64</v>
       </c>
       <c r="AP71">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ71">
         <v>1.79</v>
@@ -15666,7 +15672,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q72">
         <v>3.8</v>
@@ -15950,7 +15956,7 @@
         <v>0.91</v>
       </c>
       <c r="AP73">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ73">
         <v>0.83</v>
@@ -16078,7 +16084,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q74">
         <v>2.8</v>
@@ -16284,7 +16290,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16362,7 +16368,7 @@
         <v>0.92</v>
       </c>
       <c r="AP75">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ75">
         <v>0.95</v>
@@ -16568,10 +16574,10 @@
         <v>1.17</v>
       </c>
       <c r="AP76">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ76">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR76">
         <v>1.6</v>
@@ -16777,7 +16783,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ77">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR77">
         <v>1.45</v>
@@ -17395,7 +17401,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ80">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AR80">
         <v>1.4</v>
@@ -17598,10 +17604,10 @@
         <v>1.46</v>
       </c>
       <c r="AP81">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ81">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR81">
         <v>1.44</v>
@@ -17726,7 +17732,7 @@
         <v>122</v>
       </c>
       <c r="P82" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17804,7 +17810,7 @@
         <v>1.46</v>
       </c>
       <c r="AP82">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ82">
         <v>1.79</v>
@@ -17932,7 +17938,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q83">
         <v>2.75</v>
@@ -18344,7 +18350,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q85">
         <v>4.41</v>
@@ -18550,7 +18556,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q86">
         <v>2.2</v>
@@ -18628,7 +18634,7 @@
         <v>1.64</v>
       </c>
       <c r="AP86">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ86">
         <v>1.78</v>
@@ -18756,7 +18762,7 @@
         <v>139</v>
       </c>
       <c r="P87" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q87">
         <v>2.2</v>
@@ -18837,7 +18843,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ87">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR87">
         <v>1.67</v>
@@ -18962,7 +18968,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q88">
         <v>3.55</v>
@@ -19249,7 +19255,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ89">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR89">
         <v>1.53</v>
@@ -19374,7 +19380,7 @@
         <v>141</v>
       </c>
       <c r="P90" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19658,7 +19664,7 @@
         <v>1.43</v>
       </c>
       <c r="AP91">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ91">
         <v>1.32</v>
@@ -19786,7 +19792,7 @@
         <v>143</v>
       </c>
       <c r="P92" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q92">
         <v>3.4</v>
@@ -19992,7 +19998,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q93">
         <v>3.2</v>
@@ -20073,7 +20079,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ93">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR93">
         <v>1.29</v>
@@ -20276,7 +20282,7 @@
         <v>1.07</v>
       </c>
       <c r="AP94">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ94">
         <v>1.11</v>
@@ -20485,7 +20491,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ95">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AR95">
         <v>1.3</v>
@@ -20688,7 +20694,7 @@
         <v>1.67</v>
       </c>
       <c r="AP96">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ96">
         <v>1.61</v>
@@ -20816,7 +20822,7 @@
         <v>143</v>
       </c>
       <c r="P97" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q97">
         <v>4.8</v>
@@ -21103,7 +21109,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ98">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR98">
         <v>1.29</v>
@@ -21228,7 +21234,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21434,7 +21440,7 @@
         <v>146</v>
       </c>
       <c r="P100" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q100">
         <v>2.8</v>
@@ -21718,7 +21724,7 @@
         <v>1.13</v>
       </c>
       <c r="AP101">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ101">
         <v>1.17</v>
@@ -21924,7 +21930,7 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ102">
         <v>0.95</v>
@@ -22052,7 +22058,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q103">
         <v>3.15</v>
@@ -22133,7 +22139,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ103">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR103">
         <v>1.2</v>
@@ -22336,7 +22342,7 @@
         <v>0.88</v>
       </c>
       <c r="AP104">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ104">
         <v>0.83</v>
@@ -22464,7 +22470,7 @@
         <v>149</v>
       </c>
       <c r="P105" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -22545,7 +22551,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ105">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR105">
         <v>1.31</v>
@@ -22670,7 +22676,7 @@
         <v>84</v>
       </c>
       <c r="P106" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q106">
         <v>3.65</v>
@@ -22876,7 +22882,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q107">
         <v>2.7</v>
@@ -23082,7 +23088,7 @@
         <v>84</v>
       </c>
       <c r="P108" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q108">
         <v>2.2</v>
@@ -23366,10 +23372,10 @@
         <v>2.12</v>
       </c>
       <c r="AP109">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ109">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AR109">
         <v>1.46</v>
@@ -23494,7 +23500,7 @@
         <v>151</v>
       </c>
       <c r="P110" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -23857,6 +23863,418 @@
       </c>
       <c r="BP111">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7793203</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45794.70833333334</v>
+      </c>
+      <c r="F112">
+        <v>19</v>
+      </c>
+      <c r="G112" t="s">
+        <v>78</v>
+      </c>
+      <c r="H112" t="s">
+        <v>71</v>
+      </c>
+      <c r="I112">
+        <v>4</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>4</v>
+      </c>
+      <c r="L112">
+        <v>4</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>4</v>
+      </c>
+      <c r="O112" t="s">
+        <v>153</v>
+      </c>
+      <c r="P112" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q112">
+        <v>2.4</v>
+      </c>
+      <c r="R112">
+        <v>2.05</v>
+      </c>
+      <c r="S112">
+        <v>4.96</v>
+      </c>
+      <c r="T112">
+        <v>1.46</v>
+      </c>
+      <c r="U112">
+        <v>2.6</v>
+      </c>
+      <c r="V112">
+        <v>3.14</v>
+      </c>
+      <c r="W112">
+        <v>1.31</v>
+      </c>
+      <c r="X112">
+        <v>8.1</v>
+      </c>
+      <c r="Y112">
+        <v>1.02</v>
+      </c>
+      <c r="Z112">
+        <v>1.82</v>
+      </c>
+      <c r="AA112">
+        <v>3.4</v>
+      </c>
+      <c r="AB112">
+        <v>4.05</v>
+      </c>
+      <c r="AC112">
+        <v>1.05</v>
+      </c>
+      <c r="AD112">
+        <v>7.7</v>
+      </c>
+      <c r="AE112">
+        <v>1.39</v>
+      </c>
+      <c r="AF112">
+        <v>2.74</v>
+      </c>
+      <c r="AG112">
+        <v>2.25</v>
+      </c>
+      <c r="AH112">
+        <v>1.62</v>
+      </c>
+      <c r="AI112">
+        <v>1.95</v>
+      </c>
+      <c r="AJ112">
+        <v>1.8</v>
+      </c>
+      <c r="AK112">
+        <v>1.2</v>
+      </c>
+      <c r="AL112">
+        <v>1.27</v>
+      </c>
+      <c r="AM112">
+        <v>1.97</v>
+      </c>
+      <c r="AN112">
+        <v>1</v>
+      </c>
+      <c r="AO112">
+        <v>1.11</v>
+      </c>
+      <c r="AP112">
+        <v>1.11</v>
+      </c>
+      <c r="AQ112">
+        <v>1.05</v>
+      </c>
+      <c r="AR112">
+        <v>1.66</v>
+      </c>
+      <c r="AS112">
+        <v>1.42</v>
+      </c>
+      <c r="AT112">
+        <v>3.08</v>
+      </c>
+      <c r="AU112">
+        <v>6</v>
+      </c>
+      <c r="AV112">
+        <v>2</v>
+      </c>
+      <c r="AW112">
+        <v>8</v>
+      </c>
+      <c r="AX112">
+        <v>5</v>
+      </c>
+      <c r="AY112">
+        <v>14</v>
+      </c>
+      <c r="AZ112">
+        <v>7</v>
+      </c>
+      <c r="BA112">
+        <v>2</v>
+      </c>
+      <c r="BB112">
+        <v>4</v>
+      </c>
+      <c r="BC112">
+        <v>6</v>
+      </c>
+      <c r="BD112">
+        <v>1.48</v>
+      </c>
+      <c r="BE112">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF112">
+        <v>2.95</v>
+      </c>
+      <c r="BG112">
+        <v>1.41</v>
+      </c>
+      <c r="BH112">
+        <v>2.7</v>
+      </c>
+      <c r="BI112">
+        <v>1.71</v>
+      </c>
+      <c r="BJ112">
+        <v>1.95</v>
+      </c>
+      <c r="BK112">
+        <v>2.16</v>
+      </c>
+      <c r="BL112">
+        <v>1.67</v>
+      </c>
+      <c r="BM112">
+        <v>2.7</v>
+      </c>
+      <c r="BN112">
+        <v>1.41</v>
+      </c>
+      <c r="BO112">
+        <v>3.62</v>
+      </c>
+      <c r="BP112">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7793202</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45794.8125</v>
+      </c>
+      <c r="F113">
+        <v>19</v>
+      </c>
+      <c r="G113" t="s">
+        <v>81</v>
+      </c>
+      <c r="H113" t="s">
+        <v>70</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113">
+        <v>2</v>
+      </c>
+      <c r="O113" t="s">
+        <v>154</v>
+      </c>
+      <c r="P113" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q113">
+        <v>2.15</v>
+      </c>
+      <c r="R113">
+        <v>2.12</v>
+      </c>
+      <c r="S113">
+        <v>5.2</v>
+      </c>
+      <c r="T113">
+        <v>1.35</v>
+      </c>
+      <c r="U113">
+        <v>2.6</v>
+      </c>
+      <c r="V113">
+        <v>2.75</v>
+      </c>
+      <c r="W113">
+        <v>1.33</v>
+      </c>
+      <c r="X113">
+        <v>7.5</v>
+      </c>
+      <c r="Y113">
+        <v>1.08</v>
+      </c>
+      <c r="Z113">
+        <v>1.6</v>
+      </c>
+      <c r="AA113">
+        <v>3.8</v>
+      </c>
+      <c r="AB113">
+        <v>5</v>
+      </c>
+      <c r="AC113">
+        <v>1.04</v>
+      </c>
+      <c r="AD113">
+        <v>9.5</v>
+      </c>
+      <c r="AE113">
+        <v>1.34</v>
+      </c>
+      <c r="AF113">
+        <v>3.15</v>
+      </c>
+      <c r="AG113">
+        <v>2.03</v>
+      </c>
+      <c r="AH113">
+        <v>1.77</v>
+      </c>
+      <c r="AI113">
+        <v>1.87</v>
+      </c>
+      <c r="AJ113">
+        <v>1.7</v>
+      </c>
+      <c r="AK113">
+        <v>1.15</v>
+      </c>
+      <c r="AL113">
+        <v>1.22</v>
+      </c>
+      <c r="AM113">
+        <v>2.32</v>
+      </c>
+      <c r="AN113">
+        <v>2</v>
+      </c>
+      <c r="AO113">
+        <v>1.33</v>
+      </c>
+      <c r="AP113">
+        <v>1.95</v>
+      </c>
+      <c r="AQ113">
+        <v>1.32</v>
+      </c>
+      <c r="AR113">
+        <v>1.63</v>
+      </c>
+      <c r="AS113">
+        <v>1.48</v>
+      </c>
+      <c r="AT113">
+        <v>3.11</v>
+      </c>
+      <c r="AU113">
+        <v>6</v>
+      </c>
+      <c r="AV113">
+        <v>7</v>
+      </c>
+      <c r="AW113">
+        <v>6</v>
+      </c>
+      <c r="AX113">
+        <v>17</v>
+      </c>
+      <c r="AY113">
+        <v>12</v>
+      </c>
+      <c r="AZ113">
+        <v>24</v>
+      </c>
+      <c r="BA113">
+        <v>2</v>
+      </c>
+      <c r="BB113">
+        <v>8</v>
+      </c>
+      <c r="BC113">
+        <v>10</v>
+      </c>
+      <c r="BD113">
+        <v>1.48</v>
+      </c>
+      <c r="BE113">
+        <v>7.7</v>
+      </c>
+      <c r="BF113">
+        <v>3.08</v>
+      </c>
+      <c r="BG113">
+        <v>1.42</v>
+      </c>
+      <c r="BH113">
+        <v>2.65</v>
+      </c>
+      <c r="BI113">
+        <v>1.68</v>
+      </c>
+      <c r="BJ113">
+        <v>2.01</v>
+      </c>
+      <c r="BK113">
+        <v>2.58</v>
+      </c>
+      <c r="BL113">
+        <v>1.65</v>
+      </c>
+      <c r="BM113">
+        <v>2.88</v>
+      </c>
+      <c r="BN113">
+        <v>1.4</v>
+      </c>
+      <c r="BO113">
+        <v>3.45</v>
+      </c>
+      <c r="BP113">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="208">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -481,6 +481,9 @@
     <t>['84']</t>
   </si>
   <si>
+    <t>['87']</t>
+  </si>
+  <si>
     <t>['7', '90']</t>
   </si>
   <si>
@@ -632,6 +635,9 @@
   </si>
   <si>
     <t>['70']</t>
+  </si>
+  <si>
+    <t>['1', '4', '34']</t>
   </si>
 </sst>
 </file>
@@ -993,7 +999,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP113"/>
+  <dimension ref="A1:BP115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1252,7 +1258,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1333,7 +1339,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ2">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1458,7 +1464,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1742,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AQ4">
         <v>1.11</v>
@@ -1870,7 +1876,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -2076,7 +2082,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2154,10 +2160,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ6">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2282,7 +2288,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2488,7 +2494,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2694,7 +2700,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2775,7 +2781,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ9">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR9">
         <v>1.34</v>
@@ -3106,7 +3112,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3390,7 +3396,7 @@
         <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ12">
         <v>1.11</v>
@@ -3518,7 +3524,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q13">
         <v>4.33</v>
@@ -3596,10 +3602,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ13">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AR13">
         <v>1.78</v>
@@ -4217,7 +4223,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ16">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR16">
         <v>1.31</v>
@@ -4342,7 +4348,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4548,7 +4554,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q18">
         <v>3.75</v>
@@ -4626,10 +4632,10 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AQ18">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR18">
         <v>1.16</v>
@@ -4832,7 +4838,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ19">
         <v>0.95</v>
@@ -5372,7 +5378,7 @@
         <v>84</v>
       </c>
       <c r="P22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q22">
         <v>4.79</v>
@@ -5453,7 +5459,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ22">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AR22">
         <v>1.81</v>
@@ -5578,7 +5584,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q23">
         <v>3.74</v>
@@ -5656,7 +5662,7 @@
         <v>2.33</v>
       </c>
       <c r="AP23">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ23">
         <v>1.95</v>
@@ -6068,10 +6074,10 @@
         <v>1.33</v>
       </c>
       <c r="AP25">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ25">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR25">
         <v>1.38</v>
@@ -6196,7 +6202,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q26">
         <v>2.6</v>
@@ -6274,7 +6280,7 @@
         <v>1.25</v>
       </c>
       <c r="AP26">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AQ26">
         <v>0.95</v>
@@ -6608,7 +6614,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q28">
         <v>3.25</v>
@@ -6689,7 +6695,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ28">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR28">
         <v>1.14</v>
@@ -6814,7 +6820,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q29">
         <v>1.8</v>
@@ -7020,7 +7026,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7098,7 +7104,7 @@
         <v>1.75</v>
       </c>
       <c r="AP30">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ30">
         <v>1.32</v>
@@ -7307,7 +7313,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ31">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR31">
         <v>1.72</v>
@@ -7432,7 +7438,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q32">
         <v>2.6</v>
@@ -7510,7 +7516,7 @@
         <v>0.8</v>
       </c>
       <c r="AP32">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ32">
         <v>1.32</v>
@@ -7719,7 +7725,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ33">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR33">
         <v>1.83</v>
@@ -7844,7 +7850,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q34">
         <v>3.29</v>
@@ -7922,7 +7928,7 @@
         <v>0.2</v>
       </c>
       <c r="AP34">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ34">
         <v>1.11</v>
@@ -8050,7 +8056,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q35">
         <v>5.47</v>
@@ -8256,7 +8262,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8334,7 +8340,7 @@
         <v>1.6</v>
       </c>
       <c r="AP36">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ36">
         <v>1.79</v>
@@ -8749,7 +8755,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ38">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR38">
         <v>1.26</v>
@@ -9080,7 +9086,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q40">
         <v>4.4</v>
@@ -9161,7 +9167,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ40">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AR40">
         <v>1.37</v>
@@ -9492,7 +9498,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9570,7 +9576,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AQ42">
         <v>1.32</v>
@@ -9779,7 +9785,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ43">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR43">
         <v>1.5</v>
@@ -9904,7 +9910,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q44">
         <v>3.5</v>
@@ -10110,7 +10116,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q45">
         <v>4.6</v>
@@ -10316,7 +10322,7 @@
         <v>84</v>
       </c>
       <c r="P46" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10522,7 +10528,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q47">
         <v>2.06</v>
@@ -10600,10 +10606,10 @@
         <v>1.14</v>
       </c>
       <c r="AP47">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ47">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR47">
         <v>1.75</v>
@@ -11012,10 +11018,10 @@
         <v>2.14</v>
       </c>
       <c r="AP49">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ49">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR49">
         <v>1.28</v>
@@ -11218,7 +11224,7 @@
         <v>1.13</v>
       </c>
       <c r="AP50">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AQ50">
         <v>1.11</v>
@@ -11424,7 +11430,7 @@
         <v>0.75</v>
       </c>
       <c r="AP51">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ51">
         <v>0.95</v>
@@ -11633,7 +11639,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ52">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AR52">
         <v>1.57</v>
@@ -11839,7 +11845,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ53">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR53">
         <v>1.53</v>
@@ -11964,7 +11970,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12582,7 +12588,7 @@
         <v>84</v>
       </c>
       <c r="P57" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q57">
         <v>4.75</v>
@@ -12866,7 +12872,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP58">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ58">
         <v>1.11</v>
@@ -12994,7 +13000,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q59">
         <v>4.96</v>
@@ -13072,7 +13078,7 @@
         <v>1.56</v>
       </c>
       <c r="AP59">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AQ59">
         <v>1.79</v>
@@ -13200,7 +13206,7 @@
         <v>84</v>
       </c>
       <c r="P60" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13281,7 +13287,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ60">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR60">
         <v>1.65</v>
@@ -13487,7 +13493,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ61">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR61">
         <v>1.44</v>
@@ -13612,7 +13618,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q62">
         <v>2.8</v>
@@ -13690,7 +13696,7 @@
         <v>1.2</v>
       </c>
       <c r="AP62">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ62">
         <v>1.32</v>
@@ -13899,7 +13905,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ63">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR63">
         <v>1.64</v>
@@ -14230,7 +14236,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q65">
         <v>2.95</v>
@@ -14308,7 +14314,7 @@
         <v>0.9</v>
       </c>
       <c r="AP65">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ65">
         <v>1.05</v>
@@ -14517,7 +14523,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ66">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AR66">
         <v>1.47</v>
@@ -15054,7 +15060,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15132,7 +15138,7 @@
         <v>1.36</v>
       </c>
       <c r="AP69">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ69">
         <v>1.32</v>
@@ -15260,7 +15266,7 @@
         <v>102</v>
       </c>
       <c r="P70" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15672,7 +15678,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q72">
         <v>3.8</v>
@@ -15750,10 +15756,10 @@
         <v>1.64</v>
       </c>
       <c r="AP72">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ72">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AR72">
         <v>1.29</v>
@@ -15959,7 +15965,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ73">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR73">
         <v>1.45</v>
@@ -16084,7 +16090,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q74">
         <v>2.8</v>
@@ -16162,7 +16168,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AQ74">
         <v>1.32</v>
@@ -16290,7 +16296,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16986,10 +16992,10 @@
         <v>1.08</v>
       </c>
       <c r="AP78">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ78">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR78">
         <v>1.69</v>
@@ -17195,7 +17201,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ79">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR79">
         <v>1.28</v>
@@ -17732,7 +17738,7 @@
         <v>122</v>
       </c>
       <c r="P82" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17938,7 +17944,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q83">
         <v>2.75</v>
@@ -18016,7 +18022,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ83">
         <v>1.11</v>
@@ -18222,10 +18228,10 @@
         <v>0.77</v>
       </c>
       <c r="AP84">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ84">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR84">
         <v>1.28</v>
@@ -18350,7 +18356,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q85">
         <v>4.41</v>
@@ -18431,7 +18437,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ85">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AR85">
         <v>1.32</v>
@@ -18556,7 +18562,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q86">
         <v>2.2</v>
@@ -18637,7 +18643,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ86">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR86">
         <v>1.64</v>
@@ -18762,7 +18768,7 @@
         <v>139</v>
       </c>
       <c r="P87" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q87">
         <v>2.2</v>
@@ -18840,7 +18846,7 @@
         <v>1.07</v>
       </c>
       <c r="AP87">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ87">
         <v>1.05</v>
@@ -18968,7 +18974,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q88">
         <v>3.55</v>
@@ -19380,7 +19386,7 @@
         <v>141</v>
       </c>
       <c r="P90" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19458,10 +19464,10 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AQ90">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR90">
         <v>1.27</v>
@@ -19792,7 +19798,7 @@
         <v>143</v>
       </c>
       <c r="P92" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q92">
         <v>3.4</v>
@@ -19873,7 +19879,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ92">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR92">
         <v>1.33</v>
@@ -19998,7 +20004,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q93">
         <v>3.2</v>
@@ -20076,7 +20082,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ93">
         <v>1.11</v>
@@ -20488,7 +20494,7 @@
         <v>2.27</v>
       </c>
       <c r="AP95">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ95">
         <v>1.95</v>
@@ -20697,7 +20703,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ96">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AR96">
         <v>1.44</v>
@@ -20822,7 +20828,7 @@
         <v>143</v>
       </c>
       <c r="P97" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q97">
         <v>4.8</v>
@@ -21106,7 +21112,7 @@
         <v>1</v>
       </c>
       <c r="AP98">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AQ98">
         <v>1.05</v>
@@ -21234,7 +21240,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21315,7 +21321,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ99">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR99">
         <v>1.4</v>
@@ -21440,7 +21446,7 @@
         <v>146</v>
       </c>
       <c r="P100" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q100">
         <v>2.8</v>
@@ -21521,7 +21527,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ100">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AR100">
         <v>1.58</v>
@@ -21727,7 +21733,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ101">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AR101">
         <v>1.59</v>
@@ -22058,7 +22064,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q103">
         <v>3.15</v>
@@ -22345,7 +22351,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ104">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR104">
         <v>1.47</v>
@@ -22470,7 +22476,7 @@
         <v>149</v>
       </c>
       <c r="P105" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -22676,7 +22682,7 @@
         <v>84</v>
       </c>
       <c r="P106" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q106">
         <v>3.65</v>
@@ -22754,7 +22760,7 @@
         <v>1.65</v>
       </c>
       <c r="AP106">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ106">
         <v>1.79</v>
@@ -22882,7 +22888,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q107">
         <v>2.7</v>
@@ -22960,7 +22966,7 @@
         <v>1.24</v>
       </c>
       <c r="AP107">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ107">
         <v>1.32</v>
@@ -23088,7 +23094,7 @@
         <v>84</v>
       </c>
       <c r="P108" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q108">
         <v>2.2</v>
@@ -23166,7 +23172,7 @@
         <v>1.06</v>
       </c>
       <c r="AP108">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ108">
         <v>1.11</v>
@@ -23500,7 +23506,7 @@
         <v>151</v>
       </c>
       <c r="P110" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -24118,7 +24124,7 @@
         <v>154</v>
       </c>
       <c r="P113" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q113">
         <v>2.15</v>
@@ -24274,6 +24280,418 @@
         <v>3.45</v>
       </c>
       <c r="BP113">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7793201</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45795.70833333334</v>
+      </c>
+      <c r="F114">
+        <v>19</v>
+      </c>
+      <c r="G114" t="s">
+        <v>72</v>
+      </c>
+      <c r="H114" t="s">
+        <v>74</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114" t="s">
+        <v>84</v>
+      </c>
+      <c r="P114" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q114">
+        <v>4.65</v>
+      </c>
+      <c r="R114">
+        <v>2</v>
+      </c>
+      <c r="S114">
+        <v>2.61</v>
+      </c>
+      <c r="T114">
+        <v>1.5</v>
+      </c>
+      <c r="U114">
+        <v>2.48</v>
+      </c>
+      <c r="V114">
+        <v>3.4</v>
+      </c>
+      <c r="W114">
+        <v>1.3</v>
+      </c>
+      <c r="X114">
+        <v>9</v>
+      </c>
+      <c r="Y114">
+        <v>1.01</v>
+      </c>
+      <c r="Z114">
+        <v>3.81</v>
+      </c>
+      <c r="AA114">
+        <v>3.03</v>
+      </c>
+      <c r="AB114">
+        <v>1.89</v>
+      </c>
+      <c r="AC114">
+        <v>1.04</v>
+      </c>
+      <c r="AD114">
+        <v>7</v>
+      </c>
+      <c r="AE114">
+        <v>1.41</v>
+      </c>
+      <c r="AF114">
+        <v>2.7</v>
+      </c>
+      <c r="AG114">
+        <v>2.3</v>
+      </c>
+      <c r="AH114">
+        <v>1.5</v>
+      </c>
+      <c r="AI114">
+        <v>1.95</v>
+      </c>
+      <c r="AJ114">
+        <v>1.68</v>
+      </c>
+      <c r="AK114">
+        <v>1.36</v>
+      </c>
+      <c r="AL114">
+        <v>1.29</v>
+      </c>
+      <c r="AM114">
+        <v>1.25</v>
+      </c>
+      <c r="AN114">
+        <v>0.83</v>
+      </c>
+      <c r="AO114">
+        <v>1.61</v>
+      </c>
+      <c r="AP114">
+        <v>0.84</v>
+      </c>
+      <c r="AQ114">
+        <v>1.58</v>
+      </c>
+      <c r="AR114">
+        <v>1.32</v>
+      </c>
+      <c r="AS114">
+        <v>1.7</v>
+      </c>
+      <c r="AT114">
+        <v>3.02</v>
+      </c>
+      <c r="AU114">
+        <v>3</v>
+      </c>
+      <c r="AV114">
+        <v>3</v>
+      </c>
+      <c r="AW114">
+        <v>5</v>
+      </c>
+      <c r="AX114">
+        <v>8</v>
+      </c>
+      <c r="AY114">
+        <v>8</v>
+      </c>
+      <c r="AZ114">
+        <v>11</v>
+      </c>
+      <c r="BA114">
+        <v>2</v>
+      </c>
+      <c r="BB114">
+        <v>4</v>
+      </c>
+      <c r="BC114">
+        <v>6</v>
+      </c>
+      <c r="BD114">
+        <v>2.82</v>
+      </c>
+      <c r="BE114">
+        <v>6.2</v>
+      </c>
+      <c r="BF114">
+        <v>1.66</v>
+      </c>
+      <c r="BG114">
+        <v>1.46</v>
+      </c>
+      <c r="BH114">
+        <v>2.56</v>
+      </c>
+      <c r="BI114">
+        <v>1.78</v>
+      </c>
+      <c r="BJ114">
+        <v>1.97</v>
+      </c>
+      <c r="BK114">
+        <v>2.23</v>
+      </c>
+      <c r="BL114">
+        <v>1.59</v>
+      </c>
+      <c r="BM114">
+        <v>2.9</v>
+      </c>
+      <c r="BN114">
+        <v>1.36</v>
+      </c>
+      <c r="BO114">
+        <v>3.95</v>
+      </c>
+      <c r="BP114">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7793205</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45795.8125</v>
+      </c>
+      <c r="F115">
+        <v>19</v>
+      </c>
+      <c r="G115" t="s">
+        <v>79</v>
+      </c>
+      <c r="H115" t="s">
+        <v>80</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>3</v>
+      </c>
+      <c r="K115">
+        <v>3</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>3</v>
+      </c>
+      <c r="N115">
+        <v>4</v>
+      </c>
+      <c r="O115" t="s">
+        <v>155</v>
+      </c>
+      <c r="P115" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q115">
+        <v>2.9</v>
+      </c>
+      <c r="R115">
+        <v>1.91</v>
+      </c>
+      <c r="S115">
+        <v>3.95</v>
+      </c>
+      <c r="T115">
+        <v>1.45</v>
+      </c>
+      <c r="U115">
+        <v>2.45</v>
+      </c>
+      <c r="V115">
+        <v>3.2</v>
+      </c>
+      <c r="W115">
+        <v>1.27</v>
+      </c>
+      <c r="X115">
+        <v>8.5</v>
+      </c>
+      <c r="Y115">
+        <v>1.04</v>
+      </c>
+      <c r="Z115">
+        <v>2.08</v>
+      </c>
+      <c r="AA115">
+        <v>2.96</v>
+      </c>
+      <c r="AB115">
+        <v>3.3</v>
+      </c>
+      <c r="AC115">
+        <v>1.08</v>
+      </c>
+      <c r="AD115">
+        <v>6.2</v>
+      </c>
+      <c r="AE115">
+        <v>1.45</v>
+      </c>
+      <c r="AF115">
+        <v>2.7</v>
+      </c>
+      <c r="AG115">
+        <v>2.42</v>
+      </c>
+      <c r="AH115">
+        <v>1.54</v>
+      </c>
+      <c r="AI115">
+        <v>2.02</v>
+      </c>
+      <c r="AJ115">
+        <v>1.67</v>
+      </c>
+      <c r="AK115">
+        <v>1.35</v>
+      </c>
+      <c r="AL115">
+        <v>1.27</v>
+      </c>
+      <c r="AM115">
+        <v>1.6</v>
+      </c>
+      <c r="AN115">
+        <v>1.78</v>
+      </c>
+      <c r="AO115">
+        <v>1.17</v>
+      </c>
+      <c r="AP115">
+        <v>1.68</v>
+      </c>
+      <c r="AQ115">
+        <v>1.26</v>
+      </c>
+      <c r="AR115">
+        <v>1.32</v>
+      </c>
+      <c r="AS115">
+        <v>1.3</v>
+      </c>
+      <c r="AT115">
+        <v>2.62</v>
+      </c>
+      <c r="AU115">
+        <v>3</v>
+      </c>
+      <c r="AV115">
+        <v>7</v>
+      </c>
+      <c r="AW115">
+        <v>5</v>
+      </c>
+      <c r="AX115">
+        <v>10</v>
+      </c>
+      <c r="AY115">
+        <v>8</v>
+      </c>
+      <c r="AZ115">
+        <v>17</v>
+      </c>
+      <c r="BA115">
+        <v>1</v>
+      </c>
+      <c r="BB115">
+        <v>5</v>
+      </c>
+      <c r="BC115">
+        <v>6</v>
+      </c>
+      <c r="BD115">
+        <v>2.22</v>
+      </c>
+      <c r="BE115">
+        <v>7</v>
+      </c>
+      <c r="BF115">
+        <v>1.98</v>
+      </c>
+      <c r="BG115">
+        <v>1.44</v>
+      </c>
+      <c r="BH115">
+        <v>2.4</v>
+      </c>
+      <c r="BI115">
+        <v>1.8</v>
+      </c>
+      <c r="BJ115">
+        <v>1.93</v>
+      </c>
+      <c r="BK115">
+        <v>2.18</v>
+      </c>
+      <c r="BL115">
+        <v>1.51</v>
+      </c>
+      <c r="BM115">
+        <v>3.2</v>
+      </c>
+      <c r="BN115">
+        <v>1.33</v>
+      </c>
+      <c r="BO115">
+        <v>3.8</v>
+      </c>
+      <c r="BP115">
         <v>1.21</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="208">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -999,7 +999,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP115"/>
+  <dimension ref="A1:BP116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1957,7 +1957,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ5">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ9">
         <v>0.84</v>
@@ -4429,7 +4429,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ17">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AR17">
         <v>1.68</v>
@@ -5044,7 +5044,7 @@
         <v>0.33</v>
       </c>
       <c r="AP20">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ20">
         <v>1.11</v>
@@ -6901,7 +6901,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ29">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AR29">
         <v>1.56</v>
@@ -7519,7 +7519,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ32">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AR32">
         <v>1.08</v>
@@ -8752,7 +8752,7 @@
         <v>1.33</v>
       </c>
       <c r="AP38">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ38">
         <v>1.26</v>
@@ -9991,7 +9991,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ44">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AR44">
         <v>1.37</v>
@@ -12048,7 +12048,7 @@
         <v>0.75</v>
       </c>
       <c r="AP54">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ54">
         <v>1.05</v>
@@ -12463,7 +12463,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ56">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AR56">
         <v>1.42</v>
@@ -14520,7 +14520,7 @@
         <v>1.7</v>
       </c>
       <c r="AP66">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ66">
         <v>1.58</v>
@@ -14932,7 +14932,7 @@
         <v>1.09</v>
       </c>
       <c r="AP68">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ68">
         <v>1.11</v>
@@ -16171,7 +16171,7 @@
         <v>0.84</v>
       </c>
       <c r="AQ74">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AR74">
         <v>1.18</v>
@@ -17404,7 +17404,7 @@
         <v>2.54</v>
       </c>
       <c r="AP80">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ80">
         <v>1.95</v>
@@ -19673,7 +19673,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ91">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AR91">
         <v>1.46</v>
@@ -20906,7 +20906,7 @@
         <v>1.67</v>
       </c>
       <c r="AP97">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ97">
         <v>1.79</v>
@@ -21318,7 +21318,7 @@
         <v>1.81</v>
       </c>
       <c r="AP99">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ99">
         <v>1.68</v>
@@ -22969,7 +22969,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ107">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AR107">
         <v>1.27</v>
@@ -23584,7 +23584,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP110">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ110">
         <v>0.95</v>
@@ -24693,6 +24693,212 @@
       </c>
       <c r="BP115">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7793208</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45797.6875</v>
+      </c>
+      <c r="F116">
+        <v>20</v>
+      </c>
+      <c r="G116" t="s">
+        <v>71</v>
+      </c>
+      <c r="H116" t="s">
+        <v>77</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116" t="s">
+        <v>84</v>
+      </c>
+      <c r="P116" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q116">
+        <v>2.8</v>
+      </c>
+      <c r="R116">
+        <v>2.01</v>
+      </c>
+      <c r="S116">
+        <v>3.7</v>
+      </c>
+      <c r="T116">
+        <v>1.33</v>
+      </c>
+      <c r="U116">
+        <v>2.9</v>
+      </c>
+      <c r="V116">
+        <v>2.65</v>
+      </c>
+      <c r="W116">
+        <v>1.4</v>
+      </c>
+      <c r="X116">
+        <v>6.8</v>
+      </c>
+      <c r="Y116">
+        <v>1.05</v>
+      </c>
+      <c r="Z116">
+        <v>2.12</v>
+      </c>
+      <c r="AA116">
+        <v>3.23</v>
+      </c>
+      <c r="AB116">
+        <v>2.95</v>
+      </c>
+      <c r="AC116">
+        <v>1.03</v>
+      </c>
+      <c r="AD116">
+        <v>9</v>
+      </c>
+      <c r="AE116">
+        <v>1.3</v>
+      </c>
+      <c r="AF116">
+        <v>3.3</v>
+      </c>
+      <c r="AG116">
+        <v>1.89</v>
+      </c>
+      <c r="AH116">
+        <v>1.81</v>
+      </c>
+      <c r="AI116">
+        <v>1.65</v>
+      </c>
+      <c r="AJ116">
+        <v>2.05</v>
+      </c>
+      <c r="AK116">
+        <v>1.33</v>
+      </c>
+      <c r="AL116">
+        <v>1.28</v>
+      </c>
+      <c r="AM116">
+        <v>1.62</v>
+      </c>
+      <c r="AN116">
+        <v>1.05</v>
+      </c>
+      <c r="AO116">
+        <v>1.32</v>
+      </c>
+      <c r="AP116">
+        <v>1.05</v>
+      </c>
+      <c r="AQ116">
+        <v>1.3</v>
+      </c>
+      <c r="AR116">
+        <v>1.39</v>
+      </c>
+      <c r="AS116">
+        <v>1.41</v>
+      </c>
+      <c r="AT116">
+        <v>2.8</v>
+      </c>
+      <c r="AU116">
+        <v>5</v>
+      </c>
+      <c r="AV116">
+        <v>6</v>
+      </c>
+      <c r="AW116">
+        <v>9</v>
+      </c>
+      <c r="AX116">
+        <v>7</v>
+      </c>
+      <c r="AY116">
+        <v>14</v>
+      </c>
+      <c r="AZ116">
+        <v>13</v>
+      </c>
+      <c r="BA116">
+        <v>5</v>
+      </c>
+      <c r="BB116">
+        <v>4</v>
+      </c>
+      <c r="BC116">
+        <v>9</v>
+      </c>
+      <c r="BD116">
+        <v>1.97</v>
+      </c>
+      <c r="BE116">
+        <v>6.1</v>
+      </c>
+      <c r="BF116">
+        <v>2.2</v>
+      </c>
+      <c r="BG116">
+        <v>1.41</v>
+      </c>
+      <c r="BH116">
+        <v>2.6</v>
+      </c>
+      <c r="BI116">
+        <v>1.73</v>
+      </c>
+      <c r="BJ116">
+        <v>2</v>
+      </c>
+      <c r="BK116">
+        <v>2.2</v>
+      </c>
+      <c r="BL116">
+        <v>1.6</v>
+      </c>
+      <c r="BM116">
+        <v>2.88</v>
+      </c>
+      <c r="BN116">
+        <v>1.41</v>
+      </c>
+      <c r="BO116">
+        <v>3.62</v>
+      </c>
+      <c r="BP116">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="210">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -484,6 +484,12 @@
     <t>['87']</t>
   </si>
   <si>
+    <t>['48', '86']</t>
+  </si>
+  <si>
+    <t>['78']</t>
+  </si>
+  <si>
     <t>['7', '90']</t>
   </si>
   <si>
@@ -604,9 +610,6 @@
     <t>['35', '54', '77', '90+3']</t>
   </si>
   <si>
-    <t>['78']</t>
-  </si>
-  <si>
     <t>['34', '54', '71']</t>
   </si>
   <si>
@@ -638,6 +641,9 @@
   </si>
   <si>
     <t>['1', '4', '34']</t>
+  </si>
+  <si>
+    <t>['90']</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP116"/>
+  <dimension ref="A1:BP118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1258,7 +1264,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1336,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ2">
         <v>1.26</v>
@@ -1464,7 +1470,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1748,10 +1754,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AQ4">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1876,7 +1882,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -1954,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ5">
         <v>1.3</v>
@@ -2082,7 +2088,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2288,7 +2294,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2494,7 +2500,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2575,7 +2581,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ8">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR8">
         <v>1.35</v>
@@ -2700,7 +2706,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2781,7 +2787,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ9">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR9">
         <v>1.34</v>
@@ -3112,7 +3118,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3190,7 +3196,7 @@
         <v>1</v>
       </c>
       <c r="AP11">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ11">
         <v>1.95</v>
@@ -3399,7 +3405,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ12">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR12">
         <v>1.05</v>
@@ -3524,7 +3530,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q13">
         <v>4.33</v>
@@ -3808,7 +3814,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ14">
         <v>1.05</v>
@@ -4017,7 +4023,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ15">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR15">
         <v>1.24</v>
@@ -4220,7 +4226,7 @@
         <v>2</v>
       </c>
       <c r="AP16">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ16">
         <v>1.26</v>
@@ -4348,7 +4354,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4554,7 +4560,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q18">
         <v>3.75</v>
@@ -4632,7 +4638,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AQ18">
         <v>1.68</v>
@@ -5047,7 +5053,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ20">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR20">
         <v>1.3</v>
@@ -5250,7 +5256,7 @@
         <v>1.67</v>
       </c>
       <c r="AP21">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ21">
         <v>1.79</v>
@@ -5378,7 +5384,7 @@
         <v>84</v>
       </c>
       <c r="P22" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q22">
         <v>4.79</v>
@@ -5584,7 +5590,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q23">
         <v>3.74</v>
@@ -5871,7 +5877,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ24">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR24">
         <v>1.38</v>
@@ -6077,7 +6083,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ25">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR25">
         <v>1.38</v>
@@ -6202,7 +6208,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q26">
         <v>2.6</v>
@@ -6280,7 +6286,7 @@
         <v>1.25</v>
       </c>
       <c r="AP26">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AQ26">
         <v>0.95</v>
@@ -6486,7 +6492,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ27">
         <v>1.05</v>
@@ -6614,7 +6620,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q28">
         <v>3.25</v>
@@ -6692,7 +6698,7 @@
         <v>2.25</v>
       </c>
       <c r="AP28">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ28">
         <v>1.68</v>
@@ -6820,7 +6826,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q29">
         <v>1.8</v>
@@ -7026,7 +7032,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7107,7 +7113,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ30">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR30">
         <v>1.83</v>
@@ -7438,7 +7444,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q32">
         <v>2.6</v>
@@ -7725,7 +7731,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ33">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR33">
         <v>1.83</v>
@@ -7850,7 +7856,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q34">
         <v>3.29</v>
@@ -7931,7 +7937,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ34">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR34">
         <v>1.34</v>
@@ -8056,7 +8062,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q35">
         <v>5.47</v>
@@ -8262,7 +8268,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8546,10 +8552,10 @@
         <v>1.4</v>
       </c>
       <c r="AP37">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ37">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR37">
         <v>1.52</v>
@@ -9086,7 +9092,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q40">
         <v>4.4</v>
@@ -9164,7 +9170,7 @@
         <v>2.17</v>
       </c>
       <c r="AP40">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ40">
         <v>1.58</v>
@@ -9370,7 +9376,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ41">
         <v>0.95</v>
@@ -9498,7 +9504,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9576,10 +9582,10 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AQ42">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR42">
         <v>1.17</v>
@@ -9910,7 +9916,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q44">
         <v>3.5</v>
@@ -10116,7 +10122,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q45">
         <v>4.6</v>
@@ -10194,7 +10200,7 @@
         <v>2.71</v>
       </c>
       <c r="AP45">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ45">
         <v>1.95</v>
@@ -10322,7 +10328,7 @@
         <v>84</v>
       </c>
       <c r="P46" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10400,7 +10406,7 @@
         <v>1.14</v>
       </c>
       <c r="AP46">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ46">
         <v>1.79</v>
@@ -10528,7 +10534,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q47">
         <v>2.06</v>
@@ -10609,7 +10615,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ47">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR47">
         <v>1.75</v>
@@ -10815,7 +10821,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ48">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR48">
         <v>1.65</v>
@@ -11224,10 +11230,10 @@
         <v>1.13</v>
       </c>
       <c r="AP50">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AQ50">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR50">
         <v>1.1</v>
@@ -11970,7 +11976,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12254,10 +12260,10 @@
         <v>1.25</v>
       </c>
       <c r="AP55">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ55">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR55">
         <v>1.34</v>
@@ -12460,7 +12466,7 @@
         <v>1.22</v>
       </c>
       <c r="AP56">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ56">
         <v>1.3</v>
@@ -12588,7 +12594,7 @@
         <v>84</v>
       </c>
       <c r="P57" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q57">
         <v>4.75</v>
@@ -12666,7 +12672,7 @@
         <v>2.56</v>
       </c>
       <c r="AP57">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ57">
         <v>1.95</v>
@@ -12875,7 +12881,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ58">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR58">
         <v>1.71</v>
@@ -13000,7 +13006,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q59">
         <v>4.96</v>
@@ -13078,7 +13084,7 @@
         <v>1.56</v>
       </c>
       <c r="AP59">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AQ59">
         <v>1.79</v>
@@ -13206,7 +13212,7 @@
         <v>84</v>
       </c>
       <c r="P60" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13618,7 +13624,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q62">
         <v>2.8</v>
@@ -13699,7 +13705,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ62">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR62">
         <v>1.2</v>
@@ -13905,7 +13911,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ63">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR63">
         <v>1.64</v>
@@ -14236,7 +14242,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q65">
         <v>2.95</v>
@@ -14726,10 +14732,10 @@
         <v>1.2</v>
       </c>
       <c r="AP67">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ67">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR67">
         <v>1.43</v>
@@ -14935,7 +14941,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ68">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR68">
         <v>1.43</v>
@@ -15060,7 +15066,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15141,7 +15147,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ69">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR69">
         <v>1.22</v>
@@ -15266,7 +15272,7 @@
         <v>102</v>
       </c>
       <c r="P70" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15678,7 +15684,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q72">
         <v>3.8</v>
@@ -15962,10 +15968,10 @@
         <v>0.91</v>
       </c>
       <c r="AP73">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ73">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR73">
         <v>1.45</v>
@@ -16090,7 +16096,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q74">
         <v>2.8</v>
@@ -16168,7 +16174,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AQ74">
         <v>1.3</v>
@@ -16296,7 +16302,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16374,7 +16380,7 @@
         <v>0.92</v>
       </c>
       <c r="AP75">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ75">
         <v>0.95</v>
@@ -16583,7 +16589,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ76">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR76">
         <v>1.6</v>
@@ -17198,7 +17204,7 @@
         <v>1.83</v>
       </c>
       <c r="AP79">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ79">
         <v>1.68</v>
@@ -17613,7 +17619,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ81">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR81">
         <v>1.44</v>
@@ -17738,7 +17744,7 @@
         <v>122</v>
       </c>
       <c r="P82" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17816,7 +17822,7 @@
         <v>1.46</v>
       </c>
       <c r="AP82">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ82">
         <v>1.79</v>
@@ -17944,7 +17950,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q83">
         <v>2.75</v>
@@ -18025,7 +18031,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ83">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR83">
         <v>1.28</v>
@@ -18231,7 +18237,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ84">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR84">
         <v>1.28</v>
@@ -18356,7 +18362,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q85">
         <v>4.41</v>
@@ -18562,7 +18568,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q86">
         <v>2.2</v>
@@ -18768,7 +18774,7 @@
         <v>139</v>
       </c>
       <c r="P87" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q87">
         <v>2.2</v>
@@ -18974,7 +18980,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q88">
         <v>3.55</v>
@@ -19052,7 +19058,7 @@
         <v>0.86</v>
       </c>
       <c r="AP88">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ88">
         <v>0.95</v>
@@ -19261,7 +19267,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ89">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR89">
         <v>1.53</v>
@@ -19386,7 +19392,7 @@
         <v>141</v>
       </c>
       <c r="P90" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19464,7 +19470,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AQ90">
         <v>1.26</v>
@@ -19670,7 +19676,7 @@
         <v>1.43</v>
       </c>
       <c r="AP91">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ91">
         <v>1.3</v>
@@ -19798,7 +19804,7 @@
         <v>143</v>
       </c>
       <c r="P92" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="Q92">
         <v>3.4</v>
@@ -19879,7 +19885,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ92">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR92">
         <v>1.33</v>
@@ -20004,7 +20010,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q93">
         <v>3.2</v>
@@ -20085,7 +20091,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ93">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR93">
         <v>1.29</v>
@@ -20291,7 +20297,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ94">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR94">
         <v>1.46</v>
@@ -20700,7 +20706,7 @@
         <v>1.67</v>
       </c>
       <c r="AP96">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ96">
         <v>1.58</v>
@@ -20828,7 +20834,7 @@
         <v>143</v>
       </c>
       <c r="P97" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q97">
         <v>4.8</v>
@@ -21112,7 +21118,7 @@
         <v>1</v>
       </c>
       <c r="AP98">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AQ98">
         <v>1.05</v>
@@ -21240,7 +21246,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21446,7 +21452,7 @@
         <v>146</v>
       </c>
       <c r="P100" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q100">
         <v>2.8</v>
@@ -21730,7 +21736,7 @@
         <v>1.13</v>
       </c>
       <c r="AP101">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ101">
         <v>1.26</v>
@@ -22064,7 +22070,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q103">
         <v>3.15</v>
@@ -22142,10 +22148,10 @@
         <v>1.25</v>
       </c>
       <c r="AP103">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ103">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR103">
         <v>1.2</v>
@@ -22348,10 +22354,10 @@
         <v>0.88</v>
       </c>
       <c r="AP104">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ104">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR104">
         <v>1.47</v>
@@ -22476,7 +22482,7 @@
         <v>149</v>
       </c>
       <c r="P105" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -22557,7 +22563,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ105">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AR105">
         <v>1.31</v>
@@ -22682,7 +22688,7 @@
         <v>84</v>
       </c>
       <c r="P106" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q106">
         <v>3.65</v>
@@ -22888,7 +22894,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q107">
         <v>2.7</v>
@@ -23094,7 +23100,7 @@
         <v>84</v>
       </c>
       <c r="P108" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q108">
         <v>2.2</v>
@@ -23175,7 +23181,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ108">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR108">
         <v>1.7</v>
@@ -23506,7 +23512,7 @@
         <v>151</v>
       </c>
       <c r="P110" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -23793,7 +23799,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ111">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR111">
         <v>1.55</v>
@@ -23996,7 +24002,7 @@
         <v>1.11</v>
       </c>
       <c r="AP112">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ112">
         <v>1.05</v>
@@ -24124,7 +24130,7 @@
         <v>154</v>
       </c>
       <c r="P113" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q113">
         <v>2.15</v>
@@ -24205,7 +24211,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ113">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR113">
         <v>1.63</v>
@@ -24408,7 +24414,7 @@
         <v>1.61</v>
       </c>
       <c r="AP114">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AQ114">
         <v>1.58</v>
@@ -24536,7 +24542,7 @@
         <v>155</v>
       </c>
       <c r="P115" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q115">
         <v>2.9</v>
@@ -24899,6 +24905,418 @@
       </c>
       <c r="BP116">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7793209</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45797.79166666666</v>
+      </c>
+      <c r="F117">
+        <v>20</v>
+      </c>
+      <c r="G117" t="s">
+        <v>70</v>
+      </c>
+      <c r="H117" t="s">
+        <v>78</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>2</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>2</v>
+      </c>
+      <c r="O117" t="s">
+        <v>156</v>
+      </c>
+      <c r="P117" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q117">
+        <v>3.3</v>
+      </c>
+      <c r="R117">
+        <v>2.05</v>
+      </c>
+      <c r="S117">
+        <v>3.2</v>
+      </c>
+      <c r="T117">
+        <v>1.42</v>
+      </c>
+      <c r="U117">
+        <v>2.65</v>
+      </c>
+      <c r="V117">
+        <v>2.75</v>
+      </c>
+      <c r="W117">
+        <v>1.35</v>
+      </c>
+      <c r="X117">
+        <v>7.5</v>
+      </c>
+      <c r="Y117">
+        <v>1.07</v>
+      </c>
+      <c r="Z117">
+        <v>2.62</v>
+      </c>
+      <c r="AA117">
+        <v>3</v>
+      </c>
+      <c r="AB117">
+        <v>2.4</v>
+      </c>
+      <c r="AC117">
+        <v>1.05</v>
+      </c>
+      <c r="AD117">
+        <v>10</v>
+      </c>
+      <c r="AE117">
+        <v>1.3</v>
+      </c>
+      <c r="AF117">
+        <v>3</v>
+      </c>
+      <c r="AG117">
+        <v>2.13</v>
+      </c>
+      <c r="AH117">
+        <v>1.72</v>
+      </c>
+      <c r="AI117">
+        <v>1.73</v>
+      </c>
+      <c r="AJ117">
+        <v>1.99</v>
+      </c>
+      <c r="AK117">
+        <v>1.33</v>
+      </c>
+      <c r="AL117">
+        <v>1.32</v>
+      </c>
+      <c r="AM117">
+        <v>1.42</v>
+      </c>
+      <c r="AN117">
+        <v>1.32</v>
+      </c>
+      <c r="AO117">
+        <v>1.11</v>
+      </c>
+      <c r="AP117">
+        <v>1.4</v>
+      </c>
+      <c r="AQ117">
+        <v>1.05</v>
+      </c>
+      <c r="AR117">
+        <v>1.54</v>
+      </c>
+      <c r="AS117">
+        <v>1.65</v>
+      </c>
+      <c r="AT117">
+        <v>3.19</v>
+      </c>
+      <c r="AU117">
+        <v>7</v>
+      </c>
+      <c r="AV117">
+        <v>7</v>
+      </c>
+      <c r="AW117">
+        <v>4</v>
+      </c>
+      <c r="AX117">
+        <v>8</v>
+      </c>
+      <c r="AY117">
+        <v>11</v>
+      </c>
+      <c r="AZ117">
+        <v>15</v>
+      </c>
+      <c r="BA117">
+        <v>6</v>
+      </c>
+      <c r="BB117">
+        <v>3</v>
+      </c>
+      <c r="BC117">
+        <v>9</v>
+      </c>
+      <c r="BD117">
+        <v>1.91</v>
+      </c>
+      <c r="BE117">
+        <v>6.25</v>
+      </c>
+      <c r="BF117">
+        <v>2.02</v>
+      </c>
+      <c r="BG117">
+        <v>1.42</v>
+      </c>
+      <c r="BH117">
+        <v>2.62</v>
+      </c>
+      <c r="BI117">
+        <v>1.7</v>
+      </c>
+      <c r="BJ117">
+        <v>2.05</v>
+      </c>
+      <c r="BK117">
+        <v>2.44</v>
+      </c>
+      <c r="BL117">
+        <v>1.65</v>
+      </c>
+      <c r="BM117">
+        <v>2.7</v>
+      </c>
+      <c r="BN117">
+        <v>1.4</v>
+      </c>
+      <c r="BO117">
+        <v>3.6</v>
+      </c>
+      <c r="BP117">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7793211</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45798.39583333334</v>
+      </c>
+      <c r="F118">
+        <v>20</v>
+      </c>
+      <c r="G118" t="s">
+        <v>73</v>
+      </c>
+      <c r="H118" t="s">
+        <v>72</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>2</v>
+      </c>
+      <c r="O118" t="s">
+        <v>157</v>
+      </c>
+      <c r="P118" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q118">
+        <v>3.3</v>
+      </c>
+      <c r="R118">
+        <v>1.83</v>
+      </c>
+      <c r="S118">
+        <v>3.72</v>
+      </c>
+      <c r="T118">
+        <v>1.56</v>
+      </c>
+      <c r="U118">
+        <v>2.33</v>
+      </c>
+      <c r="V118">
+        <v>3.3</v>
+      </c>
+      <c r="W118">
+        <v>1.27</v>
+      </c>
+      <c r="X118">
+        <v>9</v>
+      </c>
+      <c r="Y118">
+        <v>1.02</v>
+      </c>
+      <c r="Z118">
+        <v>2.5</v>
+      </c>
+      <c r="AA118">
+        <v>2.9</v>
+      </c>
+      <c r="AB118">
+        <v>2.7</v>
+      </c>
+      <c r="AC118">
+        <v>1.09</v>
+      </c>
+      <c r="AD118">
+        <v>6</v>
+      </c>
+      <c r="AE118">
+        <v>1.53</v>
+      </c>
+      <c r="AF118">
+        <v>2.43</v>
+      </c>
+      <c r="AG118">
+        <v>2.6</v>
+      </c>
+      <c r="AH118">
+        <v>1.44</v>
+      </c>
+      <c r="AI118">
+        <v>2.1</v>
+      </c>
+      <c r="AJ118">
+        <v>1.65</v>
+      </c>
+      <c r="AK118">
+        <v>1.4</v>
+      </c>
+      <c r="AL118">
+        <v>1.34</v>
+      </c>
+      <c r="AM118">
+        <v>1.5</v>
+      </c>
+      <c r="AN118">
+        <v>1.11</v>
+      </c>
+      <c r="AO118">
+        <v>0.84</v>
+      </c>
+      <c r="AP118">
+        <v>1.1</v>
+      </c>
+      <c r="AQ118">
+        <v>0.85</v>
+      </c>
+      <c r="AR118">
+        <v>1.28</v>
+      </c>
+      <c r="AS118">
+        <v>1.31</v>
+      </c>
+      <c r="AT118">
+        <v>2.59</v>
+      </c>
+      <c r="AU118">
+        <v>5</v>
+      </c>
+      <c r="AV118">
+        <v>5</v>
+      </c>
+      <c r="AW118">
+        <v>7</v>
+      </c>
+      <c r="AX118">
+        <v>7</v>
+      </c>
+      <c r="AY118">
+        <v>12</v>
+      </c>
+      <c r="AZ118">
+        <v>12</v>
+      </c>
+      <c r="BA118">
+        <v>4</v>
+      </c>
+      <c r="BB118">
+        <v>6</v>
+      </c>
+      <c r="BC118">
+        <v>10</v>
+      </c>
+      <c r="BD118">
+        <v>2.16</v>
+      </c>
+      <c r="BE118">
+        <v>6.8</v>
+      </c>
+      <c r="BF118">
+        <v>2.05</v>
+      </c>
+      <c r="BG118">
+        <v>1.48</v>
+      </c>
+      <c r="BH118">
+        <v>2.33</v>
+      </c>
+      <c r="BI118">
+        <v>1.91</v>
+      </c>
+      <c r="BJ118">
+        <v>1.78</v>
+      </c>
+      <c r="BK118">
+        <v>2.38</v>
+      </c>
+      <c r="BL118">
+        <v>1.43</v>
+      </c>
+      <c r="BM118">
+        <v>3.42</v>
+      </c>
+      <c r="BN118">
+        <v>1.23</v>
+      </c>
+      <c r="BO118">
+        <v>4</v>
+      </c>
+      <c r="BP118">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="211">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -645,6 +645,9 @@
   <si>
     <t>['90']</t>
   </si>
+  <si>
+    <t>['28', '78']</t>
+  </si>
 </sst>
 </file>
 
@@ -1005,7 +1008,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP118"/>
+  <dimension ref="A1:BP121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1345,7 +1348,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ2">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1551,7 +1554,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ3">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2166,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AQ6">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2372,10 +2375,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="AQ7">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2578,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AQ8">
         <v>1.4</v>
@@ -2993,7 +2996,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ10">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="AR10">
         <v>2.15</v>
@@ -3199,7 +3202,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ11">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AR11">
         <v>0.7</v>
@@ -3402,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ12">
         <v>1.1</v>
@@ -3608,10 +3611,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ13">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AR13">
         <v>1.78</v>
@@ -4020,7 +4023,7 @@
         <v>0.5</v>
       </c>
       <c r="AP15">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="AQ15">
         <v>1.05</v>
@@ -4229,7 +4232,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ16">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR16">
         <v>1.31</v>
@@ -4432,7 +4435,7 @@
         <v>0.5</v>
       </c>
       <c r="AP17">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AQ17">
         <v>1.3</v>
@@ -4641,7 +4644,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ18">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AR18">
         <v>1.16</v>
@@ -4844,10 +4847,10 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AQ19">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR19">
         <v>1.79</v>
@@ -5259,7 +5262,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ21">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="AR21">
         <v>1.66</v>
@@ -5465,7 +5468,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ22">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AR22">
         <v>1.81</v>
@@ -5668,10 +5671,10 @@
         <v>2.33</v>
       </c>
       <c r="AP23">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ23">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AR23">
         <v>1.04</v>
@@ -5874,7 +5877,7 @@
         <v>1.33</v>
       </c>
       <c r="AP24">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AQ24">
         <v>1.1</v>
@@ -6080,7 +6083,7 @@
         <v>1.33</v>
       </c>
       <c r="AP25">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ25">
         <v>0.85</v>
@@ -6289,7 +6292,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ26">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR26">
         <v>1.14</v>
@@ -6701,7 +6704,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ28">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AR28">
         <v>1.14</v>
@@ -6904,7 +6907,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="AQ29">
         <v>1.3</v>
@@ -7110,7 +7113,7 @@
         <v>1.75</v>
       </c>
       <c r="AP30">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AQ30">
         <v>1.4</v>
@@ -7316,10 +7319,10 @@
         <v>1.25</v>
       </c>
       <c r="AP31">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AQ31">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR31">
         <v>1.72</v>
@@ -7522,7 +7525,7 @@
         <v>0.8</v>
       </c>
       <c r="AP32">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ32">
         <v>1.3</v>
@@ -7934,7 +7937,7 @@
         <v>0.2</v>
       </c>
       <c r="AP34">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ34">
         <v>1.05</v>
@@ -8140,10 +8143,10 @@
         <v>2.6</v>
       </c>
       <c r="AP35">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AQ35">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AR35">
         <v>1.46</v>
@@ -8346,10 +8349,10 @@
         <v>1.6</v>
       </c>
       <c r="AP36">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AQ36">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="AR36">
         <v>1.8</v>
@@ -8761,7 +8764,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ38">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR38">
         <v>1.26</v>
@@ -8964,7 +8967,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AQ39">
         <v>1.05</v>
@@ -9173,7 +9176,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ40">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AR40">
         <v>1.37</v>
@@ -9379,7 +9382,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ41">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR41">
         <v>1.17</v>
@@ -9788,10 +9791,10 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="AQ43">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AR43">
         <v>1.5</v>
@@ -9994,7 +9997,7 @@
         <v>1.14</v>
       </c>
       <c r="AP44">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AQ44">
         <v>1.3</v>
@@ -10203,7 +10206,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ45">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AR45">
         <v>1.43</v>
@@ -10409,7 +10412,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ46">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="AR46">
         <v>1.32</v>
@@ -10612,7 +10615,7 @@
         <v>1.14</v>
       </c>
       <c r="AP47">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AQ47">
         <v>0.85</v>
@@ -11024,10 +11027,10 @@
         <v>2.14</v>
       </c>
       <c r="AP49">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ49">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AR49">
         <v>1.28</v>
@@ -11436,10 +11439,10 @@
         <v>0.75</v>
       </c>
       <c r="AP51">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ51">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR51">
         <v>1.14</v>
@@ -11642,10 +11645,10 @@
         <v>2.13</v>
       </c>
       <c r="AP52">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AQ52">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AR52">
         <v>1.57</v>
@@ -11848,10 +11851,10 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="AQ53">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR53">
         <v>1.53</v>
@@ -12675,7 +12678,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ57">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AR57">
         <v>1.3</v>
@@ -12878,7 +12881,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP58">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AQ58">
         <v>1.05</v>
@@ -13087,7 +13090,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ59">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="AR59">
         <v>1.21</v>
@@ -13293,7 +13296,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ60">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AR60">
         <v>1.65</v>
@@ -13496,10 +13499,10 @@
         <v>1.33</v>
       </c>
       <c r="AP61">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AQ61">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR61">
         <v>1.44</v>
@@ -13702,7 +13705,7 @@
         <v>1.2</v>
       </c>
       <c r="AP62">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ62">
         <v>1.4</v>
@@ -13908,7 +13911,7 @@
         <v>0.9</v>
       </c>
       <c r="AP63">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AQ63">
         <v>0.85</v>
@@ -14114,10 +14117,10 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="AQ64">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR64">
         <v>1.44</v>
@@ -14320,7 +14323,7 @@
         <v>0.9</v>
       </c>
       <c r="AP65">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ65">
         <v>1.05</v>
@@ -14529,7 +14532,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ66">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AR66">
         <v>1.47</v>
@@ -15144,7 +15147,7 @@
         <v>1.36</v>
       </c>
       <c r="AP69">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ69">
         <v>1.4</v>
@@ -15350,7 +15353,7 @@
         <v>0.91</v>
       </c>
       <c r="AP70">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AQ70">
         <v>1.05</v>
@@ -15556,10 +15559,10 @@
         <v>1.64</v>
       </c>
       <c r="AP71">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AQ71">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="AR71">
         <v>1.62</v>
@@ -15762,10 +15765,10 @@
         <v>1.64</v>
       </c>
       <c r="AP72">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ72">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AR72">
         <v>1.29</v>
@@ -16383,7 +16386,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ75">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR75">
         <v>1.43</v>
@@ -16586,7 +16589,7 @@
         <v>1.17</v>
       </c>
       <c r="AP76">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AQ76">
         <v>1.05</v>
@@ -16792,7 +16795,7 @@
         <v>0.92</v>
       </c>
       <c r="AP77">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="AQ77">
         <v>1.05</v>
@@ -16998,10 +17001,10 @@
         <v>1.08</v>
       </c>
       <c r="AP78">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AQ78">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR78">
         <v>1.69</v>
@@ -17207,7 +17210,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ79">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AR79">
         <v>1.28</v>
@@ -17413,7 +17416,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ80">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AR80">
         <v>1.4</v>
@@ -17825,7 +17828,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ82">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="AR82">
         <v>1.47</v>
@@ -18028,7 +18031,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ83">
         <v>1.1</v>
@@ -18234,7 +18237,7 @@
         <v>0.77</v>
       </c>
       <c r="AP84">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ84">
         <v>0.85</v>
@@ -18440,10 +18443,10 @@
         <v>1.46</v>
       </c>
       <c r="AP85">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AQ85">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AR85">
         <v>1.32</v>
@@ -18646,10 +18649,10 @@
         <v>1.64</v>
       </c>
       <c r="AP86">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AQ86">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AR86">
         <v>1.64</v>
@@ -18852,7 +18855,7 @@
         <v>1.07</v>
       </c>
       <c r="AP87">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AQ87">
         <v>1.05</v>
@@ -19061,7 +19064,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ88">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR88">
         <v>1.25</v>
@@ -19264,7 +19267,7 @@
         <v>1.36</v>
       </c>
       <c r="AP89">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="AQ89">
         <v>1.4</v>
@@ -19473,7 +19476,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ90">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR90">
         <v>1.27</v>
@@ -19882,7 +19885,7 @@
         <v>0.87</v>
       </c>
       <c r="AP92">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AQ92">
         <v>0.85</v>
@@ -20088,7 +20091,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ93">
         <v>1.05</v>
@@ -20500,10 +20503,10 @@
         <v>2.27</v>
       </c>
       <c r="AP95">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ95">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AR95">
         <v>1.3</v>
@@ -20709,7 +20712,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ96">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AR96">
         <v>1.44</v>
@@ -20915,7 +20918,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ97">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="AR97">
         <v>1.39</v>
@@ -21327,7 +21330,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ99">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AR99">
         <v>1.4</v>
@@ -21530,10 +21533,10 @@
         <v>1.63</v>
       </c>
       <c r="AP100">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="AQ100">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AR100">
         <v>1.58</v>
@@ -21739,7 +21742,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ101">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR101">
         <v>1.59</v>
@@ -21942,10 +21945,10 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AQ102">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR102">
         <v>1.57</v>
@@ -22560,7 +22563,7 @@
         <v>0.88</v>
       </c>
       <c r="AP105">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AQ105">
         <v>1.05</v>
@@ -22766,10 +22769,10 @@
         <v>1.65</v>
       </c>
       <c r="AP106">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ106">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="AR106">
         <v>1.31</v>
@@ -22972,7 +22975,7 @@
         <v>1.24</v>
       </c>
       <c r="AP107">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ107">
         <v>1.3</v>
@@ -23178,7 +23181,7 @@
         <v>1.06</v>
       </c>
       <c r="AP108">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AQ108">
         <v>1.1</v>
@@ -23387,7 +23390,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ109">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AR109">
         <v>1.46</v>
@@ -23593,7 +23596,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ110">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR110">
         <v>1.41</v>
@@ -23796,7 +23799,7 @@
         <v>1.17</v>
       </c>
       <c r="AP111">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="AQ111">
         <v>1.1</v>
@@ -24208,7 +24211,7 @@
         <v>1.33</v>
       </c>
       <c r="AP113">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AQ113">
         <v>1.4</v>
@@ -24417,7 +24420,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ114">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AR114">
         <v>1.32</v>
@@ -24620,10 +24623,10 @@
         <v>1.17</v>
       </c>
       <c r="AP115">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ115">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR115">
         <v>1.32</v>
@@ -25317,6 +25320,624 @@
       </c>
       <c r="BP118">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7793206</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45798.8125</v>
+      </c>
+      <c r="F119">
+        <v>20</v>
+      </c>
+      <c r="G119" t="s">
+        <v>80</v>
+      </c>
+      <c r="H119" t="s">
+        <v>75</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119" t="s">
+        <v>84</v>
+      </c>
+      <c r="P119" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q119">
+        <v>5</v>
+      </c>
+      <c r="R119">
+        <v>2.01</v>
+      </c>
+      <c r="S119">
+        <v>2.27</v>
+      </c>
+      <c r="T119">
+        <v>1.47</v>
+      </c>
+      <c r="U119">
+        <v>2.49</v>
+      </c>
+      <c r="V119">
+        <v>3.14</v>
+      </c>
+      <c r="W119">
+        <v>1.31</v>
+      </c>
+      <c r="X119">
+        <v>8.5</v>
+      </c>
+      <c r="Y119">
+        <v>1.05</v>
+      </c>
+      <c r="Z119">
+        <v>5.31</v>
+      </c>
+      <c r="AA119">
+        <v>3.35</v>
+      </c>
+      <c r="AB119">
+        <v>1.69</v>
+      </c>
+      <c r="AC119">
+        <v>1.04</v>
+      </c>
+      <c r="AD119">
+        <v>9</v>
+      </c>
+      <c r="AE119">
+        <v>1.39</v>
+      </c>
+      <c r="AF119">
+        <v>2.8</v>
+      </c>
+      <c r="AG119">
+        <v>2.18</v>
+      </c>
+      <c r="AH119">
+        <v>1.58</v>
+      </c>
+      <c r="AI119">
+        <v>2.15</v>
+      </c>
+      <c r="AJ119">
+        <v>1.67</v>
+      </c>
+      <c r="AK119">
+        <v>2.1</v>
+      </c>
+      <c r="AL119">
+        <v>1.27</v>
+      </c>
+      <c r="AM119">
+        <v>1.16</v>
+      </c>
+      <c r="AN119">
+        <v>1.26</v>
+      </c>
+      <c r="AO119">
+        <v>1.79</v>
+      </c>
+      <c r="AP119">
+        <v>1.25</v>
+      </c>
+      <c r="AQ119">
+        <v>1.75</v>
+      </c>
+      <c r="AR119">
+        <v>1.33</v>
+      </c>
+      <c r="AS119">
+        <v>1.57</v>
+      </c>
+      <c r="AT119">
+        <v>2.9</v>
+      </c>
+      <c r="AU119">
+        <v>0</v>
+      </c>
+      <c r="AV119">
+        <v>4</v>
+      </c>
+      <c r="AW119">
+        <v>8</v>
+      </c>
+      <c r="AX119">
+        <v>8</v>
+      </c>
+      <c r="AY119">
+        <v>8</v>
+      </c>
+      <c r="AZ119">
+        <v>12</v>
+      </c>
+      <c r="BA119">
+        <v>2</v>
+      </c>
+      <c r="BB119">
+        <v>5</v>
+      </c>
+      <c r="BC119">
+        <v>7</v>
+      </c>
+      <c r="BD119">
+        <v>2.85</v>
+      </c>
+      <c r="BE119">
+        <v>7.6</v>
+      </c>
+      <c r="BF119">
+        <v>1.72</v>
+      </c>
+      <c r="BG119">
+        <v>1.48</v>
+      </c>
+      <c r="BH119">
+        <v>2.5</v>
+      </c>
+      <c r="BI119">
+        <v>1.77</v>
+      </c>
+      <c r="BJ119">
+        <v>1.91</v>
+      </c>
+      <c r="BK119">
+        <v>2.25</v>
+      </c>
+      <c r="BL119">
+        <v>1.57</v>
+      </c>
+      <c r="BM119">
+        <v>2.9</v>
+      </c>
+      <c r="BN119">
+        <v>1.36</v>
+      </c>
+      <c r="BO119">
+        <v>4.1</v>
+      </c>
+      <c r="BP119">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7793207</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45798.8125</v>
+      </c>
+      <c r="F120">
+        <v>20</v>
+      </c>
+      <c r="G120" t="s">
+        <v>76</v>
+      </c>
+      <c r="H120" t="s">
+        <v>79</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>2</v>
+      </c>
+      <c r="N120">
+        <v>3</v>
+      </c>
+      <c r="O120" t="s">
+        <v>97</v>
+      </c>
+      <c r="P120" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q120">
+        <v>3.25</v>
+      </c>
+      <c r="R120">
+        <v>2</v>
+      </c>
+      <c r="S120">
+        <v>3.38</v>
+      </c>
+      <c r="T120">
+        <v>1.46</v>
+      </c>
+      <c r="U120">
+        <v>2.66</v>
+      </c>
+      <c r="V120">
+        <v>3.3</v>
+      </c>
+      <c r="W120">
+        <v>1.32</v>
+      </c>
+      <c r="X120">
+        <v>8</v>
+      </c>
+      <c r="Y120">
+        <v>1.04</v>
+      </c>
+      <c r="Z120">
+        <v>2.6</v>
+      </c>
+      <c r="AA120">
+        <v>3.1</v>
+      </c>
+      <c r="AB120">
+        <v>2.7</v>
+      </c>
+      <c r="AC120">
+        <v>1.02</v>
+      </c>
+      <c r="AD120">
+        <v>8.5</v>
+      </c>
+      <c r="AE120">
+        <v>1.42</v>
+      </c>
+      <c r="AF120">
+        <v>2.7</v>
+      </c>
+      <c r="AG120">
+        <v>2.25</v>
+      </c>
+      <c r="AH120">
+        <v>1.55</v>
+      </c>
+      <c r="AI120">
+        <v>1.95</v>
+      </c>
+      <c r="AJ120">
+        <v>1.84</v>
+      </c>
+      <c r="AK120">
+        <v>1.36</v>
+      </c>
+      <c r="AL120">
+        <v>1.3</v>
+      </c>
+      <c r="AM120">
+        <v>1.44</v>
+      </c>
+      <c r="AN120">
+        <v>0.95</v>
+      </c>
+      <c r="AO120">
+        <v>1.68</v>
+      </c>
+      <c r="AP120">
+        <v>0.9</v>
+      </c>
+      <c r="AQ120">
+        <v>1.75</v>
+      </c>
+      <c r="AR120">
+        <v>1.3</v>
+      </c>
+      <c r="AS120">
+        <v>1.3</v>
+      </c>
+      <c r="AT120">
+        <v>2.6</v>
+      </c>
+      <c r="AU120">
+        <v>2</v>
+      </c>
+      <c r="AV120">
+        <v>4</v>
+      </c>
+      <c r="AW120">
+        <v>13</v>
+      </c>
+      <c r="AX120">
+        <v>6</v>
+      </c>
+      <c r="AY120">
+        <v>15</v>
+      </c>
+      <c r="AZ120">
+        <v>10</v>
+      </c>
+      <c r="BA120">
+        <v>7</v>
+      </c>
+      <c r="BB120">
+        <v>3</v>
+      </c>
+      <c r="BC120">
+        <v>10</v>
+      </c>
+      <c r="BD120">
+        <v>1.96</v>
+      </c>
+      <c r="BE120">
+        <v>7.3</v>
+      </c>
+      <c r="BF120">
+        <v>2.05</v>
+      </c>
+      <c r="BG120">
+        <v>1.5</v>
+      </c>
+      <c r="BH120">
+        <v>2.4</v>
+      </c>
+      <c r="BI120">
+        <v>1.86</v>
+      </c>
+      <c r="BJ120">
+        <v>1.88</v>
+      </c>
+      <c r="BK120">
+        <v>2.8</v>
+      </c>
+      <c r="BL120">
+        <v>1.54</v>
+      </c>
+      <c r="BM120">
+        <v>3.15</v>
+      </c>
+      <c r="BN120">
+        <v>1.26</v>
+      </c>
+      <c r="BO120">
+        <v>4</v>
+      </c>
+      <c r="BP120">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7793210</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45798.8125</v>
+      </c>
+      <c r="F121">
+        <v>20</v>
+      </c>
+      <c r="G121" t="s">
+        <v>74</v>
+      </c>
+      <c r="H121" t="s">
+        <v>81</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121">
+        <v>2</v>
+      </c>
+      <c r="O121" t="s">
+        <v>126</v>
+      </c>
+      <c r="P121" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q121">
+        <v>3.58</v>
+      </c>
+      <c r="R121">
+        <v>2</v>
+      </c>
+      <c r="S121">
+        <v>3.25</v>
+      </c>
+      <c r="T121">
+        <v>1.54</v>
+      </c>
+      <c r="U121">
+        <v>2.38</v>
+      </c>
+      <c r="V121">
+        <v>3.5</v>
+      </c>
+      <c r="W121">
+        <v>1.29</v>
+      </c>
+      <c r="X121">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y121">
+        <v>1</v>
+      </c>
+      <c r="Z121">
+        <v>2.41</v>
+      </c>
+      <c r="AA121">
+        <v>2.95</v>
+      </c>
+      <c r="AB121">
+        <v>2.65</v>
+      </c>
+      <c r="AC121">
+        <v>1.07</v>
+      </c>
+      <c r="AD121">
+        <v>6.93</v>
+      </c>
+      <c r="AE121">
+        <v>1.42</v>
+      </c>
+      <c r="AF121">
+        <v>2.49</v>
+      </c>
+      <c r="AG121">
+        <v>2.45</v>
+      </c>
+      <c r="AH121">
+        <v>1.51</v>
+      </c>
+      <c r="AI121">
+        <v>2</v>
+      </c>
+      <c r="AJ121">
+        <v>1.67</v>
+      </c>
+      <c r="AK121">
+        <v>1.4</v>
+      </c>
+      <c r="AL121">
+        <v>1.31</v>
+      </c>
+      <c r="AM121">
+        <v>1.44</v>
+      </c>
+      <c r="AN121">
+        <v>1.58</v>
+      </c>
+      <c r="AO121">
+        <v>1.95</v>
+      </c>
+      <c r="AP121">
+        <v>1.55</v>
+      </c>
+      <c r="AQ121">
+        <v>1.9</v>
+      </c>
+      <c r="AR121">
+        <v>1.67</v>
+      </c>
+      <c r="AS121">
+        <v>1.61</v>
+      </c>
+      <c r="AT121">
+        <v>3.28</v>
+      </c>
+      <c r="AU121">
+        <v>5</v>
+      </c>
+      <c r="AV121">
+        <v>5</v>
+      </c>
+      <c r="AW121">
+        <v>8</v>
+      </c>
+      <c r="AX121">
+        <v>5</v>
+      </c>
+      <c r="AY121">
+        <v>13</v>
+      </c>
+      <c r="AZ121">
+        <v>10</v>
+      </c>
+      <c r="BA121">
+        <v>5</v>
+      </c>
+      <c r="BB121">
+        <v>3</v>
+      </c>
+      <c r="BC121">
+        <v>8</v>
+      </c>
+      <c r="BD121">
+        <v>1.9</v>
+      </c>
+      <c r="BE121">
+        <v>6.9</v>
+      </c>
+      <c r="BF121">
+        <v>2.38</v>
+      </c>
+      <c r="BG121">
+        <v>1.56</v>
+      </c>
+      <c r="BH121">
+        <v>2.33</v>
+      </c>
+      <c r="BI121">
+        <v>1.91</v>
+      </c>
+      <c r="BJ121">
+        <v>1.8</v>
+      </c>
+      <c r="BK121">
+        <v>2.98</v>
+      </c>
+      <c r="BL121">
+        <v>1.46</v>
+      </c>
+      <c r="BM121">
+        <v>3.25</v>
+      </c>
+      <c r="BN121">
+        <v>1.27</v>
+      </c>
+      <c r="BO121">
+        <v>4.55</v>
+      </c>
+      <c r="BP121">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="216">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -490,6 +490,18 @@
     <t>['78']</t>
   </si>
   <si>
+    <t>['34', '56']</t>
+  </si>
+  <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
+    <t>['55', '63']</t>
+  </si>
+  <si>
     <t>['7', '90']</t>
   </si>
   <si>
@@ -647,6 +659,9 @@
   </si>
   <si>
     <t>['28', '78']</t>
+  </si>
+  <si>
+    <t>['33', '85']</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1023,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP121"/>
+  <dimension ref="A1:BP127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1267,7 +1282,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1345,10 +1360,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="AQ2">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1473,7 +1488,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1551,10 +1566,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1757,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ4">
         <v>1.05</v>
@@ -1885,7 +1900,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -1963,10 +1978,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ5">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2091,7 +2106,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2169,10 +2184,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AQ6">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2297,7 +2312,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2375,10 +2390,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ7">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2503,7 +2518,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2581,10 +2596,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AQ8">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="AR8">
         <v>1.35</v>
@@ -2709,7 +2724,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2787,10 +2802,10 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AQ9">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR9">
         <v>1.34</v>
@@ -2993,10 +3008,10 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR10">
         <v>2.15</v>
@@ -3121,7 +3136,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3202,7 +3217,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ11">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AR11">
         <v>0.7</v>
@@ -3405,10 +3420,10 @@
         <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="AQ12">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AR12">
         <v>1.05</v>
@@ -3533,7 +3548,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q13">
         <v>4.33</v>
@@ -3611,10 +3626,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AQ13">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AR13">
         <v>1.78</v>
@@ -3817,10 +3832,10 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="AQ14">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>1.54</v>
@@ -4023,7 +4038,7 @@
         <v>0.5</v>
       </c>
       <c r="AP15">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ15">
         <v>1.05</v>
@@ -4229,10 +4244,10 @@
         <v>2</v>
       </c>
       <c r="AP16">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ16">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AR16">
         <v>1.31</v>
@@ -4357,7 +4372,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4435,10 +4450,10 @@
         <v>0.5</v>
       </c>
       <c r="AP17">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AQ17">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AR17">
         <v>1.68</v>
@@ -4563,7 +4578,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q18">
         <v>3.75</v>
@@ -4641,10 +4656,10 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ18">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="AR18">
         <v>1.16</v>
@@ -4847,10 +4862,10 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AQ19">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR19">
         <v>1.79</v>
@@ -5053,7 +5068,7 @@
         <v>0.33</v>
       </c>
       <c r="AP20">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AQ20">
         <v>1.05</v>
@@ -5259,10 +5274,10 @@
         <v>1.67</v>
       </c>
       <c r="AP21">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="AQ21">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR21">
         <v>1.66</v>
@@ -5387,7 +5402,7 @@
         <v>84</v>
       </c>
       <c r="P22" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q22">
         <v>4.79</v>
@@ -5465,10 +5480,10 @@
         <v>1.33</v>
       </c>
       <c r="AP22">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AR22">
         <v>1.81</v>
@@ -5593,7 +5608,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q23">
         <v>3.74</v>
@@ -5671,10 +5686,10 @@
         <v>2.33</v>
       </c>
       <c r="AP23">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="AQ23">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AR23">
         <v>1.04</v>
@@ -5877,10 +5892,10 @@
         <v>1.33</v>
       </c>
       <c r="AP24">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AQ24">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AR24">
         <v>1.38</v>
@@ -6083,10 +6098,10 @@
         <v>1.33</v>
       </c>
       <c r="AP25">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AQ25">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR25">
         <v>1.38</v>
@@ -6211,7 +6226,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q26">
         <v>2.6</v>
@@ -6289,10 +6304,10 @@
         <v>1.25</v>
       </c>
       <c r="AP26">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ26">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR26">
         <v>1.14</v>
@@ -6495,10 +6510,10 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ27">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>1.17</v>
@@ -6623,7 +6638,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q28">
         <v>3.25</v>
@@ -6704,7 +6719,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ28">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="AR28">
         <v>1.14</v>
@@ -6829,7 +6844,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q29">
         <v>1.8</v>
@@ -6907,10 +6922,10 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ29">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AR29">
         <v>1.56</v>
@@ -7035,7 +7050,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7113,10 +7128,10 @@
         <v>1.75</v>
       </c>
       <c r="AP30">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AQ30">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="AR30">
         <v>1.83</v>
@@ -7319,10 +7334,10 @@
         <v>1.25</v>
       </c>
       <c r="AP31">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AQ31">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AR31">
         <v>1.72</v>
@@ -7447,7 +7462,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q32">
         <v>2.6</v>
@@ -7525,10 +7540,10 @@
         <v>0.8</v>
       </c>
       <c r="AP32">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="AQ32">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AR32">
         <v>1.08</v>
@@ -7731,10 +7746,10 @@
         <v>1.2</v>
       </c>
       <c r="AP33">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ33">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR33">
         <v>1.83</v>
@@ -7859,7 +7874,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q34">
         <v>3.29</v>
@@ -7937,7 +7952,7 @@
         <v>0.2</v>
       </c>
       <c r="AP34">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AQ34">
         <v>1.05</v>
@@ -8065,7 +8080,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q35">
         <v>5.47</v>
@@ -8143,10 +8158,10 @@
         <v>2.6</v>
       </c>
       <c r="AP35">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AQ35">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AR35">
         <v>1.46</v>
@@ -8271,7 +8286,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8349,10 +8364,10 @@
         <v>1.6</v>
       </c>
       <c r="AP36">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AQ36">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR36">
         <v>1.8</v>
@@ -8555,10 +8570,10 @@
         <v>1.4</v>
       </c>
       <c r="AP37">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="AQ37">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AR37">
         <v>1.52</v>
@@ -8761,10 +8776,10 @@
         <v>1.33</v>
       </c>
       <c r="AP38">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AQ38">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AR38">
         <v>1.26</v>
@@ -8967,10 +8982,10 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AQ39">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR39">
         <v>1.59</v>
@@ -9095,7 +9110,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q40">
         <v>4.4</v>
@@ -9173,10 +9188,10 @@
         <v>2.17</v>
       </c>
       <c r="AP40">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ40">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AR40">
         <v>1.37</v>
@@ -9382,7 +9397,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ41">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR41">
         <v>1.17</v>
@@ -9507,7 +9522,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9585,10 +9600,10 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ42">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="AR42">
         <v>1.17</v>
@@ -9791,10 +9806,10 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ43">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="AR43">
         <v>1.5</v>
@@ -9919,7 +9934,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q44">
         <v>3.5</v>
@@ -9997,10 +10012,10 @@
         <v>1.14</v>
       </c>
       <c r="AP44">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AQ44">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AR44">
         <v>1.37</v>
@@ -10125,7 +10140,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q45">
         <v>4.6</v>
@@ -10203,10 +10218,10 @@
         <v>2.71</v>
       </c>
       <c r="AP45">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="AQ45">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AR45">
         <v>1.43</v>
@@ -10331,7 +10346,7 @@
         <v>84</v>
       </c>
       <c r="P46" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10409,10 +10424,10 @@
         <v>1.14</v>
       </c>
       <c r="AP46">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ46">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR46">
         <v>1.32</v>
@@ -10537,7 +10552,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q47">
         <v>2.06</v>
@@ -10615,10 +10630,10 @@
         <v>1.14</v>
       </c>
       <c r="AP47">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AQ47">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR47">
         <v>1.75</v>
@@ -10821,7 +10836,7 @@
         <v>0.57</v>
       </c>
       <c r="AP48">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
         <v>1.05</v>
@@ -11027,10 +11042,10 @@
         <v>2.14</v>
       </c>
       <c r="AP49">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AQ49">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="AR49">
         <v>1.28</v>
@@ -11233,10 +11248,10 @@
         <v>1.13</v>
       </c>
       <c r="AP50">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ50">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AR50">
         <v>1.1</v>
@@ -11439,10 +11454,10 @@
         <v>0.75</v>
       </c>
       <c r="AP51">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="AQ51">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR51">
         <v>1.14</v>
@@ -11645,10 +11660,10 @@
         <v>2.13</v>
       </c>
       <c r="AP52">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AQ52">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AR52">
         <v>1.57</v>
@@ -11851,10 +11866,10 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ53">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AR53">
         <v>1.53</v>
@@ -11979,7 +11994,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12057,10 +12072,10 @@
         <v>0.75</v>
       </c>
       <c r="AP54">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AQ54">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR54">
         <v>1.4</v>
@@ -12266,7 +12281,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ55">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="AR55">
         <v>1.34</v>
@@ -12469,10 +12484,10 @@
         <v>1.22</v>
       </c>
       <c r="AP56">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="AQ56">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AR56">
         <v>1.42</v>
@@ -12597,7 +12612,7 @@
         <v>84</v>
       </c>
       <c r="P57" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q57">
         <v>4.75</v>
@@ -12675,10 +12690,10 @@
         <v>2.56</v>
       </c>
       <c r="AP57">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ57">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AR57">
         <v>1.3</v>
@@ -12881,7 +12896,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP58">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AQ58">
         <v>1.05</v>
@@ -13009,7 +13024,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q59">
         <v>4.96</v>
@@ -13087,10 +13102,10 @@
         <v>1.56</v>
       </c>
       <c r="AP59">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ59">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR59">
         <v>1.21</v>
@@ -13215,7 +13230,7 @@
         <v>84</v>
       </c>
       <c r="P60" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13293,10 +13308,10 @@
         <v>1.78</v>
       </c>
       <c r="AP60">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ60">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="AR60">
         <v>1.65</v>
@@ -13499,10 +13514,10 @@
         <v>1.33</v>
       </c>
       <c r="AP61">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AQ61">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AR61">
         <v>1.44</v>
@@ -13627,7 +13642,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q62">
         <v>2.8</v>
@@ -13705,10 +13720,10 @@
         <v>1.2</v>
       </c>
       <c r="AP62">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="AQ62">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="AR62">
         <v>1.2</v>
@@ -13911,10 +13926,10 @@
         <v>0.9</v>
       </c>
       <c r="AP63">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AQ63">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR63">
         <v>1.64</v>
@@ -14117,10 +14132,10 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ64">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR64">
         <v>1.44</v>
@@ -14245,7 +14260,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q65">
         <v>2.95</v>
@@ -14323,10 +14338,10 @@
         <v>0.9</v>
       </c>
       <c r="AP65">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AQ65">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR65">
         <v>1.17</v>
@@ -14529,10 +14544,10 @@
         <v>1.7</v>
       </c>
       <c r="AP66">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AQ66">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AR66">
         <v>1.47</v>
@@ -14738,7 +14753,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ67">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AR67">
         <v>1.43</v>
@@ -14941,10 +14956,10 @@
         <v>1.09</v>
       </c>
       <c r="AP68">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AQ68">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AR68">
         <v>1.43</v>
@@ -15069,7 +15084,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15147,10 +15162,10 @@
         <v>1.36</v>
       </c>
       <c r="AP69">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AQ69">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="AR69">
         <v>1.22</v>
@@ -15275,7 +15290,7 @@
         <v>102</v>
       </c>
       <c r="P70" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15353,10 +15368,10 @@
         <v>0.91</v>
       </c>
       <c r="AP70">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AQ70">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR70">
         <v>1.3</v>
@@ -15559,10 +15574,10 @@
         <v>1.64</v>
       </c>
       <c r="AP71">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AQ71">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR71">
         <v>1.62</v>
@@ -15687,7 +15702,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q72">
         <v>3.8</v>
@@ -15765,10 +15780,10 @@
         <v>1.64</v>
       </c>
       <c r="AP72">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="AQ72">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AR72">
         <v>1.29</v>
@@ -15974,7 +15989,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ73">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR73">
         <v>1.45</v>
@@ -16099,7 +16114,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q74">
         <v>2.8</v>
@@ -16177,10 +16192,10 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ74">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AR74">
         <v>1.18</v>
@@ -16305,7 +16320,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16383,10 +16398,10 @@
         <v>0.92</v>
       </c>
       <c r="AP75">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="AQ75">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR75">
         <v>1.43</v>
@@ -16589,7 +16604,7 @@
         <v>1.17</v>
       </c>
       <c r="AP76">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AQ76">
         <v>1.05</v>
@@ -16795,10 +16810,10 @@
         <v>0.92</v>
       </c>
       <c r="AP77">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ77">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR77">
         <v>1.45</v>
@@ -17001,10 +17016,10 @@
         <v>1.08</v>
       </c>
       <c r="AP78">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AQ78">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AR78">
         <v>1.69</v>
@@ -17207,10 +17222,10 @@
         <v>1.83</v>
       </c>
       <c r="AP79">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ79">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="AR79">
         <v>1.28</v>
@@ -17413,10 +17428,10 @@
         <v>2.54</v>
       </c>
       <c r="AP80">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AQ80">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AR80">
         <v>1.4</v>
@@ -17619,10 +17634,10 @@
         <v>1.46</v>
       </c>
       <c r="AP81">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ81">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="AR81">
         <v>1.44</v>
@@ -17747,7 +17762,7 @@
         <v>122</v>
       </c>
       <c r="P82" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17828,7 +17843,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ82">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR82">
         <v>1.47</v>
@@ -17953,7 +17968,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q83">
         <v>2.75</v>
@@ -18031,10 +18046,10 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AQ83">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AR83">
         <v>1.28</v>
@@ -18237,10 +18252,10 @@
         <v>0.77</v>
       </c>
       <c r="AP84">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="AQ84">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR84">
         <v>1.28</v>
@@ -18365,7 +18380,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q85">
         <v>4.41</v>
@@ -18443,10 +18458,10 @@
         <v>1.46</v>
       </c>
       <c r="AP85">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AQ85">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AR85">
         <v>1.32</v>
@@ -18571,7 +18586,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q86">
         <v>2.2</v>
@@ -18649,10 +18664,10 @@
         <v>1.64</v>
       </c>
       <c r="AP86">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AQ86">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="AR86">
         <v>1.64</v>
@@ -18777,7 +18792,7 @@
         <v>139</v>
       </c>
       <c r="P87" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q87">
         <v>2.2</v>
@@ -18855,10 +18870,10 @@
         <v>1.07</v>
       </c>
       <c r="AP87">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AQ87">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR87">
         <v>1.67</v>
@@ -18983,7 +18998,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q88">
         <v>3.55</v>
@@ -19061,10 +19076,10 @@
         <v>0.86</v>
       </c>
       <c r="AP88">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ88">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR88">
         <v>1.25</v>
@@ -19267,10 +19282,10 @@
         <v>1.36</v>
       </c>
       <c r="AP89">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ89">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="AR89">
         <v>1.53</v>
@@ -19395,7 +19410,7 @@
         <v>141</v>
       </c>
       <c r="P90" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19473,10 +19488,10 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ90">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AR90">
         <v>1.27</v>
@@ -19682,7 +19697,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ91">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AR91">
         <v>1.46</v>
@@ -19885,10 +19900,10 @@
         <v>0.87</v>
       </c>
       <c r="AP92">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AQ92">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR92">
         <v>1.33</v>
@@ -20013,7 +20028,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q93">
         <v>3.2</v>
@@ -20091,7 +20106,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="AQ93">
         <v>1.05</v>
@@ -20297,10 +20312,10 @@
         <v>1.07</v>
       </c>
       <c r="AP94">
+        <v>1</v>
+      </c>
+      <c r="AQ94">
         <v>1.05</v>
-      </c>
-      <c r="AQ94">
-        <v>1.1</v>
       </c>
       <c r="AR94">
         <v>1.46</v>
@@ -20503,10 +20518,10 @@
         <v>2.27</v>
       </c>
       <c r="AP95">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AQ95">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AR95">
         <v>1.3</v>
@@ -20709,10 +20724,10 @@
         <v>1.67</v>
       </c>
       <c r="AP96">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="AQ96">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AR96">
         <v>1.44</v>
@@ -20837,7 +20852,7 @@
         <v>143</v>
       </c>
       <c r="P97" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q97">
         <v>4.8</v>
@@ -20915,10 +20930,10 @@
         <v>1.67</v>
       </c>
       <c r="AP97">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AQ97">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR97">
         <v>1.39</v>
@@ -21121,10 +21136,10 @@
         <v>1</v>
       </c>
       <c r="AP98">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ98">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR98">
         <v>1.29</v>
@@ -21249,7 +21264,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21327,10 +21342,10 @@
         <v>1.81</v>
       </c>
       <c r="AP99">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AQ99">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="AR99">
         <v>1.4</v>
@@ -21455,7 +21470,7 @@
         <v>146</v>
       </c>
       <c r="P100" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q100">
         <v>2.8</v>
@@ -21533,10 +21548,10 @@
         <v>1.63</v>
       </c>
       <c r="AP100">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ100">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AR100">
         <v>1.58</v>
@@ -21742,7 +21757,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ101">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AR101">
         <v>1.59</v>
@@ -21945,10 +21960,10 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AQ102">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR102">
         <v>1.57</v>
@@ -22073,7 +22088,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q103">
         <v>3.15</v>
@@ -22151,10 +22166,10 @@
         <v>1.25</v>
       </c>
       <c r="AP103">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ103">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="AR103">
         <v>1.2</v>
@@ -22357,10 +22372,10 @@
         <v>0.88</v>
       </c>
       <c r="AP104">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="AQ104">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR104">
         <v>1.47</v>
@@ -22485,7 +22500,7 @@
         <v>149</v>
       </c>
       <c r="P105" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -22563,7 +22578,7 @@
         <v>0.88</v>
       </c>
       <c r="AP105">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AQ105">
         <v>1.05</v>
@@ -22691,7 +22706,7 @@
         <v>84</v>
       </c>
       <c r="P106" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q106">
         <v>3.65</v>
@@ -22769,10 +22784,10 @@
         <v>1.65</v>
       </c>
       <c r="AP106">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="AQ106">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR106">
         <v>1.31</v>
@@ -22897,7 +22912,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q107">
         <v>2.7</v>
@@ -22975,10 +22990,10 @@
         <v>1.24</v>
       </c>
       <c r="AP107">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AQ107">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AR107">
         <v>1.27</v>
@@ -23103,7 +23118,7 @@
         <v>84</v>
       </c>
       <c r="P108" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q108">
         <v>2.2</v>
@@ -23181,10 +23196,10 @@
         <v>1.06</v>
       </c>
       <c r="AP108">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AQ108">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AR108">
         <v>1.7</v>
@@ -23387,10 +23402,10 @@
         <v>2.12</v>
       </c>
       <c r="AP109">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ109">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AR109">
         <v>1.46</v>
@@ -23515,7 +23530,7 @@
         <v>151</v>
       </c>
       <c r="P110" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -23593,10 +23608,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP110">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AQ110">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AR110">
         <v>1.41</v>
@@ -23799,10 +23814,10 @@
         <v>1.17</v>
       </c>
       <c r="AP111">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ111">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AR111">
         <v>1.55</v>
@@ -24008,7 +24023,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ112">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR112">
         <v>1.66</v>
@@ -24133,7 +24148,7 @@
         <v>154</v>
       </c>
       <c r="P113" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q113">
         <v>2.15</v>
@@ -24211,10 +24226,10 @@
         <v>1.33</v>
       </c>
       <c r="AP113">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AQ113">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="AR113">
         <v>1.63</v>
@@ -24417,10 +24432,10 @@
         <v>1.61</v>
       </c>
       <c r="AP114">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AQ114">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AR114">
         <v>1.32</v>
@@ -24545,7 +24560,7 @@
         <v>155</v>
       </c>
       <c r="P115" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q115">
         <v>2.9</v>
@@ -24623,10 +24638,10 @@
         <v>1.17</v>
       </c>
       <c r="AP115">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="AQ115">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AR115">
         <v>1.32</v>
@@ -24829,10 +24844,10 @@
         <v>1.32</v>
       </c>
       <c r="AP116">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ116">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AR116">
         <v>1.39</v>
@@ -25035,7 +25050,7 @@
         <v>1.11</v>
       </c>
       <c r="AP117">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="AQ117">
         <v>1.05</v>
@@ -25163,7 +25178,7 @@
         <v>157</v>
       </c>
       <c r="P118" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q118">
         <v>3.3</v>
@@ -25241,10 +25256,10 @@
         <v>0.84</v>
       </c>
       <c r="AP118">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ118">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AR118">
         <v>1.28</v>
@@ -25447,10 +25462,10 @@
         <v>1.79</v>
       </c>
       <c r="AP119">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AQ119">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AR119">
         <v>1.33</v>
@@ -25575,7 +25590,7 @@
         <v>97</v>
       </c>
       <c r="P120" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q120">
         <v>3.25</v>
@@ -25653,10 +25668,10 @@
         <v>1.68</v>
       </c>
       <c r="AP120">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="AQ120">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="AR120">
         <v>1.3</v>
@@ -25859,10 +25874,10 @@
         <v>1.95</v>
       </c>
       <c r="AP121">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AQ121">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AR121">
         <v>1.67</v>
@@ -25938,6 +25953,1242 @@
       </c>
       <c r="BP121">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7793216</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45801.79166666666</v>
+      </c>
+      <c r="F122">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
+        <v>79</v>
+      </c>
+      <c r="H122" t="s">
+        <v>71</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>2</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>3</v>
+      </c>
+      <c r="O122" t="s">
+        <v>158</v>
+      </c>
+      <c r="P122" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q122">
+        <v>2.71</v>
+      </c>
+      <c r="R122">
+        <v>1.94</v>
+      </c>
+      <c r="S122">
+        <v>4</v>
+      </c>
+      <c r="T122">
+        <v>1.42</v>
+      </c>
+      <c r="U122">
+        <v>2.67</v>
+      </c>
+      <c r="V122">
+        <v>3.1</v>
+      </c>
+      <c r="W122">
+        <v>1.32</v>
+      </c>
+      <c r="X122">
+        <v>9.6</v>
+      </c>
+      <c r="Y122">
+        <v>1.06</v>
+      </c>
+      <c r="Z122">
+        <v>1.91</v>
+      </c>
+      <c r="AA122">
+        <v>3.25</v>
+      </c>
+      <c r="AB122">
+        <v>3.5</v>
+      </c>
+      <c r="AC122">
+        <v>1.07</v>
+      </c>
+      <c r="AD122">
+        <v>7.5</v>
+      </c>
+      <c r="AE122">
+        <v>1.38</v>
+      </c>
+      <c r="AF122">
+        <v>2.8</v>
+      </c>
+      <c r="AG122">
+        <v>2.22</v>
+      </c>
+      <c r="AH122">
+        <v>1.62</v>
+      </c>
+      <c r="AI122">
+        <v>2</v>
+      </c>
+      <c r="AJ122">
+        <v>1.78</v>
+      </c>
+      <c r="AK122">
+        <v>1.27</v>
+      </c>
+      <c r="AL122">
+        <v>1.31</v>
+      </c>
+      <c r="AM122">
+        <v>1.64</v>
+      </c>
+      <c r="AN122">
+        <v>1.75</v>
+      </c>
+      <c r="AO122">
+        <v>1.05</v>
+      </c>
+      <c r="AP122">
+        <v>1.81</v>
+      </c>
+      <c r="AQ122">
+        <v>1</v>
+      </c>
+      <c r="AR122">
+        <v>1.29</v>
+      </c>
+      <c r="AS122">
+        <v>1.4</v>
+      </c>
+      <c r="AT122">
+        <v>2.69</v>
+      </c>
+      <c r="AU122">
+        <v>7</v>
+      </c>
+      <c r="AV122">
+        <v>3</v>
+      </c>
+      <c r="AW122">
+        <v>5</v>
+      </c>
+      <c r="AX122">
+        <v>8</v>
+      </c>
+      <c r="AY122">
+        <v>12</v>
+      </c>
+      <c r="AZ122">
+        <v>11</v>
+      </c>
+      <c r="BA122">
+        <v>4</v>
+      </c>
+      <c r="BB122">
+        <v>6</v>
+      </c>
+      <c r="BC122">
+        <v>10</v>
+      </c>
+      <c r="BD122">
+        <v>1.76</v>
+      </c>
+      <c r="BE122">
+        <v>6.1</v>
+      </c>
+      <c r="BF122">
+        <v>2.34</v>
+      </c>
+      <c r="BG122">
+        <v>1.4</v>
+      </c>
+      <c r="BH122">
+        <v>2.62</v>
+      </c>
+      <c r="BI122">
+        <v>1.75</v>
+      </c>
+      <c r="BJ122">
+        <v>2.05</v>
+      </c>
+      <c r="BK122">
+        <v>2.62</v>
+      </c>
+      <c r="BL122">
+        <v>1.58</v>
+      </c>
+      <c r="BM122">
+        <v>2.7</v>
+      </c>
+      <c r="BN122">
+        <v>1.36</v>
+      </c>
+      <c r="BO122">
+        <v>3.85</v>
+      </c>
+      <c r="BP122">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7793213</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45801.79166666666</v>
+      </c>
+      <c r="F123">
+        <v>21</v>
+      </c>
+      <c r="G123" t="s">
+        <v>81</v>
+      </c>
+      <c r="H123" t="s">
+        <v>73</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>1</v>
+      </c>
+      <c r="O123" t="s">
+        <v>135</v>
+      </c>
+      <c r="P123" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q123">
+        <v>1.85</v>
+      </c>
+      <c r="R123">
+        <v>2.3</v>
+      </c>
+      <c r="S123">
+        <v>8.5</v>
+      </c>
+      <c r="T123">
+        <v>1.39</v>
+      </c>
+      <c r="U123">
+        <v>2.93</v>
+      </c>
+      <c r="V123">
+        <v>2.89</v>
+      </c>
+      <c r="W123">
+        <v>1.37</v>
+      </c>
+      <c r="X123">
+        <v>7.2</v>
+      </c>
+      <c r="Y123">
+        <v>1.03</v>
+      </c>
+      <c r="Z123">
+        <v>1.43</v>
+      </c>
+      <c r="AA123">
+        <v>4.46</v>
+      </c>
+      <c r="AB123">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC123">
+        <v>1.01</v>
+      </c>
+      <c r="AD123">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE123">
+        <v>1.3</v>
+      </c>
+      <c r="AF123">
+        <v>3.35</v>
+      </c>
+      <c r="AG123">
+        <v>1.96</v>
+      </c>
+      <c r="AH123">
+        <v>1.73</v>
+      </c>
+      <c r="AI123">
+        <v>2.37</v>
+      </c>
+      <c r="AJ123">
+        <v>1.56</v>
+      </c>
+      <c r="AK123">
+        <v>1.08</v>
+      </c>
+      <c r="AL123">
+        <v>1.22</v>
+      </c>
+      <c r="AM123">
+        <v>3</v>
+      </c>
+      <c r="AN123">
+        <v>1.9</v>
+      </c>
+      <c r="AO123">
+        <v>1.1</v>
+      </c>
+      <c r="AP123">
+        <v>1.95</v>
+      </c>
+      <c r="AQ123">
+        <v>1.05</v>
+      </c>
+      <c r="AR123">
+        <v>1.59</v>
+      </c>
+      <c r="AS123">
+        <v>1.28</v>
+      </c>
+      <c r="AT123">
+        <v>2.87</v>
+      </c>
+      <c r="AU123">
+        <v>5</v>
+      </c>
+      <c r="AV123">
+        <v>3</v>
+      </c>
+      <c r="AW123">
+        <v>16</v>
+      </c>
+      <c r="AX123">
+        <v>3</v>
+      </c>
+      <c r="AY123">
+        <v>21</v>
+      </c>
+      <c r="AZ123">
+        <v>6</v>
+      </c>
+      <c r="BA123">
+        <v>8</v>
+      </c>
+      <c r="BB123">
+        <v>3</v>
+      </c>
+      <c r="BC123">
+        <v>11</v>
+      </c>
+      <c r="BD123">
+        <v>1.44</v>
+      </c>
+      <c r="BE123">
+        <v>9.1</v>
+      </c>
+      <c r="BF123">
+        <v>4.15</v>
+      </c>
+      <c r="BG123">
+        <v>1.55</v>
+      </c>
+      <c r="BH123">
+        <v>2.36</v>
+      </c>
+      <c r="BI123">
+        <v>1.97</v>
+      </c>
+      <c r="BJ123">
+        <v>1.85</v>
+      </c>
+      <c r="BK123">
+        <v>2.9</v>
+      </c>
+      <c r="BL123">
+        <v>1.5</v>
+      </c>
+      <c r="BM123">
+        <v>3.14</v>
+      </c>
+      <c r="BN123">
+        <v>1.27</v>
+      </c>
+      <c r="BO123">
+        <v>4.4</v>
+      </c>
+      <c r="BP123">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7793212</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45801.79166666666</v>
+      </c>
+      <c r="F124">
+        <v>21</v>
+      </c>
+      <c r="G124" t="s">
+        <v>75</v>
+      </c>
+      <c r="H124" t="s">
+        <v>72</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>2</v>
+      </c>
+      <c r="O124" t="s">
+        <v>159</v>
+      </c>
+      <c r="P124" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q124">
+        <v>1.91</v>
+      </c>
+      <c r="R124">
+        <v>2.3</v>
+      </c>
+      <c r="S124">
+        <v>7.5</v>
+      </c>
+      <c r="T124">
+        <v>1.4</v>
+      </c>
+      <c r="U124">
+        <v>2.7</v>
+      </c>
+      <c r="V124">
+        <v>3.1</v>
+      </c>
+      <c r="W124">
+        <v>1.36</v>
+      </c>
+      <c r="X124">
+        <v>8.1</v>
+      </c>
+      <c r="Y124">
+        <v>1.07</v>
+      </c>
+      <c r="Z124">
+        <v>1.36</v>
+      </c>
+      <c r="AA124">
+        <v>4.42</v>
+      </c>
+      <c r="AB124">
+        <v>7.8</v>
+      </c>
+      <c r="AC124">
+        <v>1.01</v>
+      </c>
+      <c r="AD124">
+        <v>8.5</v>
+      </c>
+      <c r="AE124">
+        <v>1.31</v>
+      </c>
+      <c r="AF124">
+        <v>2.9</v>
+      </c>
+      <c r="AG124">
+        <v>2.1</v>
+      </c>
+      <c r="AH124">
+        <v>1.66</v>
+      </c>
+      <c r="AI124">
+        <v>2.4</v>
+      </c>
+      <c r="AJ124">
+        <v>1.53</v>
+      </c>
+      <c r="AK124">
+        <v>1.22</v>
+      </c>
+      <c r="AL124">
+        <v>1.24</v>
+      </c>
+      <c r="AM124">
+        <v>2.88</v>
+      </c>
+      <c r="AN124">
+        <v>1.75</v>
+      </c>
+      <c r="AO124">
+        <v>0.85</v>
+      </c>
+      <c r="AP124">
+        <v>1.71</v>
+      </c>
+      <c r="AQ124">
+        <v>0.86</v>
+      </c>
+      <c r="AR124">
+        <v>1.56</v>
+      </c>
+      <c r="AS124">
+        <v>1.32</v>
+      </c>
+      <c r="AT124">
+        <v>2.88</v>
+      </c>
+      <c r="AU124">
+        <v>6</v>
+      </c>
+      <c r="AV124">
+        <v>4</v>
+      </c>
+      <c r="AW124">
+        <v>16</v>
+      </c>
+      <c r="AX124">
+        <v>1</v>
+      </c>
+      <c r="AY124">
+        <v>22</v>
+      </c>
+      <c r="AZ124">
+        <v>5</v>
+      </c>
+      <c r="BA124">
+        <v>3</v>
+      </c>
+      <c r="BB124">
+        <v>4</v>
+      </c>
+      <c r="BC124">
+        <v>7</v>
+      </c>
+      <c r="BD124">
+        <v>1.27</v>
+      </c>
+      <c r="BE124">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF124">
+        <v>4.1</v>
+      </c>
+      <c r="BG124">
+        <v>1.38</v>
+      </c>
+      <c r="BH124">
+        <v>2.8</v>
+      </c>
+      <c r="BI124">
+        <v>1.69</v>
+      </c>
+      <c r="BJ124">
+        <v>2.09</v>
+      </c>
+      <c r="BK124">
+        <v>2.48</v>
+      </c>
+      <c r="BL124">
+        <v>1.7</v>
+      </c>
+      <c r="BM124">
+        <v>2.62</v>
+      </c>
+      <c r="BN124">
+        <v>1.33</v>
+      </c>
+      <c r="BO124">
+        <v>3.6</v>
+      </c>
+      <c r="BP124">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7793214</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45802.6875</v>
+      </c>
+      <c r="F125">
+        <v>21</v>
+      </c>
+      <c r="G125" t="s">
+        <v>78</v>
+      </c>
+      <c r="H125" t="s">
+        <v>74</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125">
+        <v>2</v>
+      </c>
+      <c r="O125" t="s">
+        <v>160</v>
+      </c>
+      <c r="P125" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q125">
+        <v>3.65</v>
+      </c>
+      <c r="R125">
+        <v>2</v>
+      </c>
+      <c r="S125">
+        <v>3.2</v>
+      </c>
+      <c r="T125">
+        <v>1.52</v>
+      </c>
+      <c r="U125">
+        <v>2.35</v>
+      </c>
+      <c r="V125">
+        <v>3.5</v>
+      </c>
+      <c r="W125">
+        <v>1.25</v>
+      </c>
+      <c r="X125">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y125">
+        <v>1</v>
+      </c>
+      <c r="Z125">
+        <v>2.97</v>
+      </c>
+      <c r="AA125">
+        <v>2.82</v>
+      </c>
+      <c r="AB125">
+        <v>2.33</v>
+      </c>
+      <c r="AC125">
+        <v>1.07</v>
+      </c>
+      <c r="AD125">
+        <v>6.5</v>
+      </c>
+      <c r="AE125">
+        <v>1.44</v>
+      </c>
+      <c r="AF125">
+        <v>2.5</v>
+      </c>
+      <c r="AG125">
+        <v>2.5</v>
+      </c>
+      <c r="AH125">
+        <v>1.49</v>
+      </c>
+      <c r="AI125">
+        <v>2</v>
+      </c>
+      <c r="AJ125">
+        <v>1.73</v>
+      </c>
+      <c r="AK125">
+        <v>1.35</v>
+      </c>
+      <c r="AL125">
+        <v>1.35</v>
+      </c>
+      <c r="AM125">
+        <v>1.39</v>
+      </c>
+      <c r="AN125">
+        <v>1.05</v>
+      </c>
+      <c r="AO125">
+        <v>1.55</v>
+      </c>
+      <c r="AP125">
+        <v>1.05</v>
+      </c>
+      <c r="AQ125">
+        <v>1.52</v>
+      </c>
+      <c r="AR125">
+        <v>1.66</v>
+      </c>
+      <c r="AS125">
+        <v>1.66</v>
+      </c>
+      <c r="AT125">
+        <v>3.32</v>
+      </c>
+      <c r="AU125">
+        <v>5</v>
+      </c>
+      <c r="AV125">
+        <v>6</v>
+      </c>
+      <c r="AW125">
+        <v>7</v>
+      </c>
+      <c r="AX125">
+        <v>13</v>
+      </c>
+      <c r="AY125">
+        <v>12</v>
+      </c>
+      <c r="AZ125">
+        <v>19</v>
+      </c>
+      <c r="BA125">
+        <v>2</v>
+      </c>
+      <c r="BB125">
+        <v>4</v>
+      </c>
+      <c r="BC125">
+        <v>6</v>
+      </c>
+      <c r="BD125">
+        <v>2.07</v>
+      </c>
+      <c r="BE125">
+        <v>6.25</v>
+      </c>
+      <c r="BF125">
+        <v>1.95</v>
+      </c>
+      <c r="BG125">
+        <v>1.49</v>
+      </c>
+      <c r="BH125">
+        <v>2.35</v>
+      </c>
+      <c r="BI125">
+        <v>1.86</v>
+      </c>
+      <c r="BJ125">
+        <v>1.94</v>
+      </c>
+      <c r="BK125">
+        <v>2.3</v>
+      </c>
+      <c r="BL125">
+        <v>1.56</v>
+      </c>
+      <c r="BM125">
+        <v>3.05</v>
+      </c>
+      <c r="BN125">
+        <v>1.24</v>
+      </c>
+      <c r="BO125">
+        <v>4</v>
+      </c>
+      <c r="BP125">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7793217</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45803.6875</v>
+      </c>
+      <c r="F126">
+        <v>21</v>
+      </c>
+      <c r="G126" t="s">
+        <v>80</v>
+      </c>
+      <c r="H126" t="s">
+        <v>76</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>2</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>2</v>
+      </c>
+      <c r="O126" t="s">
+        <v>161</v>
+      </c>
+      <c r="P126" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q126">
+        <v>2.35</v>
+      </c>
+      <c r="R126">
+        <v>2.05</v>
+      </c>
+      <c r="S126">
+        <v>4.45</v>
+      </c>
+      <c r="T126">
+        <v>1.51</v>
+      </c>
+      <c r="U126">
+        <v>2.4</v>
+      </c>
+      <c r="V126">
+        <v>3.3</v>
+      </c>
+      <c r="W126">
+        <v>1.27</v>
+      </c>
+      <c r="X126">
+        <v>10</v>
+      </c>
+      <c r="Y126">
+        <v>1.04</v>
+      </c>
+      <c r="Z126">
+        <v>2.23</v>
+      </c>
+      <c r="AA126">
+        <v>2.8</v>
+      </c>
+      <c r="AB126">
+        <v>3.18</v>
+      </c>
+      <c r="AC126">
+        <v>1.1</v>
+      </c>
+      <c r="AD126">
+        <v>6.25</v>
+      </c>
+      <c r="AE126">
+        <v>1.49</v>
+      </c>
+      <c r="AF126">
+        <v>2.5</v>
+      </c>
+      <c r="AG126">
+        <v>2.3</v>
+      </c>
+      <c r="AH126">
+        <v>1.5</v>
+      </c>
+      <c r="AI126">
+        <v>1.93</v>
+      </c>
+      <c r="AJ126">
+        <v>1.67</v>
+      </c>
+      <c r="AK126">
+        <v>1.18</v>
+      </c>
+      <c r="AL126">
+        <v>1.33</v>
+      </c>
+      <c r="AM126">
+        <v>1.72</v>
+      </c>
+      <c r="AN126">
+        <v>1.25</v>
+      </c>
+      <c r="AO126">
+        <v>0.9</v>
+      </c>
+      <c r="AP126">
+        <v>1.33</v>
+      </c>
+      <c r="AQ126">
+        <v>0.86</v>
+      </c>
+      <c r="AR126">
+        <v>1.3</v>
+      </c>
+      <c r="AS126">
+        <v>1.31</v>
+      </c>
+      <c r="AT126">
+        <v>2.61</v>
+      </c>
+      <c r="AU126">
+        <v>4</v>
+      </c>
+      <c r="AV126">
+        <v>0</v>
+      </c>
+      <c r="AW126">
+        <v>9</v>
+      </c>
+      <c r="AX126">
+        <v>5</v>
+      </c>
+      <c r="AY126">
+        <v>13</v>
+      </c>
+      <c r="AZ126">
+        <v>5</v>
+      </c>
+      <c r="BA126">
+        <v>3</v>
+      </c>
+      <c r="BB126">
+        <v>3</v>
+      </c>
+      <c r="BC126">
+        <v>6</v>
+      </c>
+      <c r="BD126">
+        <v>1.68</v>
+      </c>
+      <c r="BE126">
+        <v>7.1</v>
+      </c>
+      <c r="BF126">
+        <v>2.48</v>
+      </c>
+      <c r="BG126">
+        <v>1.48</v>
+      </c>
+      <c r="BH126">
+        <v>2.4</v>
+      </c>
+      <c r="BI126">
+        <v>2.04</v>
+      </c>
+      <c r="BJ126">
+        <v>1.77</v>
+      </c>
+      <c r="BK126">
+        <v>2.58</v>
+      </c>
+      <c r="BL126">
+        <v>1.46</v>
+      </c>
+      <c r="BM126">
+        <v>3.6</v>
+      </c>
+      <c r="BN126">
+        <v>1.25</v>
+      </c>
+      <c r="BO126">
+        <v>4.75</v>
+      </c>
+      <c r="BP126">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7793215</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45803.79166666666</v>
+      </c>
+      <c r="F127">
+        <v>21</v>
+      </c>
+      <c r="G127" t="s">
+        <v>77</v>
+      </c>
+      <c r="H127" t="s">
+        <v>70</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>2</v>
+      </c>
+      <c r="N127">
+        <v>3</v>
+      </c>
+      <c r="O127" t="s">
+        <v>159</v>
+      </c>
+      <c r="P127" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q127">
+        <v>3.7</v>
+      </c>
+      <c r="R127">
+        <v>2.05</v>
+      </c>
+      <c r="S127">
+        <v>2.99</v>
+      </c>
+      <c r="T127">
+        <v>1.35</v>
+      </c>
+      <c r="U127">
+        <v>2.65</v>
+      </c>
+      <c r="V127">
+        <v>3.04</v>
+      </c>
+      <c r="W127">
+        <v>1.4</v>
+      </c>
+      <c r="X127">
+        <v>8.5</v>
+      </c>
+      <c r="Y127">
+        <v>1.08</v>
+      </c>
+      <c r="Z127">
+        <v>3.05</v>
+      </c>
+      <c r="AA127">
+        <v>3.2</v>
+      </c>
+      <c r="AB127">
+        <v>2.11</v>
+      </c>
+      <c r="AC127">
+        <v>1.06</v>
+      </c>
+      <c r="AD127">
+        <v>8.5</v>
+      </c>
+      <c r="AE127">
+        <v>1.3</v>
+      </c>
+      <c r="AF127">
+        <v>3.2</v>
+      </c>
+      <c r="AG127">
+        <v>2.11</v>
+      </c>
+      <c r="AH127">
+        <v>1.73</v>
+      </c>
+      <c r="AI127">
+        <v>1.67</v>
+      </c>
+      <c r="AJ127">
+        <v>1.95</v>
+      </c>
+      <c r="AK127">
+        <v>1.36</v>
+      </c>
+      <c r="AL127">
+        <v>1.3</v>
+      </c>
+      <c r="AM127">
+        <v>1.28</v>
+      </c>
+      <c r="AN127">
+        <v>1.3</v>
+      </c>
+      <c r="AO127">
+        <v>1.4</v>
+      </c>
+      <c r="AP127">
+        <v>1.24</v>
+      </c>
+      <c r="AQ127">
+        <v>1.48</v>
+      </c>
+      <c r="AR127">
+        <v>1.41</v>
+      </c>
+      <c r="AS127">
+        <v>1.54</v>
+      </c>
+      <c r="AT127">
+        <v>2.95</v>
+      </c>
+      <c r="AU127">
+        <v>6</v>
+      </c>
+      <c r="AV127">
+        <v>4</v>
+      </c>
+      <c r="AW127">
+        <v>9</v>
+      </c>
+      <c r="AX127">
+        <v>6</v>
+      </c>
+      <c r="AY127">
+        <v>15</v>
+      </c>
+      <c r="AZ127">
+        <v>10</v>
+      </c>
+      <c r="BA127">
+        <v>3</v>
+      </c>
+      <c r="BB127">
+        <v>0</v>
+      </c>
+      <c r="BC127">
+        <v>3</v>
+      </c>
+      <c r="BD127">
+        <v>2.23</v>
+      </c>
+      <c r="BE127">
+        <v>7.3</v>
+      </c>
+      <c r="BF127">
+        <v>1.95</v>
+      </c>
+      <c r="BG127">
+        <v>1.34</v>
+      </c>
+      <c r="BH127">
+        <v>2.6</v>
+      </c>
+      <c r="BI127">
+        <v>1.63</v>
+      </c>
+      <c r="BJ127">
+        <v>2.18</v>
+      </c>
+      <c r="BK127">
+        <v>2.36</v>
+      </c>
+      <c r="BL127">
+        <v>1.6</v>
+      </c>
+      <c r="BM127">
+        <v>2.62</v>
+      </c>
+      <c r="BN127">
+        <v>1.44</v>
+      </c>
+      <c r="BO127">
+        <v>3.9</v>
+      </c>
+      <c r="BP127">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="218">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -502,6 +502,9 @@
     <t>['55', '63']</t>
   </si>
   <si>
+    <t>['13', '90+2']</t>
+  </si>
+  <si>
     <t>['7', '90']</t>
   </si>
   <si>
@@ -662,6 +665,9 @@
   </si>
   <si>
     <t>['33', '85']</t>
+  </si>
+  <si>
+    <t>['2', '43', '60', '67']</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1029,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP127"/>
+  <dimension ref="A1:BP128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1282,7 +1288,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1488,7 +1494,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1775,7 +1781,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ4">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1900,7 +1906,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -1978,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
         <v>1.24</v>
@@ -2106,7 +2112,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2312,7 +2318,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2518,7 +2524,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2724,7 +2730,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -3136,7 +3142,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3214,7 +3220,7 @@
         <v>1</v>
       </c>
       <c r="AP11">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AQ11">
         <v>1.95</v>
@@ -3423,7 +3429,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ12">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>1.05</v>
@@ -3548,7 +3554,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q13">
         <v>4.33</v>
@@ -4041,7 +4047,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ15">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AR15">
         <v>1.24</v>
@@ -4244,7 +4250,7 @@
         <v>2</v>
       </c>
       <c r="AP16">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
         <v>1.33</v>
@@ -4372,7 +4378,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4578,7 +4584,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q18">
         <v>3.75</v>
@@ -5071,7 +5077,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ20">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AR20">
         <v>1.3</v>
@@ -5402,7 +5408,7 @@
         <v>84</v>
       </c>
       <c r="P22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q22">
         <v>4.79</v>
@@ -5608,7 +5614,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q23">
         <v>3.74</v>
@@ -5895,7 +5901,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ24">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR24">
         <v>1.38</v>
@@ -6226,7 +6232,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q26">
         <v>2.6</v>
@@ -6510,7 +6516,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -6638,7 +6644,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q28">
         <v>3.25</v>
@@ -6716,7 +6722,7 @@
         <v>2.25</v>
       </c>
       <c r="AP28">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AQ28">
         <v>1.81</v>
@@ -6844,7 +6850,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q29">
         <v>1.8</v>
@@ -7050,7 +7056,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7462,7 +7468,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q32">
         <v>2.6</v>
@@ -7874,7 +7880,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q34">
         <v>3.29</v>
@@ -7955,7 +7961,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ34">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AR34">
         <v>1.34</v>
@@ -8080,7 +8086,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q35">
         <v>5.47</v>
@@ -8286,7 +8292,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8573,7 +8579,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ37">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR37">
         <v>1.52</v>
@@ -9110,7 +9116,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q40">
         <v>4.4</v>
@@ -9188,7 +9194,7 @@
         <v>2.17</v>
       </c>
       <c r="AP40">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ40">
         <v>1.52</v>
@@ -9394,7 +9400,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AQ41">
         <v>0.86</v>
@@ -9522,7 +9528,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9934,7 +9940,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q44">
         <v>3.5</v>
@@ -10140,7 +10146,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q45">
         <v>4.6</v>
@@ -10346,7 +10352,7 @@
         <v>84</v>
       </c>
       <c r="P46" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10424,7 +10430,7 @@
         <v>1.14</v>
       </c>
       <c r="AP46">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ46">
         <v>1.71</v>
@@ -10552,7 +10558,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q47">
         <v>2.06</v>
@@ -10839,7 +10845,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AR48">
         <v>1.65</v>
@@ -11251,7 +11257,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ50">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR50">
         <v>1.1</v>
@@ -11994,7 +12000,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12278,7 +12284,7 @@
         <v>1.25</v>
       </c>
       <c r="AP55">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AQ55">
         <v>1.48</v>
@@ -12612,7 +12618,7 @@
         <v>84</v>
       </c>
       <c r="P57" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q57">
         <v>4.75</v>
@@ -12690,7 +12696,7 @@
         <v>2.56</v>
       </c>
       <c r="AP57">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ57">
         <v>1.95</v>
@@ -12899,7 +12905,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ58">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AR58">
         <v>1.71</v>
@@ -13024,7 +13030,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q59">
         <v>4.96</v>
@@ -13230,7 +13236,7 @@
         <v>84</v>
       </c>
       <c r="P60" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13642,7 +13648,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q62">
         <v>2.8</v>
@@ -14260,7 +14266,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q65">
         <v>2.95</v>
@@ -14750,10 +14756,10 @@
         <v>1.2</v>
       </c>
       <c r="AP67">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AQ67">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR67">
         <v>1.43</v>
@@ -14959,7 +14965,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ68">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR68">
         <v>1.43</v>
@@ -15084,7 +15090,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15290,7 +15296,7 @@
         <v>102</v>
       </c>
       <c r="P70" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15702,7 +15708,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q72">
         <v>3.8</v>
@@ -15986,7 +15992,7 @@
         <v>0.91</v>
       </c>
       <c r="AP73">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AQ73">
         <v>0.86</v>
@@ -16114,7 +16120,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q74">
         <v>2.8</v>
@@ -16320,7 +16326,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16607,7 +16613,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ76">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AR76">
         <v>1.6</v>
@@ -17222,7 +17228,7 @@
         <v>1.83</v>
       </c>
       <c r="AP79">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ79">
         <v>1.81</v>
@@ -17762,7 +17768,7 @@
         <v>122</v>
       </c>
       <c r="P82" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17840,7 +17846,7 @@
         <v>1.46</v>
       </c>
       <c r="AP82">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AQ82">
         <v>1.71</v>
@@ -17968,7 +17974,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q83">
         <v>2.75</v>
@@ -18049,7 +18055,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ83">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR83">
         <v>1.28</v>
@@ -18380,7 +18386,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q85">
         <v>4.41</v>
@@ -18586,7 +18592,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q86">
         <v>2.2</v>
@@ -18792,7 +18798,7 @@
         <v>139</v>
       </c>
       <c r="P87" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q87">
         <v>2.2</v>
@@ -18998,7 +19004,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q88">
         <v>3.55</v>
@@ -19076,7 +19082,7 @@
         <v>0.86</v>
       </c>
       <c r="AP88">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ88">
         <v>0.86</v>
@@ -19410,7 +19416,7 @@
         <v>141</v>
       </c>
       <c r="P90" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19694,7 +19700,7 @@
         <v>1.43</v>
       </c>
       <c r="AP91">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AQ91">
         <v>1.24</v>
@@ -20028,7 +20034,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q93">
         <v>3.2</v>
@@ -20109,7 +20115,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ93">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AR93">
         <v>1.29</v>
@@ -20315,7 +20321,7 @@
         <v>1</v>
       </c>
       <c r="AQ94">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR94">
         <v>1.46</v>
@@ -20852,7 +20858,7 @@
         <v>143</v>
       </c>
       <c r="P97" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q97">
         <v>4.8</v>
@@ -21264,7 +21270,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21470,7 +21476,7 @@
         <v>146</v>
       </c>
       <c r="P100" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q100">
         <v>2.8</v>
@@ -21754,7 +21760,7 @@
         <v>1.13</v>
       </c>
       <c r="AP101">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AQ101">
         <v>1.33</v>
@@ -22088,7 +22094,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q103">
         <v>3.15</v>
@@ -22166,7 +22172,7 @@
         <v>1.25</v>
       </c>
       <c r="AP103">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ103">
         <v>1.48</v>
@@ -22500,7 +22506,7 @@
         <v>149</v>
       </c>
       <c r="P105" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -22581,7 +22587,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ105">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AR105">
         <v>1.31</v>
@@ -22706,7 +22712,7 @@
         <v>84</v>
       </c>
       <c r="P106" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q106">
         <v>3.65</v>
@@ -22912,7 +22918,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q107">
         <v>2.7</v>
@@ -23118,7 +23124,7 @@
         <v>84</v>
       </c>
       <c r="P108" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q108">
         <v>2.2</v>
@@ -23199,7 +23205,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ108">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR108">
         <v>1.7</v>
@@ -23530,7 +23536,7 @@
         <v>151</v>
       </c>
       <c r="P110" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -23817,7 +23823,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ111">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR111">
         <v>1.55</v>
@@ -24020,7 +24026,7 @@
         <v>1.11</v>
       </c>
       <c r="AP112">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AQ112">
         <v>1</v>
@@ -24148,7 +24154,7 @@
         <v>154</v>
       </c>
       <c r="P113" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q113">
         <v>2.15</v>
@@ -24560,7 +24566,7 @@
         <v>155</v>
       </c>
       <c r="P115" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q115">
         <v>2.9</v>
@@ -25053,7 +25059,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ117">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AR117">
         <v>1.54</v>
@@ -25178,7 +25184,7 @@
         <v>157</v>
       </c>
       <c r="P118" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q118">
         <v>3.3</v>
@@ -25256,7 +25262,7 @@
         <v>0.84</v>
       </c>
       <c r="AP118">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ118">
         <v>0.86</v>
@@ -25590,7 +25596,7 @@
         <v>97</v>
       </c>
       <c r="P120" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q120">
         <v>3.25</v>
@@ -26002,7 +26008,7 @@
         <v>158</v>
       </c>
       <c r="P122" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q122">
         <v>2.71</v>
@@ -26289,7 +26295,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ123">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AR123">
         <v>1.59</v>
@@ -26698,7 +26704,7 @@
         <v>1.55</v>
       </c>
       <c r="AP125">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AQ125">
         <v>1.52</v>
@@ -27032,7 +27038,7 @@
         <v>159</v>
       </c>
       <c r="P127" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q127">
         <v>3.7</v>
@@ -27189,6 +27195,212 @@
       </c>
       <c r="BP127">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7793222</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45807.70833333334</v>
+      </c>
+      <c r="F128">
+        <v>22</v>
+      </c>
+      <c r="G128" t="s">
+        <v>73</v>
+      </c>
+      <c r="H128" t="s">
+        <v>78</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>2</v>
+      </c>
+      <c r="K128">
+        <v>3</v>
+      </c>
+      <c r="L128">
+        <v>2</v>
+      </c>
+      <c r="M128">
+        <v>4</v>
+      </c>
+      <c r="N128">
+        <v>6</v>
+      </c>
+      <c r="O128" t="s">
+        <v>162</v>
+      </c>
+      <c r="P128" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q128">
+        <v>4.33</v>
+      </c>
+      <c r="R128">
+        <v>1.91</v>
+      </c>
+      <c r="S128">
+        <v>2.9</v>
+      </c>
+      <c r="T128">
+        <v>1.55</v>
+      </c>
+      <c r="U128">
+        <v>2.35</v>
+      </c>
+      <c r="V128">
+        <v>3.55</v>
+      </c>
+      <c r="W128">
+        <v>1.25</v>
+      </c>
+      <c r="X128">
+        <v>8.5</v>
+      </c>
+      <c r="Y128">
+        <v>1.02</v>
+      </c>
+      <c r="Z128">
+        <v>3.5</v>
+      </c>
+      <c r="AA128">
+        <v>2.9</v>
+      </c>
+      <c r="AB128">
+        <v>2.04</v>
+      </c>
+      <c r="AC128">
+        <v>1.1</v>
+      </c>
+      <c r="AD128">
+        <v>6.25</v>
+      </c>
+      <c r="AE128">
+        <v>1.48</v>
+      </c>
+      <c r="AF128">
+        <v>2.37</v>
+      </c>
+      <c r="AG128">
+        <v>2.5</v>
+      </c>
+      <c r="AH128">
+        <v>1.49</v>
+      </c>
+      <c r="AI128">
+        <v>2.2</v>
+      </c>
+      <c r="AJ128">
+        <v>1.6</v>
+      </c>
+      <c r="AK128">
+        <v>1.4</v>
+      </c>
+      <c r="AL128">
+        <v>1.36</v>
+      </c>
+      <c r="AM128">
+        <v>1.29</v>
+      </c>
+      <c r="AN128">
+        <v>1.05</v>
+      </c>
+      <c r="AO128">
+        <v>1.05</v>
+      </c>
+      <c r="AP128">
+        <v>1</v>
+      </c>
+      <c r="AQ128">
+        <v>1.14</v>
+      </c>
+      <c r="AR128">
+        <v>1.26</v>
+      </c>
+      <c r="AS128">
+        <v>1.64</v>
+      </c>
+      <c r="AT128">
+        <v>2.9</v>
+      </c>
+      <c r="AU128">
+        <v>7</v>
+      </c>
+      <c r="AV128">
+        <v>9</v>
+      </c>
+      <c r="AW128">
+        <v>5</v>
+      </c>
+      <c r="AX128">
+        <v>12</v>
+      </c>
+      <c r="AY128">
+        <v>12</v>
+      </c>
+      <c r="AZ128">
+        <v>21</v>
+      </c>
+      <c r="BA128">
+        <v>3</v>
+      </c>
+      <c r="BB128">
+        <v>7</v>
+      </c>
+      <c r="BC128">
+        <v>10</v>
+      </c>
+      <c r="BD128">
+        <v>2.48</v>
+      </c>
+      <c r="BE128">
+        <v>7.5</v>
+      </c>
+      <c r="BF128">
+        <v>1.72</v>
+      </c>
+      <c r="BG128">
+        <v>1.53</v>
+      </c>
+      <c r="BH128">
+        <v>2.35</v>
+      </c>
+      <c r="BI128">
+        <v>1.85</v>
+      </c>
+      <c r="BJ128">
+        <v>1.85</v>
+      </c>
+      <c r="BK128">
+        <v>2.4</v>
+      </c>
+      <c r="BL128">
+        <v>1.5</v>
+      </c>
+      <c r="BM128">
+        <v>3.2</v>
+      </c>
+      <c r="BN128">
+        <v>1.3</v>
+      </c>
+      <c r="BO128">
+        <v>4.5</v>
+      </c>
+      <c r="BP128">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="219">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -669,6 +669,9 @@
   <si>
     <t>['2', '43', '60', '67']</t>
   </si>
+  <si>
+    <t>['21', '30', '36', '62', '78', '90']</t>
+  </si>
 </sst>
 </file>
 
@@ -1029,7 +1032,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP128"/>
+  <dimension ref="A1:BP129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1575,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2396,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AQ7">
         <v>1.95</v>
@@ -2602,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AQ8">
         <v>1.48</v>
@@ -3017,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AR10">
         <v>2.15</v>
@@ -4044,7 +4047,7 @@
         <v>0.5</v>
       </c>
       <c r="AP15">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AQ15">
         <v>1.14</v>
@@ -4871,7 +4874,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ19">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AR19">
         <v>1.79</v>
@@ -5283,7 +5286,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ21">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AR21">
         <v>1.66</v>
@@ -5898,7 +5901,7 @@
         <v>1.33</v>
       </c>
       <c r="AP24">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -6313,7 +6316,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ26">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AR26">
         <v>1.14</v>
@@ -6928,7 +6931,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AQ29">
         <v>1.24</v>
@@ -8164,7 +8167,7 @@
         <v>2.6</v>
       </c>
       <c r="AP35">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AQ35">
         <v>1.95</v>
@@ -8373,7 +8376,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ36">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AR36">
         <v>1.8</v>
@@ -9403,7 +9406,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ41">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AR41">
         <v>1.17</v>
@@ -9812,7 +9815,7 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AQ43">
         <v>1.81</v>
@@ -10018,7 +10021,7 @@
         <v>1.14</v>
       </c>
       <c r="AP44">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AQ44">
         <v>1.24</v>
@@ -10433,7 +10436,7 @@
         <v>1</v>
       </c>
       <c r="AQ46">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AR46">
         <v>1.32</v>
@@ -11463,7 +11466,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ51">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AR51">
         <v>1.14</v>
@@ -11872,7 +11875,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AQ53">
         <v>1.33</v>
@@ -13111,7 +13114,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ59">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AR59">
         <v>1.21</v>
@@ -13520,7 +13523,7 @@
         <v>1.33</v>
       </c>
       <c r="AP61">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AQ61">
         <v>1.33</v>
@@ -14138,10 +14141,10 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AQ64">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AR64">
         <v>1.44</v>
@@ -15374,7 +15377,7 @@
         <v>0.91</v>
       </c>
       <c r="AP70">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AQ70">
         <v>1</v>
@@ -15583,7 +15586,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ71">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AR71">
         <v>1.62</v>
@@ -16407,7 +16410,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ75">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AR75">
         <v>1.43</v>
@@ -16816,7 +16819,7 @@
         <v>0.92</v>
       </c>
       <c r="AP77">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -17849,7 +17852,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ82">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AR82">
         <v>1.47</v>
@@ -18464,7 +18467,7 @@
         <v>1.46</v>
       </c>
       <c r="AP85">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AQ85">
         <v>1.52</v>
@@ -19085,7 +19088,7 @@
         <v>1</v>
       </c>
       <c r="AQ88">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AR88">
         <v>1.25</v>
@@ -19288,7 +19291,7 @@
         <v>1.36</v>
       </c>
       <c r="AP89">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AQ89">
         <v>1.48</v>
@@ -19906,7 +19909,7 @@
         <v>0.87</v>
       </c>
       <c r="AP92">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AQ92">
         <v>0.86</v>
@@ -20939,7 +20942,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ97">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AR97">
         <v>1.39</v>
@@ -21554,7 +21557,7 @@
         <v>1.63</v>
       </c>
       <c r="AP100">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AQ100">
         <v>1.52</v>
@@ -21969,7 +21972,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ102">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AR102">
         <v>1.57</v>
@@ -22584,7 +22587,7 @@
         <v>0.88</v>
       </c>
       <c r="AP105">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AQ105">
         <v>1.14</v>
@@ -22793,7 +22796,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ106">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AR106">
         <v>1.31</v>
@@ -23617,7 +23620,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ110">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AR110">
         <v>1.41</v>
@@ -23820,7 +23823,7 @@
         <v>1.17</v>
       </c>
       <c r="AP111">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AQ111">
         <v>1</v>
@@ -25471,7 +25474,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ119">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AR119">
         <v>1.33</v>
@@ -25674,7 +25677,7 @@
         <v>1.68</v>
       </c>
       <c r="AP120">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AQ120">
         <v>1.81</v>
@@ -26498,7 +26501,7 @@
         <v>0.85</v>
       </c>
       <c r="AP124">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AQ124">
         <v>0.86</v>
@@ -26913,7 +26916,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ126">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AR126">
         <v>1.3</v>
@@ -27401,6 +27404,212 @@
       </c>
       <c r="BP128">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7793218</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45808.79166666666</v>
+      </c>
+      <c r="F129">
+        <v>22</v>
+      </c>
+      <c r="G129" t="s">
+        <v>76</v>
+      </c>
+      <c r="H129" t="s">
+        <v>75</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>3</v>
+      </c>
+      <c r="K129">
+        <v>4</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>6</v>
+      </c>
+      <c r="N129">
+        <v>7</v>
+      </c>
+      <c r="O129" t="s">
+        <v>147</v>
+      </c>
+      <c r="P129" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q129">
+        <v>6</v>
+      </c>
+      <c r="R129">
+        <v>2.05</v>
+      </c>
+      <c r="S129">
+        <v>2.36</v>
+      </c>
+      <c r="T129">
+        <v>1.5</v>
+      </c>
+      <c r="U129">
+        <v>2.6</v>
+      </c>
+      <c r="V129">
+        <v>3.05</v>
+      </c>
+      <c r="W129">
+        <v>1.33</v>
+      </c>
+      <c r="X129">
+        <v>8.5</v>
+      </c>
+      <c r="Y129">
+        <v>1.04</v>
+      </c>
+      <c r="Z129">
+        <v>5.77</v>
+      </c>
+      <c r="AA129">
+        <v>3.68</v>
+      </c>
+      <c r="AB129">
+        <v>1.57</v>
+      </c>
+      <c r="AC129">
+        <v>1.07</v>
+      </c>
+      <c r="AD129">
+        <v>7.5</v>
+      </c>
+      <c r="AE129">
+        <v>1.4</v>
+      </c>
+      <c r="AF129">
+        <v>2.9</v>
+      </c>
+      <c r="AG129">
+        <v>2.25</v>
+      </c>
+      <c r="AH129">
+        <v>1.57</v>
+      </c>
+      <c r="AI129">
+        <v>2.04</v>
+      </c>
+      <c r="AJ129">
+        <v>1.67</v>
+      </c>
+      <c r="AK129">
+        <v>1.26</v>
+      </c>
+      <c r="AL129">
+        <v>1.27</v>
+      </c>
+      <c r="AM129">
+        <v>1.15</v>
+      </c>
+      <c r="AN129">
+        <v>0.86</v>
+      </c>
+      <c r="AO129">
+        <v>1.71</v>
+      </c>
+      <c r="AP129">
+        <v>0.82</v>
+      </c>
+      <c r="AQ129">
+        <v>1.77</v>
+      </c>
+      <c r="AR129">
+        <v>1.28</v>
+      </c>
+      <c r="AS129">
+        <v>1.58</v>
+      </c>
+      <c r="AT129">
+        <v>2.86</v>
+      </c>
+      <c r="AU129">
+        <v>5</v>
+      </c>
+      <c r="AV129">
+        <v>10</v>
+      </c>
+      <c r="AW129">
+        <v>11</v>
+      </c>
+      <c r="AX129">
+        <v>8</v>
+      </c>
+      <c r="AY129">
+        <v>16</v>
+      </c>
+      <c r="AZ129">
+        <v>18</v>
+      </c>
+      <c r="BA129">
+        <v>4</v>
+      </c>
+      <c r="BB129">
+        <v>0</v>
+      </c>
+      <c r="BC129">
+        <v>4</v>
+      </c>
+      <c r="BD129">
+        <v>2.8</v>
+      </c>
+      <c r="BE129">
+        <v>7.9</v>
+      </c>
+      <c r="BF129">
+        <v>1.56</v>
+      </c>
+      <c r="BG129">
+        <v>1.5</v>
+      </c>
+      <c r="BH129">
+        <v>2.4</v>
+      </c>
+      <c r="BI129">
+        <v>1.87</v>
+      </c>
+      <c r="BJ129">
+        <v>1.79</v>
+      </c>
+      <c r="BK129">
+        <v>2.18</v>
+      </c>
+      <c r="BL129">
+        <v>1.44</v>
+      </c>
+      <c r="BM129">
+        <v>3</v>
+      </c>
+      <c r="BN129">
+        <v>1.33</v>
+      </c>
+      <c r="BO129">
+        <v>4</v>
+      </c>
+      <c r="BP129">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="219">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1032,7 +1032,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP129"/>
+  <dimension ref="A1:BP130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1990,7 +1990,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
         <v>1.81</v>
@@ -2811,7 +2811,7 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AQ9">
         <v>0.86</v>
@@ -3638,7 +3638,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ13">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR13">
         <v>1.78</v>
@@ -4462,7 +4462,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ17">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AR17">
         <v>1.68</v>
@@ -4871,7 +4871,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AQ19">
         <v>0.82</v>
@@ -5077,7 +5077,7 @@
         <v>0.33</v>
       </c>
       <c r="AP20">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AQ20">
         <v>1.14</v>
@@ -5492,7 +5492,7 @@
         <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR22">
         <v>1.81</v>
@@ -6934,7 +6934,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ29">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AR29">
         <v>1.56</v>
@@ -7137,7 +7137,7 @@
         <v>1.75</v>
       </c>
       <c r="AP30">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AQ30">
         <v>1.48</v>
@@ -7552,7 +7552,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ32">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AR32">
         <v>1.08</v>
@@ -8373,7 +8373,7 @@
         <v>1.6</v>
       </c>
       <c r="AP36">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AQ36">
         <v>1.77</v>
@@ -8785,7 +8785,7 @@
         <v>1.33</v>
       </c>
       <c r="AP38">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AQ38">
         <v>1.33</v>
@@ -9200,7 +9200,7 @@
         <v>1</v>
       </c>
       <c r="AQ40">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR40">
         <v>1.37</v>
@@ -10024,7 +10024,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ44">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AR44">
         <v>1.37</v>
@@ -10639,7 +10639,7 @@
         <v>1.14</v>
       </c>
       <c r="AP47">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AQ47">
         <v>0.86</v>
@@ -11672,7 +11672,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ52">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR52">
         <v>1.57</v>
@@ -12081,7 +12081,7 @@
         <v>0.75</v>
       </c>
       <c r="AP54">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -12496,7 +12496,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ56">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AR56">
         <v>1.42</v>
@@ -12905,7 +12905,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP58">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58">
         <v>1.14</v>
@@ -14553,10 +14553,10 @@
         <v>1.7</v>
       </c>
       <c r="AP66">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AQ66">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR66">
         <v>1.47</v>
@@ -14965,7 +14965,7 @@
         <v>1.09</v>
       </c>
       <c r="AP68">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AQ68">
         <v>1</v>
@@ -15792,7 +15792,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ72">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR72">
         <v>1.29</v>
@@ -16204,7 +16204,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ74">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AR74">
         <v>1.18</v>
@@ -17025,7 +17025,7 @@
         <v>1.08</v>
       </c>
       <c r="AP78">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AQ78">
         <v>1.33</v>
@@ -17437,7 +17437,7 @@
         <v>2.54</v>
       </c>
       <c r="AP80">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AQ80">
         <v>1.95</v>
@@ -18470,7 +18470,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ85">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR85">
         <v>1.32</v>
@@ -18879,7 +18879,7 @@
         <v>1.07</v>
       </c>
       <c r="AP87">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AQ87">
         <v>1</v>
@@ -19706,7 +19706,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ91">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AR91">
         <v>1.46</v>
@@ -20736,7 +20736,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ96">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR96">
         <v>1.44</v>
@@ -20939,7 +20939,7 @@
         <v>1.67</v>
       </c>
       <c r="AP97">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AQ97">
         <v>1.77</v>
@@ -21351,7 +21351,7 @@
         <v>1.81</v>
       </c>
       <c r="AP99">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AQ99">
         <v>1.81</v>
@@ -21560,7 +21560,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ100">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR100">
         <v>1.58</v>
@@ -23002,7 +23002,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ107">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AR107">
         <v>1.27</v>
@@ -23205,7 +23205,7 @@
         <v>1.06</v>
       </c>
       <c r="AP108">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AQ108">
         <v>1</v>
@@ -23617,7 +23617,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP110">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AQ110">
         <v>0.82</v>
@@ -24444,7 +24444,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ114">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR114">
         <v>1.32</v>
@@ -24856,7 +24856,7 @@
         <v>1</v>
       </c>
       <c r="AQ116">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AR116">
         <v>1.39</v>
@@ -25883,7 +25883,7 @@
         <v>1.95</v>
       </c>
       <c r="AP121">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AQ121">
         <v>1.95</v>
@@ -26710,7 +26710,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ125">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AR125">
         <v>1.66</v>
@@ -27119,7 +27119,7 @@
         <v>1.4</v>
       </c>
       <c r="AP127">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AQ127">
         <v>1.48</v>
@@ -27610,6 +27610,212 @@
       </c>
       <c r="BP129">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7793221</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45809.41666666666</v>
+      </c>
+      <c r="F130">
+        <v>22</v>
+      </c>
+      <c r="G130" t="s">
+        <v>74</v>
+      </c>
+      <c r="H130" t="s">
+        <v>77</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130" t="s">
+        <v>84</v>
+      </c>
+      <c r="P130" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q130">
+        <v>2.02</v>
+      </c>
+      <c r="R130">
+        <v>2.25</v>
+      </c>
+      <c r="S130">
+        <v>5.5</v>
+      </c>
+      <c r="T130">
+        <v>1.32</v>
+      </c>
+      <c r="U130">
+        <v>2.95</v>
+      </c>
+      <c r="V130">
+        <v>2.87</v>
+      </c>
+      <c r="W130">
+        <v>1.4</v>
+      </c>
+      <c r="X130">
+        <v>6.4</v>
+      </c>
+      <c r="Y130">
+        <v>1.09</v>
+      </c>
+      <c r="Z130">
+        <v>1.5</v>
+      </c>
+      <c r="AA130">
+        <v>4</v>
+      </c>
+      <c r="AB130">
+        <v>6</v>
+      </c>
+      <c r="AC130">
+        <v>1.05</v>
+      </c>
+      <c r="AD130">
+        <v>10</v>
+      </c>
+      <c r="AE130">
+        <v>1.28</v>
+      </c>
+      <c r="AF130">
+        <v>3.3</v>
+      </c>
+      <c r="AG130">
+        <v>1.89</v>
+      </c>
+      <c r="AH130">
+        <v>1.89</v>
+      </c>
+      <c r="AI130">
+        <v>2</v>
+      </c>
+      <c r="AJ130">
+        <v>1.8</v>
+      </c>
+      <c r="AK130">
+        <v>1.25</v>
+      </c>
+      <c r="AL130">
+        <v>1.22</v>
+      </c>
+      <c r="AM130">
+        <v>2.32</v>
+      </c>
+      <c r="AN130">
+        <v>1.52</v>
+      </c>
+      <c r="AO130">
+        <v>1.24</v>
+      </c>
+      <c r="AP130">
+        <v>1.5</v>
+      </c>
+      <c r="AQ130">
+        <v>1.23</v>
+      </c>
+      <c r="AR130">
+        <v>1.67</v>
+      </c>
+      <c r="AS130">
+        <v>1.43</v>
+      </c>
+      <c r="AT130">
+        <v>3.1</v>
+      </c>
+      <c r="AU130">
+        <v>0</v>
+      </c>
+      <c r="AV130">
+        <v>6</v>
+      </c>
+      <c r="AW130">
+        <v>9</v>
+      </c>
+      <c r="AX130">
+        <v>15</v>
+      </c>
+      <c r="AY130">
+        <v>9</v>
+      </c>
+      <c r="AZ130">
+        <v>21</v>
+      </c>
+      <c r="BA130">
+        <v>5</v>
+      </c>
+      <c r="BB130">
+        <v>4</v>
+      </c>
+      <c r="BC130">
+        <v>9</v>
+      </c>
+      <c r="BD130">
+        <v>1.42</v>
+      </c>
+      <c r="BE130">
+        <v>6.75</v>
+      </c>
+      <c r="BF130">
+        <v>3.05</v>
+      </c>
+      <c r="BG130">
+        <v>1.43</v>
+      </c>
+      <c r="BH130">
+        <v>2.6</v>
+      </c>
+      <c r="BI130">
+        <v>1.7</v>
+      </c>
+      <c r="BJ130">
+        <v>2.02</v>
+      </c>
+      <c r="BK130">
+        <v>2.2</v>
+      </c>
+      <c r="BL130">
+        <v>1.58</v>
+      </c>
+      <c r="BM130">
+        <v>2.74</v>
+      </c>
+      <c r="BN130">
+        <v>1.35</v>
+      </c>
+      <c r="BO130">
+        <v>3.6</v>
+      </c>
+      <c r="BP130">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="221">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -505,6 +505,9 @@
     <t>['13', '90+2']</t>
   </si>
   <si>
+    <t>['35', '57']</t>
+  </si>
+  <si>
     <t>['7', '90']</t>
   </si>
   <si>
@@ -671,6 +674,9 @@
   </si>
   <si>
     <t>['21', '30', '36', '62', '78', '90']</t>
+  </si>
+  <si>
+    <t>['53']</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1038,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP130"/>
+  <dimension ref="A1:BP132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1291,7 +1297,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1369,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AQ2">
         <v>1.33</v>
@@ -1497,7 +1503,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1781,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AQ4">
         <v>1.14</v>
@@ -1909,7 +1915,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q5">
         <v>2.75</v>
@@ -2115,7 +2121,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2196,7 +2202,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2321,7 +2327,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2402,7 +2408,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ7">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2527,7 +2533,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q8">
         <v>3.4</v>
@@ -2608,7 +2614,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ8">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AR8">
         <v>1.35</v>
@@ -2733,7 +2739,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q9">
         <v>3.6</v>
@@ -2814,7 +2820,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ9">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AR9">
         <v>1.34</v>
@@ -3145,7 +3151,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3226,7 +3232,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ11">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0.7</v>
@@ -3429,7 +3435,7 @@
         <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -3557,7 +3563,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q13">
         <v>4.33</v>
@@ -3841,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4381,7 +4387,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4459,7 +4465,7 @@
         <v>0.5</v>
       </c>
       <c r="AP17">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
         <v>1.23</v>
@@ -4587,7 +4593,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q18">
         <v>3.75</v>
@@ -4665,10 +4671,10 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AQ18">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="AR18">
         <v>1.16</v>
@@ -5283,7 +5289,7 @@
         <v>1.67</v>
       </c>
       <c r="AP21">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AQ21">
         <v>1.77</v>
@@ -5411,7 +5417,7 @@
         <v>84</v>
       </c>
       <c r="P22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q22">
         <v>4.79</v>
@@ -5617,7 +5623,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q23">
         <v>3.74</v>
@@ -5695,10 +5701,10 @@
         <v>2.33</v>
       </c>
       <c r="AP23">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="AQ23">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AR23">
         <v>1.04</v>
@@ -6110,7 +6116,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ25">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AR25">
         <v>1.38</v>
@@ -6235,7 +6241,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q26">
         <v>2.6</v>
@@ -6313,7 +6319,7 @@
         <v>1.25</v>
       </c>
       <c r="AP26">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AQ26">
         <v>0.82</v>
@@ -6647,7 +6653,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q28">
         <v>3.25</v>
@@ -6728,7 +6734,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ28">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="AR28">
         <v>1.14</v>
@@ -6853,7 +6859,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q29">
         <v>1.8</v>
@@ -7059,7 +7065,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7140,7 +7146,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ30">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AR30">
         <v>1.83</v>
@@ -7343,7 +7349,7 @@
         <v>1.25</v>
       </c>
       <c r="AP31">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
         <v>1.33</v>
@@ -7471,7 +7477,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q32">
         <v>2.6</v>
@@ -7549,7 +7555,7 @@
         <v>0.8</v>
       </c>
       <c r="AP32">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="AQ32">
         <v>1.23</v>
@@ -7758,7 +7764,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AR33">
         <v>1.83</v>
@@ -7883,7 +7889,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q34">
         <v>3.29</v>
@@ -8089,7 +8095,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q35">
         <v>5.47</v>
@@ -8170,7 +8176,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ35">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AR35">
         <v>1.46</v>
@@ -8295,7 +8301,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8579,7 +8585,7 @@
         <v>1.4</v>
       </c>
       <c r="AP37">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -8991,7 +8997,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9119,7 +9125,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q40">
         <v>4.4</v>
@@ -9531,7 +9537,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9609,10 +9615,10 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AQ42">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AR42">
         <v>1.17</v>
@@ -9818,7 +9824,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ43">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="AR43">
         <v>1.5</v>
@@ -9943,7 +9949,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q44">
         <v>3.5</v>
@@ -10149,7 +10155,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q45">
         <v>4.6</v>
@@ -10227,10 +10233,10 @@
         <v>2.71</v>
       </c>
       <c r="AP45">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AQ45">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AR45">
         <v>1.43</v>
@@ -10355,7 +10361,7 @@
         <v>84</v>
       </c>
       <c r="P46" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -10561,7 +10567,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q47">
         <v>2.06</v>
@@ -10642,7 +10648,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ47">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AR47">
         <v>1.75</v>
@@ -11054,7 +11060,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ49">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="AR49">
         <v>1.28</v>
@@ -11257,7 +11263,7 @@
         <v>1.13</v>
       </c>
       <c r="AP50">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AQ50">
         <v>1</v>
@@ -11463,7 +11469,7 @@
         <v>0.75</v>
       </c>
       <c r="AP51">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="AQ51">
         <v>0.82</v>
@@ -11669,7 +11675,7 @@
         <v>2.13</v>
       </c>
       <c r="AP52">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ52">
         <v>1.5</v>
@@ -12003,7 +12009,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12290,7 +12296,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ55">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AR55">
         <v>1.34</v>
@@ -12493,7 +12499,7 @@
         <v>1.22</v>
       </c>
       <c r="AP56">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AQ56">
         <v>1.23</v>
@@ -12621,7 +12627,7 @@
         <v>84</v>
       </c>
       <c r="P57" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q57">
         <v>4.75</v>
@@ -12702,7 +12708,7 @@
         <v>1</v>
       </c>
       <c r="AQ57">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AR57">
         <v>1.3</v>
@@ -13033,7 +13039,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q59">
         <v>4.96</v>
@@ -13111,7 +13117,7 @@
         <v>1.56</v>
       </c>
       <c r="AP59">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AQ59">
         <v>1.77</v>
@@ -13239,7 +13245,7 @@
         <v>84</v>
       </c>
       <c r="P60" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13320,7 +13326,7 @@
         <v>1</v>
       </c>
       <c r="AQ60">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="AR60">
         <v>1.65</v>
@@ -13651,7 +13657,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q62">
         <v>2.8</v>
@@ -13729,10 +13735,10 @@
         <v>1.2</v>
       </c>
       <c r="AP62">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="AQ62">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AR62">
         <v>1.2</v>
@@ -13935,10 +13941,10 @@
         <v>0.9</v>
       </c>
       <c r="AP63">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ63">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AR63">
         <v>1.64</v>
@@ -14269,7 +14275,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q65">
         <v>2.95</v>
@@ -15093,7 +15099,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15174,7 +15180,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ69">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AR69">
         <v>1.22</v>
@@ -15299,7 +15305,7 @@
         <v>102</v>
       </c>
       <c r="P70" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15583,7 +15589,7 @@
         <v>1.64</v>
       </c>
       <c r="AP71">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ71">
         <v>1.77</v>
@@ -15711,7 +15717,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q72">
         <v>3.8</v>
@@ -15789,7 +15795,7 @@
         <v>1.64</v>
       </c>
       <c r="AP72">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="AQ72">
         <v>1.5</v>
@@ -15998,7 +16004,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ73">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AR73">
         <v>1.45</v>
@@ -16123,7 +16129,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q74">
         <v>2.8</v>
@@ -16201,7 +16207,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AQ74">
         <v>1.23</v>
@@ -16329,7 +16335,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q75">
         <v>2.45</v>
@@ -16407,7 +16413,7 @@
         <v>0.92</v>
       </c>
       <c r="AP75">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AQ75">
         <v>0.82</v>
@@ -16613,7 +16619,7 @@
         <v>1.17</v>
       </c>
       <c r="AP76">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ76">
         <v>1.14</v>
@@ -17234,7 +17240,7 @@
         <v>1</v>
       </c>
       <c r="AQ79">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="AR79">
         <v>1.28</v>
@@ -17440,7 +17446,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ80">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AR80">
         <v>1.4</v>
@@ -17646,7 +17652,7 @@
         <v>1</v>
       </c>
       <c r="AQ81">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AR81">
         <v>1.44</v>
@@ -17771,7 +17777,7 @@
         <v>122</v>
       </c>
       <c r="P82" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17977,7 +17983,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q83">
         <v>2.75</v>
@@ -18261,10 +18267,10 @@
         <v>0.77</v>
       </c>
       <c r="AP84">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="AQ84">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AR84">
         <v>1.28</v>
@@ -18389,7 +18395,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q85">
         <v>4.41</v>
@@ -18595,7 +18601,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q86">
         <v>2.2</v>
@@ -18673,10 +18679,10 @@
         <v>1.64</v>
       </c>
       <c r="AP86">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ86">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="AR86">
         <v>1.64</v>
@@ -18801,7 +18807,7 @@
         <v>139</v>
       </c>
       <c r="P87" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q87">
         <v>2.2</v>
@@ -19007,7 +19013,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q88">
         <v>3.55</v>
@@ -19294,7 +19300,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ89">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AR89">
         <v>1.53</v>
@@ -19419,7 +19425,7 @@
         <v>141</v>
       </c>
       <c r="P90" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19497,7 +19503,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AQ90">
         <v>1.33</v>
@@ -19912,7 +19918,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ92">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AR92">
         <v>1.33</v>
@@ -20037,7 +20043,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q93">
         <v>3.2</v>
@@ -20115,7 +20121,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="AQ93">
         <v>1.14</v>
@@ -20530,7 +20536,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ95">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AR95">
         <v>1.3</v>
@@ -20733,7 +20739,7 @@
         <v>1.67</v>
       </c>
       <c r="AP96">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AQ96">
         <v>1.5</v>
@@ -20861,7 +20867,7 @@
         <v>143</v>
       </c>
       <c r="P97" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q97">
         <v>4.8</v>
@@ -21145,7 +21151,7 @@
         <v>1</v>
       </c>
       <c r="AP98">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AQ98">
         <v>1</v>
@@ -21273,7 +21279,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21354,7 +21360,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ99">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="AR99">
         <v>1.4</v>
@@ -21479,7 +21485,7 @@
         <v>146</v>
       </c>
       <c r="P100" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q100">
         <v>2.8</v>
@@ -21969,7 +21975,7 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ102">
         <v>0.82</v>
@@ -22097,7 +22103,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q103">
         <v>3.15</v>
@@ -22178,7 +22184,7 @@
         <v>1</v>
       </c>
       <c r="AQ103">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AR103">
         <v>1.2</v>
@@ -22381,10 +22387,10 @@
         <v>0.88</v>
       </c>
       <c r="AP104">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AQ104">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AR104">
         <v>1.47</v>
@@ -22509,7 +22515,7 @@
         <v>149</v>
       </c>
       <c r="P105" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -22715,7 +22721,7 @@
         <v>84</v>
       </c>
       <c r="P106" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q106">
         <v>3.65</v>
@@ -22793,7 +22799,7 @@
         <v>1.65</v>
       </c>
       <c r="AP106">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="AQ106">
         <v>1.77</v>
@@ -22921,7 +22927,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q107">
         <v>2.7</v>
@@ -23127,7 +23133,7 @@
         <v>84</v>
       </c>
       <c r="P108" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q108">
         <v>2.2</v>
@@ -23414,7 +23420,7 @@
         <v>1</v>
       </c>
       <c r="AQ109">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AR109">
         <v>1.46</v>
@@ -23539,7 +23545,7 @@
         <v>151</v>
       </c>
       <c r="P110" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -24157,7 +24163,7 @@
         <v>154</v>
       </c>
       <c r="P113" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q113">
         <v>2.15</v>
@@ -24235,10 +24241,10 @@
         <v>1.33</v>
       </c>
       <c r="AP113">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ113">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AR113">
         <v>1.63</v>
@@ -24441,7 +24447,7 @@
         <v>1.61</v>
       </c>
       <c r="AP114">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AQ114">
         <v>1.5</v>
@@ -24569,7 +24575,7 @@
         <v>155</v>
       </c>
       <c r="P115" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q115">
         <v>2.9</v>
@@ -24647,7 +24653,7 @@
         <v>1.17</v>
       </c>
       <c r="AP115">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="AQ115">
         <v>1.33</v>
@@ -25059,7 +25065,7 @@
         <v>1.11</v>
       </c>
       <c r="AP117">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AQ117">
         <v>1.14</v>
@@ -25187,7 +25193,7 @@
         <v>157</v>
       </c>
       <c r="P118" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q118">
         <v>3.3</v>
@@ -25268,7 +25274,7 @@
         <v>1</v>
       </c>
       <c r="AQ118">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AR118">
         <v>1.28</v>
@@ -25599,7 +25605,7 @@
         <v>97</v>
       </c>
       <c r="P120" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q120">
         <v>3.25</v>
@@ -25680,7 +25686,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ120">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="AR120">
         <v>1.3</v>
@@ -25886,7 +25892,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ121">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AR121">
         <v>1.67</v>
@@ -26011,7 +26017,7 @@
         <v>158</v>
       </c>
       <c r="P122" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q122">
         <v>2.71</v>
@@ -26089,7 +26095,7 @@
         <v>1.05</v>
       </c>
       <c r="AP122">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="AQ122">
         <v>1</v>
@@ -26295,7 +26301,7 @@
         <v>1.1</v>
       </c>
       <c r="AP123">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ123">
         <v>1</v>
@@ -26504,7 +26510,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ124">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AR124">
         <v>1.56</v>
@@ -27041,7 +27047,7 @@
         <v>159</v>
       </c>
       <c r="P127" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q127">
         <v>3.7</v>
@@ -27122,7 +27128,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ127">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AR127">
         <v>1.41</v>
@@ -27247,7 +27253,7 @@
         <v>162</v>
       </c>
       <c r="P128" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q128">
         <v>4.33</v>
@@ -27453,7 +27459,7 @@
         <v>147</v>
       </c>
       <c r="P129" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q129">
         <v>6</v>
@@ -27816,6 +27822,418 @@
       </c>
       <c r="BP130">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7793220</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45809.66666666666</v>
+      </c>
+      <c r="F131">
+        <v>22</v>
+      </c>
+      <c r="G131" t="s">
+        <v>70</v>
+      </c>
+      <c r="H131" t="s">
+        <v>79</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>2</v>
+      </c>
+      <c r="L131">
+        <v>2</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>3</v>
+      </c>
+      <c r="O131" t="s">
+        <v>163</v>
+      </c>
+      <c r="P131" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q131">
+        <v>3</v>
+      </c>
+      <c r="R131">
+        <v>1.75</v>
+      </c>
+      <c r="S131">
+        <v>3.85</v>
+      </c>
+      <c r="T131">
+        <v>1.46</v>
+      </c>
+      <c r="U131">
+        <v>2.52</v>
+      </c>
+      <c r="V131">
+        <v>3.2</v>
+      </c>
+      <c r="W131">
+        <v>1.28</v>
+      </c>
+      <c r="X131">
+        <v>9</v>
+      </c>
+      <c r="Y131">
+        <v>1.01</v>
+      </c>
+      <c r="Z131">
+        <v>2.32</v>
+      </c>
+      <c r="AA131">
+        <v>3.1</v>
+      </c>
+      <c r="AB131">
+        <v>2.73</v>
+      </c>
+      <c r="AC131">
+        <v>1.05</v>
+      </c>
+      <c r="AD131">
+        <v>7.5</v>
+      </c>
+      <c r="AE131">
+        <v>1.37</v>
+      </c>
+      <c r="AF131">
+        <v>2.8</v>
+      </c>
+      <c r="AG131">
+        <v>2.1</v>
+      </c>
+      <c r="AH131">
+        <v>1.6</v>
+      </c>
+      <c r="AI131">
+        <v>1.87</v>
+      </c>
+      <c r="AJ131">
+        <v>1.77</v>
+      </c>
+      <c r="AK131">
+        <v>1.33</v>
+      </c>
+      <c r="AL131">
+        <v>1.3</v>
+      </c>
+      <c r="AM131">
+        <v>1.65</v>
+      </c>
+      <c r="AN131">
+        <v>1.48</v>
+      </c>
+      <c r="AO131">
+        <v>1.81</v>
+      </c>
+      <c r="AP131">
+        <v>1.55</v>
+      </c>
+      <c r="AQ131">
+        <v>1.73</v>
+      </c>
+      <c r="AR131">
+        <v>1.52</v>
+      </c>
+      <c r="AS131">
+        <v>1.31</v>
+      </c>
+      <c r="AT131">
+        <v>2.83</v>
+      </c>
+      <c r="AU131">
+        <v>9</v>
+      </c>
+      <c r="AV131">
+        <v>5</v>
+      </c>
+      <c r="AW131">
+        <v>5</v>
+      </c>
+      <c r="AX131">
+        <v>5</v>
+      </c>
+      <c r="AY131">
+        <v>14</v>
+      </c>
+      <c r="AZ131">
+        <v>10</v>
+      </c>
+      <c r="BA131">
+        <v>3</v>
+      </c>
+      <c r="BB131">
+        <v>4</v>
+      </c>
+      <c r="BC131">
+        <v>7</v>
+      </c>
+      <c r="BD131">
+        <v>1.66</v>
+      </c>
+      <c r="BE131">
+        <v>6.75</v>
+      </c>
+      <c r="BF131">
+        <v>3.04</v>
+      </c>
+      <c r="BG131">
+        <v>1.44</v>
+      </c>
+      <c r="BH131">
+        <v>2.6</v>
+      </c>
+      <c r="BI131">
+        <v>1.73</v>
+      </c>
+      <c r="BJ131">
+        <v>2.03</v>
+      </c>
+      <c r="BK131">
+        <v>2.2</v>
+      </c>
+      <c r="BL131">
+        <v>1.62</v>
+      </c>
+      <c r="BM131">
+        <v>2.8</v>
+      </c>
+      <c r="BN131">
+        <v>1.38</v>
+      </c>
+      <c r="BO131">
+        <v>3.8</v>
+      </c>
+      <c r="BP131">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7793223</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45809.66666666666</v>
+      </c>
+      <c r="F132">
+        <v>22</v>
+      </c>
+      <c r="G132" t="s">
+        <v>72</v>
+      </c>
+      <c r="H132" t="s">
+        <v>81</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>1</v>
+      </c>
+      <c r="O132" t="s">
+        <v>84</v>
+      </c>
+      <c r="P132" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q132">
+        <v>3.8</v>
+      </c>
+      <c r="R132">
+        <v>1.93</v>
+      </c>
+      <c r="S132">
+        <v>3.15</v>
+      </c>
+      <c r="T132">
+        <v>1.5</v>
+      </c>
+      <c r="U132">
+        <v>2.35</v>
+      </c>
+      <c r="V132">
+        <v>3.74</v>
+      </c>
+      <c r="W132">
+        <v>1.21</v>
+      </c>
+      <c r="X132">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y132">
+        <v>1</v>
+      </c>
+      <c r="Z132">
+        <v>4.2</v>
+      </c>
+      <c r="AA132">
+        <v>2.84</v>
+      </c>
+      <c r="AB132">
+        <v>1.89</v>
+      </c>
+      <c r="AC132">
+        <v>1.08</v>
+      </c>
+      <c r="AD132">
+        <v>6.2</v>
+      </c>
+      <c r="AE132">
+        <v>1.48</v>
+      </c>
+      <c r="AF132">
+        <v>2.37</v>
+      </c>
+      <c r="AG132">
+        <v>2.59</v>
+      </c>
+      <c r="AH132">
+        <v>1.44</v>
+      </c>
+      <c r="AI132">
+        <v>2.1</v>
+      </c>
+      <c r="AJ132">
+        <v>1.62</v>
+      </c>
+      <c r="AK132">
+        <v>1.4</v>
+      </c>
+      <c r="AL132">
+        <v>1.33</v>
+      </c>
+      <c r="AM132">
+        <v>1.33</v>
+      </c>
+      <c r="AN132">
+        <v>0.86</v>
+      </c>
+      <c r="AO132">
+        <v>1.95</v>
+      </c>
+      <c r="AP132">
+        <v>0.82</v>
+      </c>
+      <c r="AQ132">
+        <v>2</v>
+      </c>
+      <c r="AR132">
+        <v>1.3</v>
+      </c>
+      <c r="AS132">
+        <v>1.61</v>
+      </c>
+      <c r="AT132">
+        <v>2.91</v>
+      </c>
+      <c r="AU132">
+        <v>3</v>
+      </c>
+      <c r="AV132">
+        <v>3</v>
+      </c>
+      <c r="AW132">
+        <v>6</v>
+      </c>
+      <c r="AX132">
+        <v>4</v>
+      </c>
+      <c r="AY132">
+        <v>9</v>
+      </c>
+      <c r="AZ132">
+        <v>7</v>
+      </c>
+      <c r="BA132">
+        <v>3</v>
+      </c>
+      <c r="BB132">
+        <v>3</v>
+      </c>
+      <c r="BC132">
+        <v>6</v>
+      </c>
+      <c r="BD132">
+        <v>2.37</v>
+      </c>
+      <c r="BE132">
+        <v>6</v>
+      </c>
+      <c r="BF132">
+        <v>1.8</v>
+      </c>
+      <c r="BG132">
+        <v>1.5</v>
+      </c>
+      <c r="BH132">
+        <v>2.39</v>
+      </c>
+      <c r="BI132">
+        <v>1.9</v>
+      </c>
+      <c r="BJ132">
+        <v>1.84</v>
+      </c>
+      <c r="BK132">
+        <v>2.52</v>
+      </c>
+      <c r="BL132">
+        <v>1.54</v>
+      </c>
+      <c r="BM132">
+        <v>3.15</v>
+      </c>
+      <c r="BN132">
+        <v>1.29</v>
+      </c>
+      <c r="BO132">
+        <v>4.35</v>
+      </c>
+      <c r="BP132">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Paraguay Division Profesional_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="221">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1038,7 +1038,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP132"/>
+  <dimension ref="A1:BP133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1378,7 +1378,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ2">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -3641,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ13">
         <v>1.5</v>
@@ -4262,7 +4262,7 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR16">
         <v>1.31</v>
@@ -6113,7 +6113,7 @@
         <v>1.33</v>
       </c>
       <c r="AP25">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ25">
         <v>0.82</v>
@@ -7352,7 +7352,7 @@
         <v>2</v>
       </c>
       <c r="AQ31">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR31">
         <v>1.72</v>
@@ -7967,7 +7967,7 @@
         <v>0.2</v>
       </c>
       <c r="AP34">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ34">
         <v>1.14</v>
@@ -8794,7 +8794,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ38">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR38">
         <v>1.26</v>
@@ -11057,7 +11057,7 @@
         <v>2.14</v>
       </c>
       <c r="AP49">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ49">
         <v>1.73</v>
@@ -11884,7 +11884,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ53">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR53">
         <v>1.53</v>
@@ -13532,7 +13532,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ61">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR61">
         <v>1.44</v>
@@ -14353,7 +14353,7 @@
         <v>0.9</v>
       </c>
       <c r="AP65">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -15177,7 +15177,7 @@
         <v>1.36</v>
       </c>
       <c r="AP69">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ69">
         <v>1.55</v>
@@ -17034,7 +17034,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ78">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR78">
         <v>1.69</v>
@@ -18061,7 +18061,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ83">
         <v>1</v>
@@ -19506,7 +19506,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ90">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR90">
         <v>1.27</v>
@@ -20533,7 +20533,7 @@
         <v>2.27</v>
       </c>
       <c r="AP95">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ95">
         <v>2</v>
@@ -21772,7 +21772,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ101">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR101">
         <v>1.59</v>
@@ -23005,7 +23005,7 @@
         <v>1.24</v>
       </c>
       <c r="AP107">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ107">
         <v>1.23</v>
@@ -24656,7 +24656,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ115">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR115">
         <v>1.32</v>
@@ -25477,7 +25477,7 @@
         <v>1.79</v>
       </c>
       <c r="AP119">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ119">
         <v>1.77</v>
@@ -26919,7 +26919,7 @@
         <v>0.9</v>
       </c>
       <c r="AP126">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AQ126">
         <v>0.82</v>
@@ -28233,6 +28233,212 @@
         <v>4.35</v>
       </c>
       <c r="BP132">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7793219</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45810.70833333334</v>
+      </c>
+      <c r="F133">
+        <v>22</v>
+      </c>
+      <c r="G133" t="s">
+        <v>71</v>
+      </c>
+      <c r="H133" t="s">
+        <v>80</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133" t="s">
+        <v>84</v>
+      </c>
+      <c r="P133" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q133">
+        <v>3.6</v>
+      </c>
+      <c r="R133">
+        <v>2.05</v>
+      </c>
+      <c r="S133">
+        <v>3.2</v>
+      </c>
+      <c r="T133">
+        <v>1.4</v>
+      </c>
+      <c r="U133">
+        <v>2.6</v>
+      </c>
+      <c r="V133">
+        <v>3.2</v>
+      </c>
+      <c r="W133">
+        <v>1.3</v>
+      </c>
+      <c r="X133">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y133">
+        <v>1.05</v>
+      </c>
+      <c r="Z133">
+        <v>2.82</v>
+      </c>
+      <c r="AA133">
+        <v>2.87</v>
+      </c>
+      <c r="AB133">
+        <v>2.4</v>
+      </c>
+      <c r="AC133">
+        <v>1.01</v>
+      </c>
+      <c r="AD133">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE133">
+        <v>1.4</v>
+      </c>
+      <c r="AF133">
+        <v>2.8</v>
+      </c>
+      <c r="AG133">
+        <v>2.25</v>
+      </c>
+      <c r="AH133">
+        <v>1.53</v>
+      </c>
+      <c r="AI133">
+        <v>1.9</v>
+      </c>
+      <c r="AJ133">
+        <v>1.8</v>
+      </c>
+      <c r="AK133">
+        <v>1.36</v>
+      </c>
+      <c r="AL133">
+        <v>1.32</v>
+      </c>
+      <c r="AM133">
+        <v>1.32</v>
+      </c>
+      <c r="AN133">
+        <v>1</v>
+      </c>
+      <c r="AO133">
+        <v>1.33</v>
+      </c>
+      <c r="AP133">
+        <v>1</v>
+      </c>
+      <c r="AQ133">
+        <v>1.32</v>
+      </c>
+      <c r="AR133">
+        <v>1.38</v>
+      </c>
+      <c r="AS133">
+        <v>1.31</v>
+      </c>
+      <c r="AT133">
+        <v>2.69</v>
+      </c>
+      <c r="AU133">
+        <v>3</v>
+      </c>
+      <c r="AV133">
+        <v>6</v>
+      </c>
+      <c r="AW133">
+        <v>12</v>
+      </c>
+      <c r="AX133">
+        <v>10</v>
+      </c>
+      <c r="AY133">
+        <v>15</v>
+      </c>
+      <c r="AZ133">
+        <v>16</v>
+      </c>
+      <c r="BA133">
+        <v>8</v>
+      </c>
+      <c r="BB133">
+        <v>6</v>
+      </c>
+      <c r="BC133">
+        <v>14</v>
+      </c>
+      <c r="BD133">
+        <v>2.3</v>
+      </c>
+      <c r="BE133">
+        <v>6</v>
+      </c>
+      <c r="BF133">
+        <v>1.91</v>
+      </c>
+      <c r="BG133">
+        <v>1.48</v>
+      </c>
+      <c r="BH133">
+        <v>2.63</v>
+      </c>
+      <c r="BI133">
+        <v>1.7</v>
+      </c>
+      <c r="BJ133">
+        <v>2</v>
+      </c>
+      <c r="BK133">
+        <v>2.2</v>
+      </c>
+      <c r="BL133">
+        <v>1.62</v>
+      </c>
+      <c r="BM133">
+        <v>2.8</v>
+      </c>
+      <c r="BN133">
+        <v>1.38</v>
+      </c>
+      <c r="BO133">
+        <v>3.6</v>
+      </c>
+      <c r="BP133">
         <v>1.18</v>
       </c>
     </row>
